--- a/Long_Term_Pest_Data/WBC_2011_2022_Field Corn.xlsx
+++ b/Long_Term_Pest_Data/WBC_2011_2022_Field Corn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klw24\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloecho/cornell/cornell/Long_Term_Pest_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FCE10-7C86-43C6-82FA-A19AA8568763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E4219-C542-8D4B-9667-1921BC91260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5720" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 WBCData" sheetId="27" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2013WBCData" sheetId="24" r:id="rId10"/>
     <sheet name="2012WBCData" sheetId="22" r:id="rId11"/>
     <sheet name="2011WBCData" sheetId="21" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="FarmInfo">'[1]Farm Information'!$D$1:$L$37</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="564">
   <si>
     <t>Field Data</t>
   </si>
@@ -1711,12 +1712,45 @@
   <si>
     <t>Degni</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>Field Corn</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>State_Province</t>
+  </si>
+  <si>
+    <t>Pest</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Whitney_Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="90">
+  <fonts count="91">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1763,6 +1797,7 @@
     <font>
       <sz val="12"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1975,17 +2010,20 @@
       <b/>
       <sz val="12"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1999,22 +2037,26 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -2028,12 +2070,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2064,6 +2108,7 @@
       <sz val="12"/>
       <color rgb="FF008000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2224,30 +2269,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF008000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2263,6 +2314,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2767,7 +2824,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3766,6 +3823,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3848,7 +3920,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="data field description"/>
@@ -5179,26 +5251,26 @@
       <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.1640625" customWidth="1"/>
-    <col min="39" max="39" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1086" s="17" customFormat="1" ht="29" thickBot="1">
+    <row r="1" spans="1:1086" s="17" customFormat="1" ht="47" thickBot="1">
       <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
@@ -6364,7 +6436,7 @@
       <c r="AOS1" s="89"/>
       <c r="AOT1" s="89"/>
     </row>
-    <row r="2" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="2" spans="1:1086" s="17" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="107" t="s">
         <v>70</v>
       </c>
@@ -7526,7 +7598,7 @@
       <c r="AOS2" s="89"/>
       <c r="AOT2" s="89"/>
     </row>
-    <row r="3" spans="1:1086" s="17" customFormat="1" ht="43" thickBot="1">
+    <row r="3" spans="1:1086" s="17" customFormat="1" ht="47" thickBot="1">
       <c r="A3" s="107" t="s">
         <v>71</v>
       </c>
@@ -8688,7 +8760,7 @@
       <c r="AOS3" s="89"/>
       <c r="AOT3" s="89"/>
     </row>
-    <row r="4" spans="1:1086" ht="16" thickBot="1">
+    <row r="4" spans="1:1086" ht="32" thickBot="1">
       <c r="B4" s="136" t="s">
         <v>537</v>
       </c>
@@ -8804,7 +8876,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:1086" s="17" customFormat="1" ht="35.5" thickBot="1">
+    <row r="5" spans="1:1086" s="17" customFormat="1" ht="39" thickBot="1">
       <c r="A5" s="127" t="s">
         <v>528</v>
       </c>
@@ -8847,7 +8919,7 @@
       <c r="AL5" s="394"/>
       <c r="AM5" s="394"/>
     </row>
-    <row r="6" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="6" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A6" s="142">
         <v>44731</v>
       </c>
@@ -8890,7 +8962,7 @@
       <c r="AL6" s="114"/>
       <c r="AM6" s="114"/>
     </row>
-    <row r="7" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A7" s="142">
         <v>44738</v>
       </c>
@@ -8933,7 +9005,7 @@
       <c r="AL7" s="114"/>
       <c r="AM7" s="114"/>
     </row>
-    <row r="8" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="142">
         <v>44745</v>
       </c>
@@ -8978,7 +9050,7 @@
       <c r="AL8" s="114"/>
       <c r="AM8" s="114"/>
     </row>
-    <row r="9" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="142">
         <v>44752</v>
       </c>
@@ -9055,7 +9127,7 @@
       </c>
       <c r="AM9" s="114"/>
     </row>
-    <row r="10" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A10" s="142">
         <v>44759</v>
       </c>
@@ -9152,7 +9224,7 @@
       </c>
       <c r="AM10" s="114"/>
     </row>
-    <row r="11" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A11" s="142">
         <v>44766</v>
       </c>
@@ -9265,7 +9337,7 @@
       </c>
       <c r="AM11" s="114"/>
     </row>
-    <row r="12" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A12" s="142">
         <v>44773</v>
       </c>
@@ -9376,7 +9448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A13" s="142">
         <v>44780</v>
       </c>
@@ -9491,7 +9563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A14" s="142">
         <v>44787</v>
       </c>
@@ -9602,7 +9674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A15" s="142">
         <v>44794</v>
       </c>
@@ -9703,7 +9775,7 @@
       <c r="AL15" s="37"/>
       <c r="AM15" s="114"/>
     </row>
-    <row r="16" spans="1:1086" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="1:1086" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A16" s="142">
         <v>44801</v>
       </c>
@@ -9778,7 +9850,7 @@
       </c>
       <c r="AM16" s="114"/>
     </row>
-    <row r="17" spans="1:39" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A17" s="142">
         <v>44808</v>
       </c>
@@ -9845,7 +9917,7 @@
       </c>
       <c r="AM17" s="109"/>
     </row>
-    <row r="18" spans="1:39" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A18" s="142">
         <v>44815</v>
       </c>
@@ -9892,7 +9964,7 @@
       <c r="AL18" s="114"/>
       <c r="AM18" s="114"/>
     </row>
-    <row r="19" spans="1:39" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="19" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
       <c r="A19" s="142">
         <v>44822</v>
       </c>
@@ -10109,11 +10181,11 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" style="291" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="291" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="291"/>
-    <col min="3" max="3" width="13.58203125" style="291" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="291" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="291" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="291" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="291" customWidth="1"/>
@@ -13485,7 +13557,7 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
   </cols>
@@ -15086,11 +15158,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Y33" sqref="X33:Y33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" activeCellId="1" sqref="A8:A21 N8:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="330" customWidth="1"/>
     <col min="2" max="32" width="8.6640625" style="330"/>
@@ -15573,12 +15645,8 @@
         <v>379</v>
       </c>
       <c r="B7" s="324"/>
-      <c r="C7" s="331">
-        <v>0</v>
-      </c>
-      <c r="D7" s="329">
-        <v>0</v>
-      </c>
+      <c r="C7" s="331"/>
+      <c r="D7" s="329"/>
       <c r="E7" s="329"/>
       <c r="F7" s="329"/>
       <c r="G7" s="329"/>
@@ -16859,6 +16927,4929 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CC6F45-A744-F64E-89BC-F83767C8F713}">
+  <dimension ref="A1:I169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:A169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="396"/>
+    <col min="2" max="2" width="21.6640625" style="396" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="396" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="396"/>
+    <col min="5" max="5" width="15" style="396" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="396" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="396" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="396"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="396" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="396" t="s">
+        <v>562</v>
+      </c>
+      <c r="C1" s="396" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="396" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" s="396" t="s">
+        <v>560</v>
+      </c>
+      <c r="F1" s="396" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="396" t="s">
+        <v>559</v>
+      </c>
+      <c r="H1" s="396" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="396" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="397">
+        <v>40708</v>
+      </c>
+      <c r="G2" s="398">
+        <v>0</v>
+      </c>
+      <c r="H2" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I2" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="322">
+        <v>40715</v>
+      </c>
+      <c r="G3" s="326">
+        <v>0</v>
+      </c>
+      <c r="H3" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I3" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="399">
+        <v>40722</v>
+      </c>
+      <c r="G4" s="398">
+        <v>0</v>
+      </c>
+      <c r="H4" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I4" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="322">
+        <v>40729</v>
+      </c>
+      <c r="G5" s="326">
+        <v>0</v>
+      </c>
+      <c r="H5" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I5" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="399">
+        <v>40736</v>
+      </c>
+      <c r="G6" s="398">
+        <v>1</v>
+      </c>
+      <c r="H6" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I6" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="322">
+        <v>40743</v>
+      </c>
+      <c r="G7" s="326">
+        <v>0</v>
+      </c>
+      <c r="H7" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I7" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D8" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E8" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="397">
+        <v>40750</v>
+      </c>
+      <c r="G8" s="398">
+        <v>3</v>
+      </c>
+      <c r="H8" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I8" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="322">
+        <v>40757</v>
+      </c>
+      <c r="G9" s="326">
+        <v>4</v>
+      </c>
+      <c r="H9" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I9" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E10" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="397">
+        <v>40764</v>
+      </c>
+      <c r="G10" s="398">
+        <v>3</v>
+      </c>
+      <c r="H10" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I10" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="322">
+        <v>40771</v>
+      </c>
+      <c r="G11" s="326" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I11" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D12" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E12" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="397">
+        <v>40778</v>
+      </c>
+      <c r="G12" s="398">
+        <v>9</v>
+      </c>
+      <c r="H12" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I12" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D13" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="322">
+        <v>40785</v>
+      </c>
+      <c r="G13" s="326">
+        <v>0</v>
+      </c>
+      <c r="H13" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I13" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E14" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="322">
+        <v>40793</v>
+      </c>
+      <c r="G14" s="398">
+        <v>1</v>
+      </c>
+      <c r="H14" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I14" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="396" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D15" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="322">
+        <v>40799</v>
+      </c>
+      <c r="G15" s="326">
+        <v>3</v>
+      </c>
+      <c r="H15" s="328">
+        <v>42.439872000000001</v>
+      </c>
+      <c r="I15" s="328">
+        <v>-74.939063000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D16" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="397">
+        <v>40708</v>
+      </c>
+      <c r="G16" s="400">
+        <v>0</v>
+      </c>
+      <c r="H16" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I16" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D17" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="322">
+        <v>40715</v>
+      </c>
+      <c r="G17" s="326">
+        <v>0</v>
+      </c>
+      <c r="H17" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I17" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E18" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="399">
+        <v>40722</v>
+      </c>
+      <c r="G18" s="400">
+        <v>0</v>
+      </c>
+      <c r="H18" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I18" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="322">
+        <v>40729</v>
+      </c>
+      <c r="G19" s="326">
+        <v>0</v>
+      </c>
+      <c r="H19" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I19" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="399">
+        <v>40736</v>
+      </c>
+      <c r="G20" s="398">
+        <v>1</v>
+      </c>
+      <c r="H20" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I20" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D21" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="322">
+        <v>40743</v>
+      </c>
+      <c r="G21" s="326">
+        <v>6</v>
+      </c>
+      <c r="H21" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I21" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D22" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E22" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="397">
+        <v>40750</v>
+      </c>
+      <c r="G22" s="398">
+        <v>9</v>
+      </c>
+      <c r="H22" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I22" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D23" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E23" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="322">
+        <v>40757</v>
+      </c>
+      <c r="G23" s="326">
+        <v>0</v>
+      </c>
+      <c r="H23" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I23" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D24" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E24" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="397">
+        <v>40764</v>
+      </c>
+      <c r="G24" s="398">
+        <v>0</v>
+      </c>
+      <c r="H24" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I24" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B25" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D25" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="322">
+        <v>40771</v>
+      </c>
+      <c r="G25" s="326" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I25" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E26" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="397">
+        <v>40778</v>
+      </c>
+      <c r="G26" s="398">
+        <v>0</v>
+      </c>
+      <c r="H26" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I26" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="322">
+        <v>40785</v>
+      </c>
+      <c r="G27" s="326">
+        <v>1</v>
+      </c>
+      <c r="H27" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I27" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B28" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E28" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="322">
+        <v>40793</v>
+      </c>
+      <c r="G28" s="398">
+        <v>0</v>
+      </c>
+      <c r="H28" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I28" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B29" s="396" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D29" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E29" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="322">
+        <v>40799</v>
+      </c>
+      <c r="G29" s="326">
+        <v>0</v>
+      </c>
+      <c r="H29" s="328">
+        <v>42.158056000000002</v>
+      </c>
+      <c r="I29" s="328">
+        <v>-75.116376000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B30" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E30" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G30" s="338">
+        <v>0</v>
+      </c>
+      <c r="H30" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I30" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D31" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G31" s="331">
+        <v>0</v>
+      </c>
+      <c r="H31" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I31" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B32" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D32" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E32" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G32" s="337">
+        <v>0</v>
+      </c>
+      <c r="H32" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I32" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B33" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E33" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G33" s="331">
+        <v>0</v>
+      </c>
+      <c r="H33" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I33" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E34" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G34" s="337">
+        <v>0</v>
+      </c>
+      <c r="H34" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I34" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D35" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E35" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G35" s="331">
+        <v>0</v>
+      </c>
+      <c r="H35" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I35" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E36" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G36" s="337">
+        <v>0</v>
+      </c>
+      <c r="H36" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I36" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G37" s="331">
+        <v>0</v>
+      </c>
+      <c r="H37" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I37" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B38" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E38" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G38" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I38" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B39" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G39" s="331">
+        <v>0</v>
+      </c>
+      <c r="H39" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I39" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B40" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D40" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E40" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G40" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I40" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B41" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D41" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E41" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G41" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I41" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E42" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G42" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I42" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="325" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D43" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G43" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="329">
+        <v>42.913786000000002</v>
+      </c>
+      <c r="I43" s="329">
+        <v>-76.478408999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B44" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D44" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E44" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G44" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I44" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B45" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D45" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E45" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G45" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H45" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I45" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B46" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D46" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E46" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G46" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I46" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B47" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E47" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G47" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I47" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B48" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D48" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E48" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G48" s="337">
+        <v>0</v>
+      </c>
+      <c r="H48" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I48" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B49" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D49" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E49" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G49" s="331">
+        <v>0</v>
+      </c>
+      <c r="H49" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I49" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B50" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D50" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E50" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G50" s="337">
+        <v>0</v>
+      </c>
+      <c r="H50" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I50" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B51" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E51" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G51" s="331">
+        <v>0</v>
+      </c>
+      <c r="H51" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I51" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B52" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E52" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G52" s="337">
+        <v>0</v>
+      </c>
+      <c r="H52" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I52" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D53" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E53" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G53" s="331">
+        <v>0</v>
+      </c>
+      <c r="H53" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I53" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E54" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G54" s="337">
+        <v>0</v>
+      </c>
+      <c r="H54" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I54" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B55" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D55" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E55" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G55" s="331">
+        <v>0</v>
+      </c>
+      <c r="H55" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I55" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B56" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D56" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E56" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G56" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H56" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I56" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="325" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D57" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E57" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G57" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H57" s="327">
+        <v>44.739069999999998</v>
+      </c>
+      <c r="I57" s="327">
+        <v>-75.175070000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B58" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D58" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E58" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G58" s="338" t="s">
+        <v>290</v>
+      </c>
+      <c r="H58" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I58" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B59" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D59" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E59" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G59" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H59" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I59" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B60" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D60" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E60" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G60" s="337">
+        <v>0</v>
+      </c>
+      <c r="H60" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I60" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B61" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D61" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E61" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G61" s="331">
+        <v>0</v>
+      </c>
+      <c r="H61" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I61" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B62" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D62" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E62" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G62" s="337">
+        <v>0</v>
+      </c>
+      <c r="H62" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I62" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B63" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D63" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E63" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G63" s="331">
+        <v>15</v>
+      </c>
+      <c r="H63" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I63" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B64" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D64" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E64" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G64" s="337">
+        <v>39</v>
+      </c>
+      <c r="H64" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I64" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B65" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D65" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E65" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G65" s="331">
+        <v>19</v>
+      </c>
+      <c r="H65" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I65" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B66" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D66" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E66" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G66" s="337">
+        <v>0</v>
+      </c>
+      <c r="H66" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I66" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B67" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D67" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E67" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G67" s="331">
+        <v>0</v>
+      </c>
+      <c r="H67" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I67" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D68" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E68" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G68" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I68" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B69" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D69" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E69" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G69" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I69" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B70" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D70" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E70" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G70" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I70" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B71" s="325" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D71" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E71" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G71" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" s="329">
+        <v>43.898829999999997</v>
+      </c>
+      <c r="I71" s="329">
+        <v>-75.389080000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B72" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D72" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E72" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G72" s="338">
+        <v>0</v>
+      </c>
+      <c r="H72" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I72" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B73" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D73" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E73" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G73" s="329">
+        <v>0</v>
+      </c>
+      <c r="H73" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I73" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B74" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D74" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E74" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G74" s="337">
+        <v>0</v>
+      </c>
+      <c r="H74" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I74" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B75" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D75" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E75" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G75" s="331">
+        <v>0</v>
+      </c>
+      <c r="H75" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I75" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B76" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D76" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E76" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G76" s="337">
+        <v>0</v>
+      </c>
+      <c r="H76" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I76" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B77" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D77" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E77" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G77" s="331">
+        <v>0</v>
+      </c>
+      <c r="H77" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I77" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B78" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D78" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E78" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G78" s="337">
+        <v>5</v>
+      </c>
+      <c r="H78" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I78" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B79" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D79" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E79" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G79" s="331">
+        <v>8</v>
+      </c>
+      <c r="H79" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I79" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B80" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D80" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E80" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G80" s="337">
+        <v>8</v>
+      </c>
+      <c r="H80" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I80" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B81" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D81" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E81" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G81" s="331">
+        <v>1</v>
+      </c>
+      <c r="H81" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I81" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B82" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D82" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E82" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G82" s="337">
+        <v>1</v>
+      </c>
+      <c r="H82" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I82" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B83" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D83" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E83" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G83" s="331">
+        <v>0</v>
+      </c>
+      <c r="H83" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I83" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B84" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E84" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G84" s="337">
+        <v>0</v>
+      </c>
+      <c r="H84" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I84" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B85" s="325" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D85" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E85" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G85" s="331">
+        <v>0</v>
+      </c>
+      <c r="H85" s="329">
+        <v>42.771977</v>
+      </c>
+      <c r="I85" s="329">
+        <v>-76.120868999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B86" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D86" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E86" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G86" s="338">
+        <v>0</v>
+      </c>
+      <c r="H86" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I86" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B87" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D87" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E87" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G87" s="329">
+        <v>0</v>
+      </c>
+      <c r="H87" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I87" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B88" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D88" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E88" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G88" s="337">
+        <v>0</v>
+      </c>
+      <c r="H88" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I88" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B89" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D89" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E89" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G89" s="331">
+        <v>0</v>
+      </c>
+      <c r="H89" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I89" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B90" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D90" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E90" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G90" s="337">
+        <v>2</v>
+      </c>
+      <c r="H90" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I90" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B91" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D91" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E91" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G91" s="331">
+        <v>2</v>
+      </c>
+      <c r="H91" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I91" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B92" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D92" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E92" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G92" s="337">
+        <v>1</v>
+      </c>
+      <c r="H92" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I92" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B93" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D93" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E93" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G93" s="331">
+        <v>3</v>
+      </c>
+      <c r="H93" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I93" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B94" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D94" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E94" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G94" s="337">
+        <v>3</v>
+      </c>
+      <c r="H94" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I94" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B95" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D95" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E95" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G95" s="331">
+        <v>2</v>
+      </c>
+      <c r="H95" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I95" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B96" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D96" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E96" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G96" s="337">
+        <v>0</v>
+      </c>
+      <c r="H96" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I96" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B97" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D97" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E97" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G97" s="331">
+        <v>0</v>
+      </c>
+      <c r="H97" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I97" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B98" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D98" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E98" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G98" s="337">
+        <v>0</v>
+      </c>
+      <c r="H98" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I98" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B99" s="396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D99" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E99" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G99" s="331">
+        <v>0</v>
+      </c>
+      <c r="H99" s="329">
+        <v>42.734409999999997</v>
+      </c>
+      <c r="I99" s="329">
+        <v>-76.656270000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B100" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D100" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E100" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G100" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H100" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I100" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B101" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D101" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E101" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G101" s="331">
+        <v>0</v>
+      </c>
+      <c r="H101" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I101" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B102" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D102" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E102" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G102" s="337">
+        <v>0</v>
+      </c>
+      <c r="H102" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I102" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B103" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D103" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E103" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G103" s="331">
+        <v>0</v>
+      </c>
+      <c r="H103" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I103" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B104" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E104" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G104" s="337">
+        <v>0</v>
+      </c>
+      <c r="H104" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I104" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B105" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D105" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E105" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F105" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G105" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H105" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I105" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B106" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D106" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E106" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G106" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H106" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I106" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B107" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C107" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D107" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E107" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G107" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H107" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I107" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B108" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D108" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E108" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F108" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G108" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H108" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I108" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B109" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D109" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E109" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F109" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G109" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H109" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I109" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B110" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D110" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E110" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G110" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H110" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I110" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B111" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D111" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E111" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F111" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G111" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H111" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I111" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B112" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D112" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E112" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F112" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G112" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H112" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I112" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B113" s="326" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D113" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E113" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F113" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G113" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H113" s="329">
+        <v>43.097279999999998</v>
+      </c>
+      <c r="I113" s="329">
+        <v>-78.19153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B114" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D114" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E114" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G114" s="338">
+        <v>0</v>
+      </c>
+      <c r="H114" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I114" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B115" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D115" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E115" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F115" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G115" s="329">
+        <v>0</v>
+      </c>
+      <c r="H115" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I115" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B116" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D116" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E116" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G116" s="337">
+        <v>0</v>
+      </c>
+      <c r="H116" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I116" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B117" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D117" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E117" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G117" s="331">
+        <v>0</v>
+      </c>
+      <c r="H117" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I117" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B118" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D118" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F118" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G118" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H118" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I118" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B119" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C119" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D119" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G119" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H119" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I119" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B120" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D120" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E120" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F120" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G120" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H120" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I120" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B121" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D121" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E121" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F121" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G121" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H121" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I121" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B122" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D122" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E122" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G122" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H122" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I122" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B123" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D123" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E123" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G123" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H123" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I123" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B124" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E124" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G124" s="337" t="s">
+        <v>290</v>
+      </c>
+      <c r="H124" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I124" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B125" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D125" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E125" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F125" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G125" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H125" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I125" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B126" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D126" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E126" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F126" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G126" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H126" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I126" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B127" s="396" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G127" s="331" t="s">
+        <v>290</v>
+      </c>
+      <c r="H127" s="331">
+        <v>42.314059999999998</v>
+      </c>
+      <c r="I127" s="331">
+        <v>-77.351699999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B128" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D128" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E128" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F128" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G128" s="338">
+        <v>0</v>
+      </c>
+      <c r="H128" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I128" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B129" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D129" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E129" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F129" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G129" s="329">
+        <v>0</v>
+      </c>
+      <c r="H129" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I129" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B130" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D130" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E130" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F130" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G130" s="338">
+        <v>0</v>
+      </c>
+      <c r="H130" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I130" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B131" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D131" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E131" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F131" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G131" s="329">
+        <v>0</v>
+      </c>
+      <c r="H131" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I131" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B132" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C132" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D132" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E132" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G132" s="338">
+        <v>0</v>
+      </c>
+      <c r="H132" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I132" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B133" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D133" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E133" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F133" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G133" s="329">
+        <v>0</v>
+      </c>
+      <c r="H133" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I133" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B134" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D134" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E134" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G134" s="342">
+        <v>4</v>
+      </c>
+      <c r="H134" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I134" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B135" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E135" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G135" s="329">
+        <v>3</v>
+      </c>
+      <c r="H135" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I135" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B136" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D136" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E136" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F136" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G136" s="338">
+        <v>2</v>
+      </c>
+      <c r="H136" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I136" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B137" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C137" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D137" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E137" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G137" s="331">
+        <v>0</v>
+      </c>
+      <c r="H137" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I137" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B138" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D138" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E138" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G138" s="338">
+        <v>0</v>
+      </c>
+      <c r="H138" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I138" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B139" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D139" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E139" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G139" s="331">
+        <v>0</v>
+      </c>
+      <c r="H139" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I139" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B140" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C140" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E140" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G140" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I140" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B141" s="396" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D141" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E141" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G141" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H141" s="329">
+        <v>42.288379999999997</v>
+      </c>
+      <c r="I141" s="329">
+        <v>-76.037880000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B142" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G142" s="338">
+        <v>0</v>
+      </c>
+      <c r="H142" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I142" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B143" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C143" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D143" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F143" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G143" s="329">
+        <v>0</v>
+      </c>
+      <c r="H143" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I143" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B144" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C144" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D144" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E144" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F144" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G144" s="338">
+        <v>0</v>
+      </c>
+      <c r="H144" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I144" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B145" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C145" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D145" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E145" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F145" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G145" s="329">
+        <v>0</v>
+      </c>
+      <c r="H145" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I145" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B146" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D146" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E146" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F146" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G146" s="338">
+        <v>0</v>
+      </c>
+      <c r="H146" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I146" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B147" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C147" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D147" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E147" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F147" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G147" s="329">
+        <v>1</v>
+      </c>
+      <c r="H147" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I147" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B148" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C148" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D148" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E148" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G148" s="342">
+        <v>1</v>
+      </c>
+      <c r="H148" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I148" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B149" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D149" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E149" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G149" s="329">
+        <v>4</v>
+      </c>
+      <c r="H149" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I149" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B150" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C150" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D150" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E150" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F150" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G150" s="338">
+        <v>3</v>
+      </c>
+      <c r="H150" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I150" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B151" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C151" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D151" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E151" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F151" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G151" s="331">
+        <v>0</v>
+      </c>
+      <c r="H151" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I151" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B152" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C152" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D152" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E152" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F152" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G152" s="338">
+        <v>0</v>
+      </c>
+      <c r="H152" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I152" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B153" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C153" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D153" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E153" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F153" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G153" s="331">
+        <v>0</v>
+      </c>
+      <c r="H153" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I153" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B154" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C154" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D154" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E154" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F154" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G154" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H154" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I154" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B155" s="396" t="s">
+        <v>563</v>
+      </c>
+      <c r="C155" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D155" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E155" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F155" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G155" s="327" t="s">
+        <v>290</v>
+      </c>
+      <c r="H155" s="329">
+        <v>42.194310000000002</v>
+      </c>
+      <c r="I155" s="329">
+        <v>-75.572419999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B156" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C156" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D156" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E156" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F156" s="335">
+        <v>40708</v>
+      </c>
+      <c r="G156" s="338">
+        <v>0</v>
+      </c>
+      <c r="H156" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I156" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B157" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C157" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D157" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E157" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="339">
+        <v>40715</v>
+      </c>
+      <c r="G157" s="329">
+        <v>0</v>
+      </c>
+      <c r="H157" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I157" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B158" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C158" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D158" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E158" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F158" s="340">
+        <v>40722</v>
+      </c>
+      <c r="G158" s="338">
+        <v>0</v>
+      </c>
+      <c r="H158" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I158" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B159" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C159" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D159" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E159" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" s="339">
+        <v>40729</v>
+      </c>
+      <c r="G159" s="329">
+        <v>0</v>
+      </c>
+      <c r="H159" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I159" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B160" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D160" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E160" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F160" s="340">
+        <v>40736</v>
+      </c>
+      <c r="G160" s="338">
+        <v>0</v>
+      </c>
+      <c r="H160" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I160" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B161" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C161" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D161" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E161" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F161" s="339">
+        <v>40743</v>
+      </c>
+      <c r="G161" s="329">
+        <v>3</v>
+      </c>
+      <c r="H161" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I161" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B162" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C162" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D162" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F162" s="335">
+        <v>40750</v>
+      </c>
+      <c r="G162" s="342">
+        <v>2</v>
+      </c>
+      <c r="H162" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I162" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B163" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C163" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D163" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E163" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F163" s="339">
+        <v>40757</v>
+      </c>
+      <c r="G163" s="329">
+        <v>2</v>
+      </c>
+      <c r="H163" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I163" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B164" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C164" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D164" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E164" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F164" s="335">
+        <v>40764</v>
+      </c>
+      <c r="G164" s="338">
+        <v>1</v>
+      </c>
+      <c r="H164" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I164" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B165" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C165" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D165" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E165" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F165" s="339">
+        <v>40771</v>
+      </c>
+      <c r="G165" s="331">
+        <v>0</v>
+      </c>
+      <c r="H165" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I165" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B166" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D166" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E166" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F166" s="335">
+        <v>40778</v>
+      </c>
+      <c r="G166" s="338">
+        <v>0</v>
+      </c>
+      <c r="H166" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I166" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B167" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C167" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D167" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E167" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F167" s="339">
+        <v>40785</v>
+      </c>
+      <c r="G167" s="331">
+        <v>0</v>
+      </c>
+      <c r="H167" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I167" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B168" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C168" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D168" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E168" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="339">
+        <v>40793</v>
+      </c>
+      <c r="G168" s="327"/>
+      <c r="H168" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I168" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="396">
+        <v>2011</v>
+      </c>
+      <c r="B169" s="328" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" s="396" t="s">
+        <v>557</v>
+      </c>
+      <c r="D169" s="396" t="s">
+        <v>558</v>
+      </c>
+      <c r="E169" s="396" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="339">
+        <v>40799</v>
+      </c>
+      <c r="G169" s="327"/>
+      <c r="H169" s="329">
+        <v>42.064810000000001</v>
+      </c>
+      <c r="I169" s="329">
+        <v>-76.113600000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="90" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BI18"/>
@@ -16867,24 +21858,24 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:60" s="17" customFormat="1" ht="46.5">
+    <row r="1" spans="2:60" s="17" customFormat="1" ht="34">
       <c r="B1" s="107" t="s">
         <v>56</v>
       </c>
@@ -17061,7 +22052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:60" s="17" customFormat="1" ht="46.5">
+    <row r="2" spans="2:60" s="17" customFormat="1" ht="51">
       <c r="B2" s="107" t="s">
         <v>70</v>
       </c>
@@ -17238,7 +22229,7 @@
         <v>40.955317999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:60" s="17" customFormat="1" ht="46.5">
+    <row r="3" spans="2:60" s="17" customFormat="1" ht="51">
       <c r="B3" s="107" t="s">
         <v>71</v>
       </c>
@@ -17415,7 +22406,7 @@
         <v>-72.690575999999993</v>
       </c>
     </row>
-    <row r="4" spans="2:60" s="17" customFormat="1" ht="35">
+    <row r="4" spans="2:60" s="17" customFormat="1" ht="38">
       <c r="B4" s="127" t="s">
         <v>528</v>
       </c>
@@ -19373,7 +24364,7 @@
       <c r="BG17" s="114"/>
       <c r="BH17" s="114"/>
     </row>
-    <row r="18" spans="2:61" s="17" customFormat="1" ht="18">
+    <row r="18" spans="2:61" s="17" customFormat="1" ht="19">
       <c r="B18" s="133"/>
       <c r="C18" s="133" t="s">
         <v>533</v>
@@ -19623,13 +24614,13 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="291" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:65" s="291" customFormat="1" ht="30" thickBot="1">
       <c r="A1" s="354" t="s">
         <v>56</v>
       </c>
@@ -19824,7 +24815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="291" customFormat="1" ht="38.5" thickBot="1">
+    <row r="2" spans="1:65" s="291" customFormat="1" ht="44" thickBot="1">
       <c r="A2" s="354" t="s">
         <v>70</v>
       </c>
@@ -20019,7 +25010,7 @@
         <v>43.776699999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="291" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:65" s="291" customFormat="1" ht="26.5" customHeight="1" thickBot="1">
       <c r="A3" s="354" t="s">
         <v>71</v>
       </c>
@@ -20214,7 +25205,7 @@
         <v>76.171400000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="291" customFormat="1" ht="15.65" customHeight="1" thickBot="1">
+    <row r="4" spans="1:65" s="291" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="354" t="s">
         <v>75</v>
       </c>
@@ -20399,7 +25390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="5" spans="1:65" s="84" customFormat="1" thickBot="1">
       <c r="A5" s="52" t="s">
         <v>440</v>
       </c>
@@ -20468,7 +25459,7 @@
       <c r="BL5" s="65"/>
       <c r="BM5" s="65"/>
     </row>
-    <row r="6" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="6" spans="1:65" s="84" customFormat="1" thickBot="1">
       <c r="A6" s="53" t="s">
         <v>87</v>
       </c>
@@ -20537,7 +25528,7 @@
       <c r="BL6" s="72"/>
       <c r="BM6" s="72"/>
     </row>
-    <row r="7" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:65" s="84" customFormat="1" thickBot="1">
       <c r="A7" s="54">
         <v>43996</v>
       </c>
@@ -20676,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="8" spans="1:65" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="55">
         <v>44003</v>
       </c>
@@ -20825,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="9" spans="1:65" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="56">
         <v>44010</v>
       </c>
@@ -21012,7 +26003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="105" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:65" s="105" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="57">
         <v>44017</v>
       </c>
@@ -21207,7 +26198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="11" spans="1:65" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="56">
         <v>44024</v>
       </c>
@@ -21404,7 +26395,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="105" customFormat="1" ht="13.5" thickBot="1">
+    <row r="12" spans="1:65" s="105" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="57">
         <v>44031</v>
       </c>
@@ -21601,7 +26592,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="13" spans="1:65" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="56">
         <v>44038</v>
       </c>
@@ -21798,7 +26789,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="105" customFormat="1" ht="13.5" thickBot="1">
+    <row r="14" spans="1:65" s="105" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="57">
         <v>44045</v>
       </c>
@@ -21987,7 +26978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="15" spans="1:65" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="56">
         <v>44052</v>
       </c>
@@ -22158,7 +27149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="105" customFormat="1" ht="13.5" thickBot="1">
+    <row r="16" spans="1:65" s="105" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="57">
         <v>44059</v>
       </c>
@@ -22285,7 +27276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="17" spans="1:67" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A17" s="56">
         <v>44066</v>
       </c>
@@ -22372,7 +27363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:67" s="105" customFormat="1" ht="13.5" thickBot="1">
+    <row r="18" spans="1:67" s="105" customFormat="1" ht="15" thickBot="1">
       <c r="A18" s="57">
         <v>44073</v>
       </c>
@@ -22449,7 +27440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="84" customFormat="1" ht="13.5" thickBot="1">
+    <row r="19" spans="1:67" s="84" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="56">
         <v>44080</v>
       </c>
@@ -22802,32 +27793,32 @@
       <selection pane="topRight" activeCell="BG32" sqref="BG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="8" width="20.1640625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.58203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="12" width="18.1640625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
     <col min="15" max="16" width="17.83203125" customWidth="1"/>
-    <col min="17" max="18" width="18.58203125" customWidth="1"/>
+    <col min="17" max="18" width="18.5" customWidth="1"/>
     <col min="19" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="26" width="15.58203125" customWidth="1"/>
+    <col min="21" max="26" width="15.5" customWidth="1"/>
     <col min="27" max="27" width="18.1640625" customWidth="1"/>
-    <col min="28" max="28" width="18.08203125" customWidth="1"/>
+    <col min="28" max="28" width="18" customWidth="1"/>
     <col min="29" max="30" width="13.33203125" customWidth="1"/>
-    <col min="31" max="31" width="14.08203125" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
     <col min="32" max="32" width="13.5" customWidth="1"/>
     <col min="33" max="33" width="15" customWidth="1"/>
     <col min="34" max="34" width="13.6640625" customWidth="1"/>
     <col min="35" max="35" width="14.1640625" customWidth="1"/>
     <col min="36" max="38" width="18.1640625" style="17" customWidth="1"/>
     <col min="39" max="39" width="32" customWidth="1"/>
-    <col min="40" max="40" width="17.08203125" customWidth="1"/>
+    <col min="40" max="40" width="17" customWidth="1"/>
     <col min="41" max="41" width="18.33203125" customWidth="1"/>
     <col min="42" max="42" width="16.83203125" customWidth="1"/>
     <col min="43" max="43" width="17.1640625" style="17" customWidth="1"/>
@@ -22839,12 +27830,12 @@
     <col min="52" max="56" width="16" style="17" customWidth="1"/>
     <col min="57" max="58" width="16.6640625" customWidth="1"/>
     <col min="59" max="59" width="14.83203125" customWidth="1"/>
-    <col min="60" max="66" width="14.58203125" customWidth="1"/>
-    <col min="67" max="67" width="22.4140625" customWidth="1"/>
+    <col min="60" max="66" width="14.5" customWidth="1"/>
+    <col min="67" max="67" width="22.33203125" customWidth="1"/>
     <col min="68" max="68" width="17.33203125" customWidth="1"/>
     <col min="69" max="69" width="25.6640625" customWidth="1"/>
     <col min="70" max="70" width="15.33203125" customWidth="1"/>
-    <col min="71" max="71" width="13.58203125" customWidth="1"/>
+    <col min="71" max="71" width="13.5" customWidth="1"/>
     <col min="72" max="72" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22926,7 +27917,7 @@
       <c r="BV1" s="12"/>
       <c r="BW1" s="12"/>
     </row>
-    <row r="2" spans="1:75" ht="16" thickBot="1">
+    <row r="2" spans="1:75" ht="18" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>56</v>
       </c>
@@ -23128,7 +28119,7 @@
       <c r="BS2" s="17"/>
       <c r="BT2" s="17"/>
     </row>
-    <row r="3" spans="1:75" ht="16" thickBot="1">
+    <row r="3" spans="1:75" ht="17" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>70</v>
       </c>
@@ -23336,7 +28327,7 @@
       <c r="BS3" s="17"/>
       <c r="BT3" s="17"/>
     </row>
-    <row r="4" spans="1:75" ht="16" thickBot="1">
+    <row r="4" spans="1:75" ht="17" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>71</v>
       </c>
@@ -23544,7 +28535,7 @@
       <c r="BS4" s="17"/>
       <c r="BT4" s="17"/>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:75" ht="17">
       <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
@@ -23704,7 +28695,7 @@
       <c r="BS5" s="17"/>
       <c r="BT5" s="17"/>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:75" ht="17">
       <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
@@ -26210,7 +31201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:74" s="13" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="1:74" s="13" customFormat="1" ht="17" thickBot="1">
       <c r="A23" s="15">
         <f t="shared" si="1"/>
         <v>43716</v>
@@ -55898,10 +60889,10 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79">
@@ -60691,9 +65682,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -64704,7 +69695,7 @@
       <selection activeCell="A5" sqref="A5:BH32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -64831,7 +69822,7 @@
       <c r="BG5" s="17"/>
       <c r="BH5" s="17"/>
     </row>
-    <row r="6" spans="1:60" ht="20.5" thickBot="1">
+    <row r="6" spans="1:60" ht="21" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -64895,7 +69886,7 @@
       <c r="BG6" s="17"/>
       <c r="BH6" s="17"/>
     </row>
-    <row r="7" spans="1:60" ht="19.5" thickBot="1">
+    <row r="7" spans="1:60" ht="20" thickBot="1">
       <c r="A7" s="17"/>
       <c r="B7" s="12" t="s">
         <v>32</v>
@@ -65057,7 +70048,7 @@
       <c r="BG7" s="17"/>
       <c r="BH7" s="17"/>
     </row>
-    <row r="8" spans="1:60" ht="19.5" thickBot="1">
+    <row r="8" spans="1:60" ht="20" thickBot="1">
       <c r="A8" s="17"/>
       <c r="B8" s="12" t="s">
         <v>54</v>
@@ -65219,7 +70210,7 @@
       <c r="BG8" s="17"/>
       <c r="BH8" s="17"/>
     </row>
-    <row r="9" spans="1:60" ht="19.5" thickBot="1">
+    <row r="9" spans="1:60" ht="20" thickBot="1">
       <c r="A9" s="17"/>
       <c r="B9" s="12" t="s">
         <v>56</v>
@@ -65391,7 +70382,7 @@
       <c r="BG9" s="17"/>
       <c r="BH9" s="17"/>
     </row>
-    <row r="10" spans="1:60" ht="19.5" thickBot="1">
+    <row r="10" spans="1:60" ht="20" thickBot="1">
       <c r="A10" s="17"/>
       <c r="B10" s="12" t="s">
         <v>70</v>
@@ -65561,7 +70552,7 @@
       <c r="BG10" s="17"/>
       <c r="BH10" s="17"/>
     </row>
-    <row r="11" spans="1:60" ht="19.5" thickBot="1">
+    <row r="11" spans="1:60" ht="20" thickBot="1">
       <c r="A11" s="17"/>
       <c r="B11" s="12" t="s">
         <v>71</v>
@@ -68387,11 +73378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="25" width="14.1640625" customWidth="1"/>
   </cols>
@@ -72444,7 +77435,7 @@
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
@@ -72453,11 +77444,11 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="11.4140625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="11.4140625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
     <col min="19" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Long_Term_Pest_Data/WBC_2011_2022_Field Corn.xlsx
+++ b/Long_Term_Pest_Data/WBC_2011_2022_Field Corn.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloecho/cornell/cornell/Long_Term_Pest_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B3EAD-C75A-7148-9682-47F2B57DDC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE1508-6120-4949-83DC-5AE2F6AB97A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="760" windowWidth="29600" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="29" r:id="rId1"/>
+    <sheet name="2022" sheetId="29" r:id="rId1"/>
     <sheet name="2022 WBCData" sheetId="27" r:id="rId2"/>
     <sheet name="2021 WBCData" sheetId="26" r:id="rId3"/>
     <sheet name="2020 WBCData" sheetId="25" r:id="rId4"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="582">
   <si>
     <t>Field Data</t>
   </si>
@@ -1731,28 +1731,10 @@
     <t>site</t>
   </si>
   <si>
-    <t>Saratoga_1</t>
-  </si>
-  <si>
-    <t>Saratoga_2</t>
-  </si>
-  <si>
     <t>Clinton_1</t>
   </si>
   <si>
     <t>Clinton_2</t>
-  </si>
-  <si>
-    <t>Clinton_3</t>
-  </si>
-  <si>
-    <t>Clinton_4</t>
-  </si>
-  <si>
-    <t>Cortland_1</t>
-  </si>
-  <si>
-    <t>Cortland_2</t>
   </si>
   <si>
     <t>Cayuga_1</t>
@@ -1767,15 +1749,6 @@
     <t>Cayuga_4</t>
   </si>
   <si>
-    <t>Washington_1</t>
-  </si>
-  <si>
-    <t>Washington_2</t>
-  </si>
-  <si>
-    <t>Saratoga_3</t>
-  </si>
-  <si>
     <t>Jefferson_1</t>
   </si>
   <si>
@@ -1788,34 +1761,16 @@
     <t>Jefferson_4</t>
   </si>
   <si>
-    <t>Jefferson_5</t>
-  </si>
-  <si>
-    <t>Jefferson_6</t>
-  </si>
-  <si>
     <t>Lewis_1</t>
   </si>
   <si>
     <t>Lewis_2</t>
   </si>
   <si>
-    <t>Lewis_3</t>
-  </si>
-  <si>
-    <t>Lewis_4</t>
-  </si>
-  <si>
     <t>Ulster_1</t>
   </si>
   <si>
     <t>Ulster_2</t>
-  </si>
-  <si>
-    <t>Oneida_1</t>
-  </si>
-  <si>
-    <t>Oneida_2</t>
   </si>
   <si>
     <t>StLawrence_1</t>
@@ -1830,31 +1785,19 @@
     <t>StLawrence_4</t>
   </si>
   <si>
-    <t>StLawrence_5</t>
-  </si>
-  <si>
-    <t>StLawrence_6</t>
-  </si>
-  <si>
-    <t>StLawrence_7</t>
-  </si>
-  <si>
-    <t>StLawrence_8</t>
-  </si>
-  <si>
-    <t>Franklin_1</t>
-  </si>
-  <si>
-    <t>Franklin_2</t>
-  </si>
-  <si>
-    <t>Franklin_3</t>
-  </si>
-  <si>
     <t>Sullivan_1</t>
   </si>
   <si>
     <t>Sullivan_2</t>
+  </si>
+  <si>
+    <t>Dutchess_1</t>
+  </si>
+  <si>
+    <t>Dutchess_2</t>
+  </si>
+  <si>
+    <t>Cayuga_5</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2867,6 +2810,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2929,7 +2881,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3928,6 +3880,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5334,1127 +5298,3824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB05168-F01E-F44C-BC42-72B8E3D6EE32}">
-  <dimension ref="A1:BF19"/>
+  <dimension ref="A1:ANT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="42" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.1640625" customWidth="1"/>
+    <col min="39" max="39" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="17" customFormat="1" ht="34">
+    <row r="1" spans="1:1060" s="17" customFormat="1" ht="32" thickBot="1">
       <c r="A1" s="107" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1" s="136" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1" s="136" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="136" t="s">
+        <v>566</v>
+      </c>
+      <c r="G1" s="136" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>568</v>
+      </c>
+      <c r="I1" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="136" t="s">
         <v>561</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="K1" s="136" t="s">
         <v>562</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="L1" s="136" t="s">
         <v>563</v>
       </c>
-      <c r="E1" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="109" t="s">
+      <c r="M1" s="136" t="s">
         <v>564</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="N1" s="136" t="s">
+        <v>570</v>
+      </c>
+      <c r="O1" s="136" t="s">
+        <v>534</v>
+      </c>
+      <c r="P1" s="136" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q1" s="136" t="s">
+        <v>572</v>
+      </c>
+      <c r="R1" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="136" t="s">
+        <v>573</v>
+      </c>
+      <c r="T1" s="136" t="s">
+        <v>574</v>
+      </c>
+      <c r="U1" s="136" t="s">
+        <v>575</v>
+      </c>
+      <c r="V1" s="136" t="s">
+        <v>576</v>
+      </c>
+      <c r="W1" s="136" t="s">
+        <v>577</v>
+      </c>
+      <c r="X1" s="136" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y1" s="136" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z1" s="136" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA1" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB1" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="136" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE1" s="136" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" s="136" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG1" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH1" s="136" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="110" t="s">
-        <v>565</v>
-      </c>
-      <c r="I1" s="109" t="s">
-        <v>567</v>
-      </c>
-      <c r="J1" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="L1" s="109" t="s">
-        <v>569</v>
-      </c>
-      <c r="M1" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="109" t="s">
-        <v>571</v>
-      </c>
-      <c r="O1" s="111" t="s">
-        <v>572</v>
-      </c>
-      <c r="P1" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="S1" s="112" t="s">
-        <v>218</v>
-      </c>
-      <c r="T1" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="109" t="s">
-        <v>559</v>
-      </c>
-      <c r="V1" s="109" t="s">
-        <v>219</v>
-      </c>
-      <c r="W1" s="109" t="s">
-        <v>574</v>
-      </c>
-      <c r="X1" s="112" t="s">
-        <v>575</v>
-      </c>
-      <c r="Y1" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z1" s="109" t="s">
+      <c r="AJ1" s="136" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK1" s="136" t="s">
         <v>580</v>
       </c>
-      <c r="AA1" s="109" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB1" s="109" t="s">
-        <v>581</v>
-      </c>
-      <c r="AC1" s="109" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD1" s="109" t="s">
-        <v>582</v>
-      </c>
-      <c r="AE1" s="109" t="s">
-        <v>583</v>
-      </c>
-      <c r="AF1" s="109" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG1" s="109" t="s">
-        <v>585</v>
-      </c>
-      <c r="AH1" s="113" t="s">
-        <v>586</v>
-      </c>
-      <c r="AI1" s="113" t="s">
-        <v>587</v>
-      </c>
-      <c r="AJ1" s="109" t="s">
-        <v>588</v>
-      </c>
-      <c r="AK1" s="109" t="s">
-        <v>589</v>
-      </c>
-      <c r="AL1" s="109" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM1" s="109" t="s">
-        <v>591</v>
-      </c>
-      <c r="AN1" s="109" t="s">
-        <v>592</v>
-      </c>
-      <c r="AO1" s="109" t="s">
-        <v>593</v>
-      </c>
-      <c r="AP1" s="109" t="s">
-        <v>594</v>
-      </c>
-      <c r="AQ1" s="109" t="s">
-        <v>595</v>
-      </c>
-      <c r="AR1" s="109" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS1" s="109" t="s">
-        <v>597</v>
-      </c>
-      <c r="AT1" s="109" t="s">
-        <v>598</v>
-      </c>
-      <c r="AU1" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="AV1" s="109" t="s">
-        <v>566</v>
-      </c>
-      <c r="AW1" s="109" t="s">
-        <v>599</v>
-      </c>
-      <c r="AX1" s="109" t="s">
-        <v>600</v>
-      </c>
-      <c r="AY1" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ1" s="109" t="s">
-        <v>217</v>
-      </c>
-      <c r="BA1" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB1" s="114" t="s">
-        <v>270</v>
-      </c>
-      <c r="BC1" s="112" t="s">
-        <v>560</v>
-      </c>
-      <c r="BD1" s="115" t="s">
-        <v>573</v>
-      </c>
-      <c r="BE1" s="112" t="s">
-        <v>579</v>
-      </c>
-      <c r="BF1" s="109" t="s">
+      <c r="AL1" s="136" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:58" s="17" customFormat="1" ht="17">
+      <c r="AM1" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
+      <c r="BL1" s="89"/>
+      <c r="BM1" s="89"/>
+      <c r="BN1" s="89"/>
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="89"/>
+      <c r="BV1" s="89"/>
+      <c r="BW1" s="89"/>
+      <c r="BX1" s="89"/>
+      <c r="BY1" s="89"/>
+      <c r="BZ1" s="89"/>
+      <c r="CA1" s="89"/>
+      <c r="CB1" s="89"/>
+      <c r="CC1" s="89"/>
+      <c r="CD1" s="89"/>
+      <c r="CE1" s="89"/>
+      <c r="CF1" s="89"/>
+      <c r="CG1" s="89"/>
+      <c r="CH1" s="89"/>
+      <c r="CI1" s="89"/>
+      <c r="CJ1" s="89"/>
+      <c r="CK1" s="89"/>
+      <c r="CL1" s="89"/>
+      <c r="CM1" s="89"/>
+      <c r="CN1" s="89"/>
+      <c r="CO1" s="89"/>
+      <c r="CP1" s="89"/>
+      <c r="CQ1" s="89"/>
+      <c r="CR1" s="89"/>
+      <c r="CS1" s="89"/>
+      <c r="CT1" s="89"/>
+      <c r="CU1" s="89"/>
+      <c r="CV1" s="89"/>
+      <c r="CW1" s="89"/>
+      <c r="CX1" s="89"/>
+      <c r="CY1" s="89"/>
+      <c r="CZ1" s="89"/>
+      <c r="DA1" s="89"/>
+      <c r="DB1" s="89"/>
+      <c r="DC1" s="89"/>
+      <c r="DD1" s="89"/>
+      <c r="DE1" s="89"/>
+      <c r="DF1" s="89"/>
+      <c r="DG1" s="89"/>
+      <c r="DH1" s="89"/>
+      <c r="DI1" s="89"/>
+      <c r="DJ1" s="89"/>
+      <c r="DK1" s="89"/>
+      <c r="DL1" s="89"/>
+      <c r="DM1" s="89"/>
+      <c r="DN1" s="89"/>
+      <c r="DO1" s="89"/>
+      <c r="DP1" s="89"/>
+      <c r="DQ1" s="89"/>
+      <c r="DR1" s="89"/>
+      <c r="DS1" s="89"/>
+      <c r="DT1" s="89"/>
+      <c r="DU1" s="89"/>
+      <c r="DV1" s="89"/>
+      <c r="DW1" s="89"/>
+      <c r="DX1" s="89"/>
+      <c r="DY1" s="89"/>
+      <c r="DZ1" s="89"/>
+      <c r="EA1" s="89"/>
+      <c r="EB1" s="89"/>
+      <c r="EC1" s="89"/>
+      <c r="ED1" s="89"/>
+      <c r="EE1" s="89"/>
+      <c r="EF1" s="89"/>
+      <c r="EG1" s="89"/>
+      <c r="EH1" s="89"/>
+      <c r="EI1" s="89"/>
+      <c r="EJ1" s="89"/>
+      <c r="EK1" s="89"/>
+      <c r="EL1" s="89"/>
+      <c r="EM1" s="89"/>
+      <c r="EN1" s="89"/>
+      <c r="EO1" s="89"/>
+      <c r="EP1" s="89"/>
+      <c r="EQ1" s="89"/>
+      <c r="ER1" s="89"/>
+      <c r="ES1" s="89"/>
+      <c r="ET1" s="89"/>
+      <c r="EU1" s="89"/>
+      <c r="EV1" s="89"/>
+      <c r="EW1" s="89"/>
+      <c r="EX1" s="89"/>
+      <c r="EY1" s="89"/>
+      <c r="EZ1" s="89"/>
+      <c r="FA1" s="89"/>
+      <c r="FB1" s="89"/>
+      <c r="FC1" s="89"/>
+      <c r="FD1" s="89"/>
+      <c r="FE1" s="89"/>
+      <c r="FF1" s="89"/>
+      <c r="FG1" s="89"/>
+      <c r="FH1" s="89"/>
+      <c r="FI1" s="89"/>
+      <c r="FJ1" s="89"/>
+      <c r="FK1" s="89"/>
+      <c r="FL1" s="89"/>
+      <c r="FM1" s="89"/>
+      <c r="FN1" s="89"/>
+      <c r="FO1" s="89"/>
+      <c r="FP1" s="89"/>
+      <c r="FQ1" s="89"/>
+      <c r="FR1" s="89"/>
+      <c r="FS1" s="89"/>
+      <c r="FT1" s="89"/>
+      <c r="FU1" s="89"/>
+      <c r="FV1" s="89"/>
+      <c r="FW1" s="89"/>
+      <c r="FX1" s="89"/>
+      <c r="FY1" s="89"/>
+      <c r="FZ1" s="89"/>
+      <c r="GA1" s="89"/>
+      <c r="GB1" s="89"/>
+      <c r="GC1" s="89"/>
+      <c r="GD1" s="89"/>
+      <c r="GE1" s="89"/>
+      <c r="GF1" s="89"/>
+      <c r="GG1" s="89"/>
+      <c r="GH1" s="89"/>
+      <c r="GI1" s="89"/>
+      <c r="GJ1" s="89"/>
+      <c r="GK1" s="89"/>
+      <c r="GL1" s="89"/>
+      <c r="GM1" s="89"/>
+      <c r="GN1" s="89"/>
+      <c r="GO1" s="89"/>
+      <c r="GP1" s="89"/>
+      <c r="GQ1" s="89"/>
+      <c r="GR1" s="89"/>
+      <c r="GS1" s="89"/>
+      <c r="GT1" s="89"/>
+      <c r="GU1" s="89"/>
+      <c r="GV1" s="89"/>
+      <c r="GW1" s="89"/>
+      <c r="GX1" s="89"/>
+      <c r="GY1" s="89"/>
+      <c r="GZ1" s="89"/>
+      <c r="HA1" s="89"/>
+      <c r="HB1" s="89"/>
+      <c r="HC1" s="89"/>
+      <c r="HD1" s="89"/>
+      <c r="HE1" s="89"/>
+      <c r="HF1" s="89"/>
+      <c r="HG1" s="89"/>
+      <c r="HH1" s="89"/>
+      <c r="HI1" s="89"/>
+      <c r="HJ1" s="89"/>
+      <c r="HK1" s="89"/>
+      <c r="HL1" s="89"/>
+      <c r="HM1" s="89"/>
+      <c r="HN1" s="89"/>
+      <c r="HO1" s="89"/>
+      <c r="HP1" s="89"/>
+      <c r="HQ1" s="89"/>
+      <c r="HR1" s="89"/>
+      <c r="HS1" s="89"/>
+      <c r="HT1" s="89"/>
+      <c r="HU1" s="89"/>
+      <c r="HV1" s="89"/>
+      <c r="HW1" s="89"/>
+      <c r="HX1" s="89"/>
+      <c r="HY1" s="89"/>
+      <c r="HZ1" s="89"/>
+      <c r="IA1" s="89"/>
+      <c r="IB1" s="89"/>
+      <c r="IC1" s="89"/>
+      <c r="ID1" s="89"/>
+      <c r="IE1" s="89"/>
+      <c r="IF1" s="89"/>
+      <c r="IG1" s="89"/>
+      <c r="IH1" s="89"/>
+      <c r="II1" s="89"/>
+      <c r="IJ1" s="89"/>
+      <c r="IK1" s="89"/>
+      <c r="IL1" s="89"/>
+      <c r="IM1" s="89"/>
+      <c r="IN1" s="89"/>
+      <c r="IO1" s="89"/>
+      <c r="IP1" s="89"/>
+      <c r="IQ1" s="89"/>
+      <c r="IR1" s="89"/>
+      <c r="IS1" s="89"/>
+      <c r="IT1" s="89"/>
+      <c r="IU1" s="89"/>
+      <c r="IV1" s="89"/>
+      <c r="IW1" s="89"/>
+      <c r="IX1" s="89"/>
+      <c r="IY1" s="89"/>
+      <c r="IZ1" s="89"/>
+      <c r="JA1" s="89"/>
+      <c r="JB1" s="89"/>
+      <c r="JC1" s="89"/>
+      <c r="JD1" s="89"/>
+      <c r="JE1" s="89"/>
+      <c r="JF1" s="89"/>
+      <c r="JG1" s="89"/>
+      <c r="JH1" s="89"/>
+      <c r="JI1" s="89"/>
+      <c r="JJ1" s="89"/>
+      <c r="JK1" s="89"/>
+      <c r="JL1" s="89"/>
+      <c r="JM1" s="89"/>
+      <c r="JN1" s="89"/>
+      <c r="JO1" s="89"/>
+      <c r="JP1" s="89"/>
+      <c r="JQ1" s="89"/>
+      <c r="JR1" s="89"/>
+      <c r="JS1" s="89"/>
+      <c r="JT1" s="89"/>
+      <c r="JU1" s="89"/>
+      <c r="JV1" s="89"/>
+      <c r="JW1" s="89"/>
+      <c r="JX1" s="89"/>
+      <c r="JY1" s="89"/>
+      <c r="JZ1" s="89"/>
+      <c r="KA1" s="89"/>
+      <c r="KB1" s="89"/>
+      <c r="KC1" s="89"/>
+      <c r="KD1" s="89"/>
+      <c r="KE1" s="89"/>
+      <c r="KF1" s="89"/>
+      <c r="KG1" s="89"/>
+      <c r="KH1" s="89"/>
+      <c r="KI1" s="89"/>
+      <c r="KJ1" s="89"/>
+      <c r="KK1" s="89"/>
+      <c r="KL1" s="89"/>
+      <c r="KM1" s="89"/>
+      <c r="KN1" s="89"/>
+      <c r="KO1" s="89"/>
+      <c r="KP1" s="89"/>
+      <c r="KQ1" s="89"/>
+      <c r="KR1" s="89"/>
+      <c r="KS1" s="89"/>
+      <c r="KT1" s="89"/>
+      <c r="KU1" s="89"/>
+      <c r="KV1" s="89"/>
+      <c r="KW1" s="89"/>
+      <c r="KX1" s="89"/>
+      <c r="KY1" s="89"/>
+      <c r="KZ1" s="89"/>
+      <c r="LA1" s="89"/>
+      <c r="LB1" s="89"/>
+      <c r="LC1" s="89"/>
+      <c r="LD1" s="89"/>
+      <c r="LE1" s="89"/>
+      <c r="LF1" s="89"/>
+      <c r="LG1" s="89"/>
+      <c r="LH1" s="89"/>
+      <c r="LI1" s="89"/>
+      <c r="LJ1" s="89"/>
+      <c r="LK1" s="89"/>
+      <c r="LL1" s="89"/>
+      <c r="LM1" s="89"/>
+      <c r="LN1" s="89"/>
+      <c r="LO1" s="89"/>
+      <c r="LP1" s="89"/>
+      <c r="LQ1" s="89"/>
+      <c r="LR1" s="89"/>
+      <c r="LS1" s="89"/>
+      <c r="LT1" s="89"/>
+      <c r="LU1" s="89"/>
+      <c r="LV1" s="89"/>
+      <c r="LW1" s="89"/>
+      <c r="LX1" s="89"/>
+      <c r="LY1" s="89"/>
+      <c r="LZ1" s="89"/>
+      <c r="MA1" s="89"/>
+      <c r="MB1" s="89"/>
+      <c r="MC1" s="89"/>
+      <c r="MD1" s="89"/>
+      <c r="ME1" s="89"/>
+      <c r="MF1" s="89"/>
+      <c r="MG1" s="89"/>
+      <c r="MH1" s="89"/>
+      <c r="MI1" s="89"/>
+      <c r="MJ1" s="89"/>
+      <c r="MK1" s="89"/>
+      <c r="ML1" s="89"/>
+      <c r="MM1" s="89"/>
+      <c r="MN1" s="89"/>
+      <c r="MO1" s="89"/>
+      <c r="MP1" s="89"/>
+      <c r="MQ1" s="89"/>
+      <c r="MR1" s="89"/>
+      <c r="MS1" s="89"/>
+      <c r="MT1" s="89"/>
+      <c r="MU1" s="89"/>
+      <c r="MV1" s="89"/>
+      <c r="MW1" s="89"/>
+      <c r="MX1" s="89"/>
+      <c r="MY1" s="89"/>
+      <c r="MZ1" s="89"/>
+      <c r="NA1" s="89"/>
+      <c r="NB1" s="89"/>
+      <c r="NC1" s="89"/>
+      <c r="ND1" s="89"/>
+      <c r="NE1" s="89"/>
+      <c r="NF1" s="89"/>
+      <c r="NG1" s="89"/>
+      <c r="NH1" s="89"/>
+      <c r="NI1" s="89"/>
+      <c r="NJ1" s="89"/>
+      <c r="NK1" s="89"/>
+      <c r="NL1" s="89"/>
+      <c r="NM1" s="89"/>
+      <c r="NN1" s="89"/>
+      <c r="NO1" s="89"/>
+      <c r="NP1" s="89"/>
+      <c r="NQ1" s="89"/>
+      <c r="NR1" s="89"/>
+      <c r="NS1" s="89"/>
+      <c r="NT1" s="89"/>
+      <c r="NU1" s="89"/>
+      <c r="NV1" s="89"/>
+      <c r="NW1" s="89"/>
+      <c r="NX1" s="89"/>
+      <c r="NY1" s="89"/>
+      <c r="NZ1" s="89"/>
+      <c r="OA1" s="89"/>
+      <c r="OB1" s="89"/>
+      <c r="OC1" s="89"/>
+      <c r="OD1" s="89"/>
+      <c r="OE1" s="89"/>
+      <c r="OF1" s="89"/>
+      <c r="OG1" s="89"/>
+      <c r="OH1" s="89"/>
+      <c r="OI1" s="89"/>
+      <c r="OJ1" s="89"/>
+      <c r="OK1" s="89"/>
+      <c r="OL1" s="89"/>
+      <c r="OM1" s="89"/>
+      <c r="ON1" s="89"/>
+      <c r="OO1" s="89"/>
+      <c r="OP1" s="89"/>
+      <c r="OQ1" s="89"/>
+      <c r="OR1" s="89"/>
+      <c r="OS1" s="89"/>
+      <c r="OT1" s="89"/>
+      <c r="OU1" s="89"/>
+      <c r="OV1" s="89"/>
+      <c r="OW1" s="89"/>
+      <c r="OX1" s="89"/>
+      <c r="OY1" s="89"/>
+      <c r="OZ1" s="89"/>
+      <c r="PA1" s="89"/>
+      <c r="PB1" s="89"/>
+      <c r="PC1" s="89"/>
+      <c r="PD1" s="89"/>
+      <c r="PE1" s="89"/>
+      <c r="PF1" s="89"/>
+      <c r="PG1" s="89"/>
+      <c r="PH1" s="89"/>
+      <c r="PI1" s="89"/>
+      <c r="PJ1" s="89"/>
+      <c r="PK1" s="89"/>
+      <c r="PL1" s="89"/>
+      <c r="PM1" s="89"/>
+      <c r="PN1" s="89"/>
+      <c r="PO1" s="89"/>
+      <c r="PP1" s="89"/>
+      <c r="PQ1" s="89"/>
+      <c r="PR1" s="89"/>
+      <c r="PS1" s="89"/>
+      <c r="PT1" s="89"/>
+      <c r="PU1" s="89"/>
+      <c r="PV1" s="89"/>
+      <c r="PW1" s="89"/>
+      <c r="PX1" s="89"/>
+      <c r="PY1" s="89"/>
+      <c r="PZ1" s="89"/>
+      <c r="QA1" s="89"/>
+      <c r="QB1" s="89"/>
+      <c r="QC1" s="89"/>
+      <c r="QD1" s="89"/>
+      <c r="QE1" s="89"/>
+      <c r="QF1" s="89"/>
+      <c r="QG1" s="89"/>
+      <c r="QH1" s="89"/>
+      <c r="QI1" s="89"/>
+      <c r="QJ1" s="89"/>
+      <c r="QK1" s="89"/>
+      <c r="QL1" s="89"/>
+      <c r="QM1" s="89"/>
+      <c r="QN1" s="89"/>
+      <c r="QO1" s="89"/>
+      <c r="QP1" s="89"/>
+      <c r="QQ1" s="89"/>
+      <c r="QR1" s="89"/>
+      <c r="QS1" s="89"/>
+      <c r="QT1" s="89"/>
+      <c r="QU1" s="89"/>
+      <c r="QV1" s="89"/>
+      <c r="QW1" s="89"/>
+      <c r="QX1" s="89"/>
+      <c r="QY1" s="89"/>
+      <c r="QZ1" s="89"/>
+      <c r="RA1" s="89"/>
+      <c r="RB1" s="89"/>
+      <c r="RC1" s="89"/>
+      <c r="RD1" s="89"/>
+      <c r="RE1" s="89"/>
+      <c r="RF1" s="89"/>
+      <c r="RG1" s="89"/>
+      <c r="RH1" s="89"/>
+      <c r="RI1" s="89"/>
+      <c r="RJ1" s="89"/>
+      <c r="RK1" s="89"/>
+      <c r="RL1" s="89"/>
+      <c r="RM1" s="89"/>
+      <c r="RN1" s="89"/>
+      <c r="RO1" s="89"/>
+      <c r="RP1" s="89"/>
+      <c r="RQ1" s="89"/>
+      <c r="RR1" s="89"/>
+      <c r="RS1" s="89"/>
+      <c r="RT1" s="89"/>
+      <c r="RU1" s="89"/>
+      <c r="RV1" s="89"/>
+      <c r="RW1" s="89"/>
+      <c r="RX1" s="89"/>
+      <c r="RY1" s="89"/>
+      <c r="RZ1" s="89"/>
+      <c r="SA1" s="89"/>
+      <c r="SB1" s="89"/>
+      <c r="SC1" s="89"/>
+      <c r="SD1" s="89"/>
+      <c r="SE1" s="89"/>
+      <c r="SF1" s="89"/>
+      <c r="SG1" s="89"/>
+      <c r="SH1" s="89"/>
+      <c r="SI1" s="89"/>
+      <c r="SJ1" s="89"/>
+      <c r="SK1" s="89"/>
+      <c r="SL1" s="89"/>
+      <c r="SM1" s="89"/>
+      <c r="SN1" s="89"/>
+      <c r="SO1" s="89"/>
+      <c r="SP1" s="89"/>
+      <c r="SQ1" s="89"/>
+      <c r="SR1" s="89"/>
+      <c r="SS1" s="89"/>
+      <c r="ST1" s="89"/>
+      <c r="SU1" s="89"/>
+      <c r="SV1" s="89"/>
+      <c r="SW1" s="89"/>
+      <c r="SX1" s="89"/>
+      <c r="SY1" s="89"/>
+      <c r="SZ1" s="89"/>
+      <c r="TA1" s="89"/>
+      <c r="TB1" s="89"/>
+      <c r="TC1" s="89"/>
+      <c r="TD1" s="89"/>
+      <c r="TE1" s="89"/>
+      <c r="TF1" s="89"/>
+      <c r="TG1" s="89"/>
+      <c r="TH1" s="89"/>
+      <c r="TI1" s="89"/>
+      <c r="TJ1" s="89"/>
+      <c r="TK1" s="89"/>
+      <c r="TL1" s="89"/>
+      <c r="TM1" s="89"/>
+      <c r="TN1" s="89"/>
+      <c r="TO1" s="89"/>
+      <c r="TP1" s="89"/>
+      <c r="TQ1" s="89"/>
+      <c r="TR1" s="89"/>
+      <c r="TS1" s="89"/>
+      <c r="TT1" s="89"/>
+      <c r="TU1" s="89"/>
+      <c r="TV1" s="89"/>
+      <c r="TW1" s="89"/>
+      <c r="TX1" s="89"/>
+      <c r="TY1" s="89"/>
+      <c r="TZ1" s="89"/>
+      <c r="UA1" s="89"/>
+      <c r="UB1" s="89"/>
+      <c r="UC1" s="89"/>
+      <c r="UD1" s="89"/>
+      <c r="UE1" s="89"/>
+      <c r="UF1" s="89"/>
+      <c r="UG1" s="89"/>
+      <c r="UH1" s="89"/>
+      <c r="UI1" s="89"/>
+      <c r="UJ1" s="89"/>
+      <c r="UK1" s="89"/>
+      <c r="UL1" s="89"/>
+      <c r="UM1" s="89"/>
+      <c r="UN1" s="89"/>
+      <c r="UO1" s="89"/>
+      <c r="UP1" s="89"/>
+      <c r="UQ1" s="89"/>
+      <c r="UR1" s="89"/>
+      <c r="US1" s="89"/>
+      <c r="UT1" s="89"/>
+      <c r="UU1" s="89"/>
+      <c r="UV1" s="89"/>
+      <c r="UW1" s="89"/>
+      <c r="UX1" s="89"/>
+      <c r="UY1" s="89"/>
+      <c r="UZ1" s="89"/>
+      <c r="VA1" s="89"/>
+      <c r="VB1" s="89"/>
+      <c r="VC1" s="89"/>
+      <c r="VD1" s="89"/>
+      <c r="VE1" s="89"/>
+      <c r="VF1" s="89"/>
+      <c r="VG1" s="89"/>
+      <c r="VH1" s="89"/>
+      <c r="VI1" s="89"/>
+      <c r="VJ1" s="89"/>
+      <c r="VK1" s="89"/>
+      <c r="VL1" s="89"/>
+      <c r="VM1" s="89"/>
+      <c r="VN1" s="89"/>
+      <c r="VO1" s="89"/>
+      <c r="VP1" s="89"/>
+      <c r="VQ1" s="89"/>
+      <c r="VR1" s="89"/>
+      <c r="VS1" s="89"/>
+      <c r="VT1" s="89"/>
+      <c r="VU1" s="89"/>
+      <c r="VV1" s="89"/>
+      <c r="VW1" s="89"/>
+      <c r="VX1" s="89"/>
+      <c r="VY1" s="89"/>
+      <c r="VZ1" s="89"/>
+      <c r="WA1" s="89"/>
+      <c r="WB1" s="89"/>
+      <c r="WC1" s="89"/>
+      <c r="WD1" s="89"/>
+      <c r="WE1" s="89"/>
+      <c r="WF1" s="89"/>
+      <c r="WG1" s="89"/>
+      <c r="WH1" s="89"/>
+      <c r="WI1" s="89"/>
+      <c r="WJ1" s="89"/>
+      <c r="WK1" s="89"/>
+      <c r="WL1" s="89"/>
+      <c r="WM1" s="89"/>
+      <c r="WN1" s="89"/>
+      <c r="WO1" s="89"/>
+      <c r="WP1" s="89"/>
+      <c r="WQ1" s="89"/>
+      <c r="WR1" s="89"/>
+      <c r="WS1" s="89"/>
+      <c r="WT1" s="89"/>
+      <c r="WU1" s="89"/>
+      <c r="WV1" s="89"/>
+      <c r="WW1" s="89"/>
+      <c r="WX1" s="89"/>
+      <c r="WY1" s="89"/>
+      <c r="WZ1" s="89"/>
+      <c r="XA1" s="89"/>
+      <c r="XB1" s="89"/>
+      <c r="XC1" s="89"/>
+      <c r="XD1" s="89"/>
+      <c r="XE1" s="89"/>
+      <c r="XF1" s="89"/>
+      <c r="XG1" s="89"/>
+      <c r="XH1" s="89"/>
+      <c r="XI1" s="89"/>
+      <c r="XJ1" s="89"/>
+      <c r="XK1" s="89"/>
+      <c r="XL1" s="89"/>
+      <c r="XM1" s="89"/>
+      <c r="XN1" s="89"/>
+      <c r="XO1" s="89"/>
+      <c r="XP1" s="89"/>
+      <c r="XQ1" s="89"/>
+      <c r="XR1" s="89"/>
+      <c r="XS1" s="89"/>
+      <c r="XT1" s="89"/>
+      <c r="XU1" s="89"/>
+      <c r="XV1" s="89"/>
+      <c r="XW1" s="89"/>
+      <c r="XX1" s="89"/>
+      <c r="XY1" s="89"/>
+      <c r="XZ1" s="89"/>
+      <c r="YA1" s="89"/>
+      <c r="YB1" s="89"/>
+      <c r="YC1" s="89"/>
+      <c r="YD1" s="89"/>
+      <c r="YE1" s="89"/>
+      <c r="YF1" s="89"/>
+      <c r="YG1" s="89"/>
+      <c r="YH1" s="89"/>
+      <c r="YI1" s="89"/>
+      <c r="YJ1" s="89"/>
+      <c r="YK1" s="89"/>
+      <c r="YL1" s="89"/>
+      <c r="YM1" s="89"/>
+      <c r="YN1" s="89"/>
+      <c r="YO1" s="89"/>
+      <c r="YP1" s="89"/>
+      <c r="YQ1" s="89"/>
+      <c r="YR1" s="89"/>
+      <c r="YS1" s="89"/>
+      <c r="YT1" s="89"/>
+      <c r="YU1" s="89"/>
+      <c r="YV1" s="89"/>
+      <c r="YW1" s="89"/>
+      <c r="YX1" s="89"/>
+      <c r="YY1" s="89"/>
+      <c r="YZ1" s="89"/>
+      <c r="ZA1" s="89"/>
+      <c r="ZB1" s="89"/>
+      <c r="ZC1" s="89"/>
+      <c r="ZD1" s="89"/>
+      <c r="ZE1" s="89"/>
+      <c r="ZF1" s="89"/>
+      <c r="ZG1" s="89"/>
+      <c r="ZH1" s="89"/>
+      <c r="ZI1" s="89"/>
+      <c r="ZJ1" s="89"/>
+      <c r="ZK1" s="89"/>
+      <c r="ZL1" s="89"/>
+      <c r="ZM1" s="89"/>
+      <c r="ZN1" s="89"/>
+      <c r="ZO1" s="89"/>
+      <c r="ZP1" s="89"/>
+      <c r="ZQ1" s="89"/>
+      <c r="ZR1" s="89"/>
+      <c r="ZS1" s="89"/>
+      <c r="ZT1" s="89"/>
+      <c r="ZU1" s="89"/>
+      <c r="ZV1" s="89"/>
+      <c r="ZW1" s="89"/>
+      <c r="ZX1" s="89"/>
+      <c r="ZY1" s="89"/>
+      <c r="ZZ1" s="89"/>
+      <c r="AAA1" s="89"/>
+      <c r="AAB1" s="89"/>
+      <c r="AAC1" s="89"/>
+      <c r="AAD1" s="89"/>
+      <c r="AAE1" s="89"/>
+      <c r="AAF1" s="89"/>
+      <c r="AAG1" s="89"/>
+      <c r="AAH1" s="89"/>
+      <c r="AAI1" s="89"/>
+      <c r="AAJ1" s="89"/>
+      <c r="AAK1" s="89"/>
+      <c r="AAL1" s="89"/>
+      <c r="AAM1" s="89"/>
+      <c r="AAN1" s="89"/>
+      <c r="AAO1" s="89"/>
+      <c r="AAP1" s="89"/>
+      <c r="AAQ1" s="89"/>
+      <c r="AAR1" s="89"/>
+      <c r="AAS1" s="89"/>
+      <c r="AAT1" s="89"/>
+      <c r="AAU1" s="89"/>
+      <c r="AAV1" s="89"/>
+      <c r="AAW1" s="89"/>
+      <c r="AAX1" s="89"/>
+      <c r="AAY1" s="89"/>
+      <c r="AAZ1" s="89"/>
+      <c r="ABA1" s="89"/>
+      <c r="ABB1" s="89"/>
+      <c r="ABC1" s="89"/>
+      <c r="ABD1" s="89"/>
+      <c r="ABE1" s="89"/>
+      <c r="ABF1" s="89"/>
+      <c r="ABG1" s="89"/>
+      <c r="ABH1" s="89"/>
+      <c r="ABI1" s="89"/>
+      <c r="ABJ1" s="89"/>
+      <c r="ABK1" s="89"/>
+      <c r="ABL1" s="89"/>
+      <c r="ABM1" s="89"/>
+      <c r="ABN1" s="89"/>
+      <c r="ABO1" s="89"/>
+      <c r="ABP1" s="89"/>
+      <c r="ABQ1" s="89"/>
+      <c r="ABR1" s="89"/>
+      <c r="ABS1" s="89"/>
+      <c r="ABT1" s="89"/>
+      <c r="ABU1" s="89"/>
+      <c r="ABV1" s="89"/>
+      <c r="ABW1" s="89"/>
+      <c r="ABX1" s="89"/>
+      <c r="ABY1" s="89"/>
+      <c r="ABZ1" s="89"/>
+      <c r="ACA1" s="89"/>
+      <c r="ACB1" s="89"/>
+      <c r="ACC1" s="89"/>
+      <c r="ACD1" s="89"/>
+      <c r="ACE1" s="89"/>
+      <c r="ACF1" s="89"/>
+      <c r="ACG1" s="89"/>
+      <c r="ACH1" s="89"/>
+      <c r="ACI1" s="89"/>
+      <c r="ACJ1" s="89"/>
+      <c r="ACK1" s="89"/>
+      <c r="ACL1" s="89"/>
+      <c r="ACM1" s="89"/>
+      <c r="ACN1" s="89"/>
+      <c r="ACO1" s="89"/>
+      <c r="ACP1" s="89"/>
+      <c r="ACQ1" s="89"/>
+      <c r="ACR1" s="89"/>
+      <c r="ACS1" s="89"/>
+      <c r="ACT1" s="89"/>
+      <c r="ACU1" s="89"/>
+      <c r="ACV1" s="89"/>
+      <c r="ACW1" s="89"/>
+      <c r="ACX1" s="89"/>
+      <c r="ACY1" s="89"/>
+      <c r="ACZ1" s="89"/>
+      <c r="ADA1" s="89"/>
+      <c r="ADB1" s="89"/>
+      <c r="ADC1" s="89"/>
+      <c r="ADD1" s="89"/>
+      <c r="ADE1" s="89"/>
+      <c r="ADF1" s="89"/>
+      <c r="ADG1" s="89"/>
+      <c r="ADH1" s="89"/>
+      <c r="ADI1" s="89"/>
+      <c r="ADJ1" s="89"/>
+      <c r="ADK1" s="89"/>
+      <c r="ADL1" s="89"/>
+      <c r="ADM1" s="89"/>
+      <c r="ADN1" s="89"/>
+      <c r="ADO1" s="89"/>
+      <c r="ADP1" s="89"/>
+      <c r="ADQ1" s="89"/>
+      <c r="ADR1" s="89"/>
+      <c r="ADS1" s="89"/>
+      <c r="ADT1" s="89"/>
+      <c r="ADU1" s="89"/>
+      <c r="ADV1" s="89"/>
+      <c r="ADW1" s="89"/>
+      <c r="ADX1" s="89"/>
+      <c r="ADY1" s="89"/>
+      <c r="ADZ1" s="89"/>
+      <c r="AEA1" s="89"/>
+      <c r="AEB1" s="89"/>
+      <c r="AEC1" s="89"/>
+      <c r="AED1" s="89"/>
+      <c r="AEE1" s="89"/>
+      <c r="AEF1" s="89"/>
+      <c r="AEG1" s="89"/>
+      <c r="AEH1" s="89"/>
+      <c r="AEI1" s="89"/>
+      <c r="AEJ1" s="89"/>
+      <c r="AEK1" s="89"/>
+      <c r="AEL1" s="89"/>
+      <c r="AEM1" s="89"/>
+      <c r="AEN1" s="89"/>
+      <c r="AEO1" s="89"/>
+      <c r="AEP1" s="89"/>
+      <c r="AEQ1" s="89"/>
+      <c r="AER1" s="89"/>
+      <c r="AES1" s="89"/>
+      <c r="AET1" s="89"/>
+      <c r="AEU1" s="89"/>
+      <c r="AEV1" s="89"/>
+      <c r="AEW1" s="89"/>
+      <c r="AEX1" s="89"/>
+      <c r="AEY1" s="89"/>
+      <c r="AEZ1" s="89"/>
+      <c r="AFA1" s="89"/>
+      <c r="AFB1" s="89"/>
+      <c r="AFC1" s="89"/>
+      <c r="AFD1" s="89"/>
+      <c r="AFE1" s="89"/>
+      <c r="AFF1" s="89"/>
+      <c r="AFG1" s="89"/>
+      <c r="AFH1" s="89"/>
+      <c r="AFI1" s="89"/>
+      <c r="AFJ1" s="89"/>
+      <c r="AFK1" s="89"/>
+      <c r="AFL1" s="89"/>
+      <c r="AFM1" s="89"/>
+      <c r="AFN1" s="89"/>
+      <c r="AFO1" s="89"/>
+      <c r="AFP1" s="89"/>
+      <c r="AFQ1" s="89"/>
+      <c r="AFR1" s="89"/>
+      <c r="AFS1" s="89"/>
+      <c r="AFT1" s="89"/>
+      <c r="AFU1" s="89"/>
+      <c r="AFV1" s="89"/>
+      <c r="AFW1" s="89"/>
+      <c r="AFX1" s="89"/>
+      <c r="AFY1" s="89"/>
+      <c r="AFZ1" s="89"/>
+      <c r="AGA1" s="89"/>
+      <c r="AGB1" s="89"/>
+      <c r="AGC1" s="89"/>
+      <c r="AGD1" s="89"/>
+      <c r="AGE1" s="89"/>
+      <c r="AGF1" s="89"/>
+      <c r="AGG1" s="89"/>
+      <c r="AGH1" s="89"/>
+      <c r="AGI1" s="89"/>
+      <c r="AGJ1" s="89"/>
+      <c r="AGK1" s="89"/>
+      <c r="AGL1" s="89"/>
+      <c r="AGM1" s="89"/>
+      <c r="AGN1" s="89"/>
+      <c r="AGO1" s="89"/>
+      <c r="AGP1" s="89"/>
+      <c r="AGQ1" s="89"/>
+      <c r="AGR1" s="89"/>
+      <c r="AGS1" s="89"/>
+      <c r="AGT1" s="89"/>
+      <c r="AGU1" s="89"/>
+      <c r="AGV1" s="89"/>
+      <c r="AGW1" s="89"/>
+      <c r="AGX1" s="89"/>
+      <c r="AGY1" s="89"/>
+      <c r="AGZ1" s="89"/>
+      <c r="AHA1" s="89"/>
+      <c r="AHB1" s="89"/>
+      <c r="AHC1" s="89"/>
+      <c r="AHD1" s="89"/>
+      <c r="AHE1" s="89"/>
+      <c r="AHF1" s="89"/>
+      <c r="AHG1" s="89"/>
+      <c r="AHH1" s="89"/>
+      <c r="AHI1" s="89"/>
+      <c r="AHJ1" s="89"/>
+      <c r="AHK1" s="89"/>
+      <c r="AHL1" s="89"/>
+      <c r="AHM1" s="89"/>
+      <c r="AHN1" s="89"/>
+      <c r="AHO1" s="89"/>
+      <c r="AHP1" s="89"/>
+      <c r="AHQ1" s="89"/>
+      <c r="AHR1" s="89"/>
+      <c r="AHS1" s="89"/>
+      <c r="AHT1" s="89"/>
+      <c r="AHU1" s="89"/>
+      <c r="AHV1" s="89"/>
+      <c r="AHW1" s="89"/>
+      <c r="AHX1" s="89"/>
+      <c r="AHY1" s="89"/>
+      <c r="AHZ1" s="89"/>
+      <c r="AIA1" s="89"/>
+      <c r="AIB1" s="89"/>
+      <c r="AIC1" s="89"/>
+      <c r="AID1" s="89"/>
+      <c r="AIE1" s="89"/>
+      <c r="AIF1" s="89"/>
+      <c r="AIG1" s="89"/>
+      <c r="AIH1" s="89"/>
+      <c r="AII1" s="89"/>
+      <c r="AIJ1" s="89"/>
+      <c r="AIK1" s="89"/>
+      <c r="AIL1" s="89"/>
+      <c r="AIM1" s="89"/>
+      <c r="AIN1" s="89"/>
+      <c r="AIO1" s="89"/>
+      <c r="AIP1" s="89"/>
+      <c r="AIQ1" s="89"/>
+      <c r="AIR1" s="89"/>
+      <c r="AIS1" s="89"/>
+      <c r="AIT1" s="89"/>
+      <c r="AIU1" s="89"/>
+      <c r="AIV1" s="89"/>
+      <c r="AIW1" s="89"/>
+      <c r="AIX1" s="89"/>
+      <c r="AIY1" s="89"/>
+      <c r="AIZ1" s="89"/>
+      <c r="AJA1" s="89"/>
+      <c r="AJB1" s="89"/>
+      <c r="AJC1" s="89"/>
+      <c r="AJD1" s="89"/>
+      <c r="AJE1" s="89"/>
+      <c r="AJF1" s="89"/>
+      <c r="AJG1" s="89"/>
+      <c r="AJH1" s="89"/>
+      <c r="AJI1" s="89"/>
+      <c r="AJJ1" s="89"/>
+      <c r="AJK1" s="89"/>
+      <c r="AJL1" s="89"/>
+      <c r="AJM1" s="89"/>
+      <c r="AJN1" s="89"/>
+      <c r="AJO1" s="89"/>
+      <c r="AJP1" s="89"/>
+      <c r="AJQ1" s="89"/>
+      <c r="AJR1" s="89"/>
+      <c r="AJS1" s="89"/>
+      <c r="AJT1" s="89"/>
+      <c r="AJU1" s="89"/>
+      <c r="AJV1" s="89"/>
+      <c r="AJW1" s="89"/>
+      <c r="AJX1" s="89"/>
+      <c r="AJY1" s="89"/>
+      <c r="AJZ1" s="89"/>
+      <c r="AKA1" s="89"/>
+      <c r="AKB1" s="89"/>
+      <c r="AKC1" s="89"/>
+      <c r="AKD1" s="89"/>
+      <c r="AKE1" s="89"/>
+      <c r="AKF1" s="89"/>
+      <c r="AKG1" s="89"/>
+      <c r="AKH1" s="89"/>
+      <c r="AKI1" s="89"/>
+      <c r="AKJ1" s="89"/>
+      <c r="AKK1" s="89"/>
+      <c r="AKL1" s="89"/>
+      <c r="AKM1" s="89"/>
+      <c r="AKN1" s="89"/>
+      <c r="AKO1" s="89"/>
+      <c r="AKP1" s="89"/>
+      <c r="AKQ1" s="89"/>
+      <c r="AKR1" s="89"/>
+      <c r="AKS1" s="89"/>
+      <c r="AKT1" s="89"/>
+      <c r="AKU1" s="89"/>
+      <c r="AKV1" s="89"/>
+      <c r="AKW1" s="89"/>
+      <c r="AKX1" s="89"/>
+      <c r="AKY1" s="89"/>
+      <c r="AKZ1" s="89"/>
+      <c r="ALA1" s="89"/>
+      <c r="ALB1" s="89"/>
+      <c r="ALC1" s="89"/>
+      <c r="ALD1" s="89"/>
+      <c r="ALE1" s="89"/>
+      <c r="ALF1" s="89"/>
+      <c r="ALG1" s="89"/>
+      <c r="ALH1" s="89"/>
+      <c r="ALI1" s="89"/>
+      <c r="ALJ1" s="89"/>
+      <c r="ALK1" s="89"/>
+      <c r="ALL1" s="89"/>
+      <c r="ALM1" s="89"/>
+      <c r="ALN1" s="89"/>
+      <c r="ALO1" s="89"/>
+      <c r="ALP1" s="89"/>
+      <c r="ALQ1" s="89"/>
+      <c r="ALR1" s="89"/>
+      <c r="ALS1" s="89"/>
+      <c r="ALT1" s="89"/>
+      <c r="ALU1" s="89"/>
+      <c r="ALV1" s="89"/>
+      <c r="ALW1" s="89"/>
+      <c r="ALX1" s="89"/>
+      <c r="ALY1" s="89"/>
+      <c r="ALZ1" s="89"/>
+      <c r="AMA1" s="89"/>
+      <c r="AMB1" s="89"/>
+      <c r="AMC1" s="89"/>
+      <c r="AMD1" s="89"/>
+      <c r="AME1" s="89"/>
+      <c r="AMF1" s="89"/>
+      <c r="AMG1" s="89"/>
+      <c r="AMH1" s="89"/>
+      <c r="AMI1" s="89"/>
+      <c r="AMJ1" s="89"/>
+      <c r="AMK1" s="89"/>
+      <c r="AML1" s="89"/>
+      <c r="AMM1" s="89"/>
+      <c r="AMN1" s="89"/>
+      <c r="AMO1" s="89"/>
+      <c r="AMP1" s="89"/>
+      <c r="AMQ1" s="89"/>
+      <c r="AMR1" s="89"/>
+      <c r="AMS1" s="89"/>
+      <c r="AMT1" s="89"/>
+      <c r="AMU1" s="89"/>
+      <c r="AMV1" s="89"/>
+      <c r="AMW1" s="89"/>
+      <c r="AMX1" s="89"/>
+      <c r="AMY1" s="89"/>
+      <c r="AMZ1" s="89"/>
+      <c r="ANA1" s="89"/>
+      <c r="ANB1" s="89"/>
+      <c r="ANC1" s="89"/>
+      <c r="AND1" s="89"/>
+      <c r="ANE1" s="89"/>
+      <c r="ANF1" s="89"/>
+      <c r="ANG1" s="89"/>
+      <c r="ANH1" s="89"/>
+      <c r="ANI1" s="89"/>
+      <c r="ANJ1" s="89"/>
+      <c r="ANK1" s="89"/>
+      <c r="ANL1" s="89"/>
+      <c r="ANM1" s="89"/>
+      <c r="ANN1" s="89"/>
+      <c r="ANO1" s="89"/>
+      <c r="ANP1" s="89"/>
+      <c r="ANQ1" s="89"/>
+      <c r="ANR1" s="89"/>
+      <c r="ANS1" s="89"/>
+      <c r="ANT1" s="89"/>
+    </row>
+    <row r="2" spans="1:1060" s="17" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="109">
-        <v>44.986769000000002</v>
-      </c>
-      <c r="C2" s="109">
-        <v>44.757891000000001</v>
-      </c>
-      <c r="D2" s="109">
-        <v>44.538100999999997</v>
-      </c>
-      <c r="E2" s="109">
-        <v>42.192306000000002</v>
-      </c>
-      <c r="F2" s="109">
-        <v>44.885945999999997</v>
-      </c>
-      <c r="G2" s="109">
-        <v>44.382505000000002</v>
-      </c>
-      <c r="H2" s="110">
-        <v>42.700038900000003</v>
-      </c>
-      <c r="I2" s="116">
-        <v>43.302661999999998</v>
-      </c>
-      <c r="J2" s="116">
-        <v>42.858837999999999</v>
-      </c>
-      <c r="K2" s="116">
-        <v>42.823362000000003</v>
-      </c>
-      <c r="L2" s="116">
-        <v>42.942259</v>
-      </c>
-      <c r="M2" s="113">
-        <v>41.872002999999999</v>
-      </c>
-      <c r="N2" s="109">
-        <v>43.003132999999998</v>
-      </c>
-      <c r="O2" s="107">
-        <v>43.06532</v>
-      </c>
-      <c r="P2" s="117">
-        <v>42.698324999999997</v>
-      </c>
-      <c r="Q2" s="113">
-        <v>42.842314000000002</v>
-      </c>
-      <c r="R2" s="112">
-        <v>42.451818000000003</v>
-      </c>
-      <c r="S2" s="118">
-        <v>43.003637400000002</v>
-      </c>
-      <c r="T2" s="113">
+      <c r="B2" s="138">
+        <v>42.192339199999999</v>
+      </c>
+      <c r="C2" s="138">
+        <v>41.844178999999997</v>
+      </c>
+      <c r="D2" s="138">
+        <v>43.758125550000003</v>
+      </c>
+      <c r="E2" s="138">
+        <v>43.803410880000001</v>
+      </c>
+      <c r="F2" s="138">
+        <v>44.287405479999997</v>
+      </c>
+      <c r="G2" s="138">
+        <v>44.017409839999999</v>
+      </c>
+      <c r="H2" s="137">
+        <v>43.967233999999998</v>
+      </c>
+      <c r="I2" s="139">
+        <v>42.863999999999997</v>
+      </c>
+      <c r="J2" s="139">
+        <v>43.155000000000001</v>
+      </c>
+      <c r="K2" s="139">
+        <v>42.826000000000001</v>
+      </c>
+      <c r="L2" s="139">
+        <v>43.3</v>
+      </c>
+      <c r="M2" s="139">
+        <v>43.082000000000001</v>
+      </c>
+      <c r="N2" s="137">
+        <v>43.757249999999999</v>
+      </c>
+      <c r="O2" s="140">
+        <v>43.073729</v>
+      </c>
+      <c r="P2" s="140">
+        <v>41.942200999999997</v>
+      </c>
+      <c r="Q2" s="140">
+        <v>41.940513000000003</v>
+      </c>
+      <c r="R2" s="137">
+        <v>43.052011110000002</v>
+      </c>
+      <c r="S2" s="138">
+        <v>44.580114000000002</v>
+      </c>
+      <c r="T2" s="138">
+        <v>44.734591999999999</v>
+      </c>
+      <c r="U2" s="138">
+        <v>44.695504</v>
+      </c>
+      <c r="V2" s="138">
+        <v>44.770643999999997</v>
+      </c>
+      <c r="W2" s="137">
+        <v>41.781278999999998</v>
+      </c>
+      <c r="X2" s="137">
+        <v>41.757714</v>
+      </c>
+      <c r="Y2" s="138">
+        <v>44.877266839999997</v>
+      </c>
+      <c r="Z2" s="138">
+        <v>44.874915629999997</v>
+      </c>
+      <c r="AA2" s="139">
+        <v>43.003636999999998</v>
+      </c>
+      <c r="AB2" s="139">
         <v>43.232982999999997</v>
       </c>
-      <c r="U2" s="118">
+      <c r="AC2" s="139">
+        <v>42.843249</v>
+      </c>
+      <c r="AD2" s="139">
+        <v>42.669822000000003</v>
+      </c>
+      <c r="AE2" s="139">
         <v>42.962699000000001</v>
       </c>
-      <c r="V2" s="117">
-        <v>42.791207</v>
-      </c>
-      <c r="W2" s="112">
-        <v>44.020808000000002</v>
-      </c>
-      <c r="X2" s="110">
-        <v>43.758164999999998</v>
-      </c>
-      <c r="Y2" s="112">
-        <v>43.947780999999999</v>
-      </c>
-      <c r="Z2" s="112">
-        <v>43.785516000000001</v>
-      </c>
-      <c r="AA2" s="112">
-        <v>44.288179999999997</v>
-      </c>
-      <c r="AB2" s="112">
-        <v>43.627955999999998</v>
-      </c>
-      <c r="AC2" s="119">
-        <v>43.964184000000003</v>
-      </c>
-      <c r="AD2" s="120">
-        <v>43.80348</v>
-      </c>
-      <c r="AE2" s="121">
-        <v>43.755468</v>
-      </c>
-      <c r="AF2" s="122">
-        <v>41.928910999999999</v>
-      </c>
-      <c r="AG2" s="122">
-        <v>41.929037000000001</v>
-      </c>
-      <c r="AH2" s="113">
-        <v>43.311861999999998</v>
-      </c>
-      <c r="AI2" s="113">
-        <v>43.292777999999998</v>
-      </c>
-      <c r="AJ2" s="123">
-        <v>44.627958999999997</v>
-      </c>
-      <c r="AK2" s="123">
-        <v>44.471879999999999</v>
-      </c>
-      <c r="AL2" s="123">
-        <v>44.706533</v>
-      </c>
-      <c r="AM2" s="110">
-        <v>44.743805999999999</v>
-      </c>
-      <c r="AN2" s="109">
-        <v>44.829121999999998</v>
-      </c>
-      <c r="AO2" s="123">
-        <v>44.923800999999997</v>
-      </c>
-      <c r="AP2" s="109">
-        <v>44.771268999999997</v>
-      </c>
-      <c r="AQ2" s="109">
-        <v>44.609656000000001</v>
-      </c>
-      <c r="AR2" s="123">
-        <v>44.821989000000002</v>
-      </c>
-      <c r="AS2" s="123">
-        <v>44.874296999999999</v>
-      </c>
-      <c r="AT2" s="123">
-        <v>44.931095999999997</v>
-      </c>
-      <c r="AU2" s="112">
-        <v>42.728881999999999</v>
-      </c>
-      <c r="AV2" s="124">
-        <v>42.762655000000002</v>
-      </c>
-      <c r="AW2" s="112">
-        <v>41.706932999999999</v>
-      </c>
-      <c r="AX2" s="125">
-        <v>41.762582999999999</v>
-      </c>
-      <c r="AY2" s="116">
-        <v>43.187578000000002</v>
-      </c>
-      <c r="AZ2" s="116">
-        <v>43.347769</v>
-      </c>
-      <c r="BA2" s="109">
-        <v>43.367482000000003</v>
-      </c>
-      <c r="BB2" s="114">
-        <v>43.074036999999997</v>
-      </c>
-      <c r="BC2" s="112">
-        <v>43.193944000000002</v>
-      </c>
-      <c r="BD2" s="126">
-        <v>43.193910000000002</v>
-      </c>
-      <c r="BE2" s="109">
-        <v>43.776983999999999</v>
-      </c>
-      <c r="BF2" s="110">
-        <v>40.955317999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" s="17" customFormat="1" ht="17">
+      <c r="AF2" s="139">
+        <v>42.354435000000002</v>
+      </c>
+      <c r="AG2" s="139">
+        <v>42.659962999999998</v>
+      </c>
+      <c r="AH2" s="137">
+        <v>42.732891000000002</v>
+      </c>
+      <c r="AI2" s="138">
+        <v>44.260395000000003</v>
+      </c>
+      <c r="AJ2" s="138">
+        <v>41.752270000000003</v>
+      </c>
+      <c r="AK2" s="138">
+        <v>41.880046</v>
+      </c>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="89"/>
+      <c r="BM2" s="89"/>
+      <c r="BN2" s="89"/>
+      <c r="BO2" s="89"/>
+      <c r="BP2" s="89"/>
+      <c r="BQ2" s="89"/>
+      <c r="BR2" s="89"/>
+      <c r="BS2" s="89"/>
+      <c r="BT2" s="89"/>
+      <c r="BU2" s="89"/>
+      <c r="BV2" s="89"/>
+      <c r="BW2" s="89"/>
+      <c r="BX2" s="89"/>
+      <c r="BY2" s="89"/>
+      <c r="BZ2" s="89"/>
+      <c r="CA2" s="89"/>
+      <c r="CB2" s="89"/>
+      <c r="CC2" s="89"/>
+      <c r="CD2" s="89"/>
+      <c r="CE2" s="89"/>
+      <c r="CF2" s="89"/>
+      <c r="CG2" s="89"/>
+      <c r="CH2" s="89"/>
+      <c r="CI2" s="89"/>
+      <c r="CJ2" s="89"/>
+      <c r="CK2" s="89"/>
+      <c r="CL2" s="89"/>
+      <c r="CM2" s="89"/>
+      <c r="CN2" s="89"/>
+      <c r="CO2" s="89"/>
+      <c r="CP2" s="89"/>
+      <c r="CQ2" s="89"/>
+      <c r="CR2" s="89"/>
+      <c r="CS2" s="89"/>
+      <c r="CT2" s="89"/>
+      <c r="CU2" s="89"/>
+      <c r="CV2" s="89"/>
+      <c r="CW2" s="89"/>
+      <c r="CX2" s="89"/>
+      <c r="CY2" s="89"/>
+      <c r="CZ2" s="89"/>
+      <c r="DA2" s="89"/>
+      <c r="DB2" s="89"/>
+      <c r="DC2" s="89"/>
+      <c r="DD2" s="89"/>
+      <c r="DE2" s="89"/>
+      <c r="DF2" s="89"/>
+      <c r="DG2" s="89"/>
+      <c r="DH2" s="89"/>
+      <c r="DI2" s="89"/>
+      <c r="DJ2" s="89"/>
+      <c r="DK2" s="89"/>
+      <c r="DL2" s="89"/>
+      <c r="DM2" s="89"/>
+      <c r="DN2" s="89"/>
+      <c r="DO2" s="89"/>
+      <c r="DP2" s="89"/>
+      <c r="DQ2" s="89"/>
+      <c r="DR2" s="89"/>
+      <c r="DS2" s="89"/>
+      <c r="DT2" s="89"/>
+      <c r="DU2" s="89"/>
+      <c r="DV2" s="89"/>
+      <c r="DW2" s="89"/>
+      <c r="DX2" s="89"/>
+      <c r="DY2" s="89"/>
+      <c r="DZ2" s="89"/>
+      <c r="EA2" s="89"/>
+      <c r="EB2" s="89"/>
+      <c r="EC2" s="89"/>
+      <c r="ED2" s="89"/>
+      <c r="EE2" s="89"/>
+      <c r="EF2" s="89"/>
+      <c r="EG2" s="89"/>
+      <c r="EH2" s="89"/>
+      <c r="EI2" s="89"/>
+      <c r="EJ2" s="89"/>
+      <c r="EK2" s="89"/>
+      <c r="EL2" s="89"/>
+      <c r="EM2" s="89"/>
+      <c r="EN2" s="89"/>
+      <c r="EO2" s="89"/>
+      <c r="EP2" s="89"/>
+      <c r="EQ2" s="89"/>
+      <c r="ER2" s="89"/>
+      <c r="ES2" s="89"/>
+      <c r="ET2" s="89"/>
+      <c r="EU2" s="89"/>
+      <c r="EV2" s="89"/>
+      <c r="EW2" s="89"/>
+      <c r="EX2" s="89"/>
+      <c r="EY2" s="89"/>
+      <c r="EZ2" s="89"/>
+      <c r="FA2" s="89"/>
+      <c r="FB2" s="89"/>
+      <c r="FC2" s="89"/>
+      <c r="FD2" s="89"/>
+      <c r="FE2" s="89"/>
+      <c r="FF2" s="89"/>
+      <c r="FG2" s="89"/>
+      <c r="FH2" s="89"/>
+      <c r="FI2" s="89"/>
+      <c r="FJ2" s="89"/>
+      <c r="FK2" s="89"/>
+      <c r="FL2" s="89"/>
+      <c r="FM2" s="89"/>
+      <c r="FN2" s="89"/>
+      <c r="FO2" s="89"/>
+      <c r="FP2" s="89"/>
+      <c r="FQ2" s="89"/>
+      <c r="FR2" s="89"/>
+      <c r="FS2" s="89"/>
+      <c r="FT2" s="89"/>
+      <c r="FU2" s="89"/>
+      <c r="FV2" s="89"/>
+      <c r="FW2" s="89"/>
+      <c r="FX2" s="89"/>
+      <c r="FY2" s="89"/>
+      <c r="FZ2" s="89"/>
+      <c r="GA2" s="89"/>
+      <c r="GB2" s="89"/>
+      <c r="GC2" s="89"/>
+      <c r="GD2" s="89"/>
+      <c r="GE2" s="89"/>
+      <c r="GF2" s="89"/>
+      <c r="GG2" s="89"/>
+      <c r="GH2" s="89"/>
+      <c r="GI2" s="89"/>
+      <c r="GJ2" s="89"/>
+      <c r="GK2" s="89"/>
+      <c r="GL2" s="89"/>
+      <c r="GM2" s="89"/>
+      <c r="GN2" s="89"/>
+      <c r="GO2" s="89"/>
+      <c r="GP2" s="89"/>
+      <c r="GQ2" s="89"/>
+      <c r="GR2" s="89"/>
+      <c r="GS2" s="89"/>
+      <c r="GT2" s="89"/>
+      <c r="GU2" s="89"/>
+      <c r="GV2" s="89"/>
+      <c r="GW2" s="89"/>
+      <c r="GX2" s="89"/>
+      <c r="GY2" s="89"/>
+      <c r="GZ2" s="89"/>
+      <c r="HA2" s="89"/>
+      <c r="HB2" s="89"/>
+      <c r="HC2" s="89"/>
+      <c r="HD2" s="89"/>
+      <c r="HE2" s="89"/>
+      <c r="HF2" s="89"/>
+      <c r="HG2" s="89"/>
+      <c r="HH2" s="89"/>
+      <c r="HI2" s="89"/>
+      <c r="HJ2" s="89"/>
+      <c r="HK2" s="89"/>
+      <c r="HL2" s="89"/>
+      <c r="HM2" s="89"/>
+      <c r="HN2" s="89"/>
+      <c r="HO2" s="89"/>
+      <c r="HP2" s="89"/>
+      <c r="HQ2" s="89"/>
+      <c r="HR2" s="89"/>
+      <c r="HS2" s="89"/>
+      <c r="HT2" s="89"/>
+      <c r="HU2" s="89"/>
+      <c r="HV2" s="89"/>
+      <c r="HW2" s="89"/>
+      <c r="HX2" s="89"/>
+      <c r="HY2" s="89"/>
+      <c r="HZ2" s="89"/>
+      <c r="IA2" s="89"/>
+      <c r="IB2" s="89"/>
+      <c r="IC2" s="89"/>
+      <c r="ID2" s="89"/>
+      <c r="IE2" s="89"/>
+      <c r="IF2" s="89"/>
+      <c r="IG2" s="89"/>
+      <c r="IH2" s="89"/>
+      <c r="II2" s="89"/>
+      <c r="IJ2" s="89"/>
+      <c r="IK2" s="89"/>
+      <c r="IL2" s="89"/>
+      <c r="IM2" s="89"/>
+      <c r="IN2" s="89"/>
+      <c r="IO2" s="89"/>
+      <c r="IP2" s="89"/>
+      <c r="IQ2" s="89"/>
+      <c r="IR2" s="89"/>
+      <c r="IS2" s="89"/>
+      <c r="IT2" s="89"/>
+      <c r="IU2" s="89"/>
+      <c r="IV2" s="89"/>
+      <c r="IW2" s="89"/>
+      <c r="IX2" s="89"/>
+      <c r="IY2" s="89"/>
+      <c r="IZ2" s="89"/>
+      <c r="JA2" s="89"/>
+      <c r="JB2" s="89"/>
+      <c r="JC2" s="89"/>
+      <c r="JD2" s="89"/>
+      <c r="JE2" s="89"/>
+      <c r="JF2" s="89"/>
+      <c r="JG2" s="89"/>
+      <c r="JH2" s="89"/>
+      <c r="JI2" s="89"/>
+      <c r="JJ2" s="89"/>
+      <c r="JK2" s="89"/>
+      <c r="JL2" s="89"/>
+      <c r="JM2" s="89"/>
+      <c r="JN2" s="89"/>
+      <c r="JO2" s="89"/>
+      <c r="JP2" s="89"/>
+      <c r="JQ2" s="89"/>
+      <c r="JR2" s="89"/>
+      <c r="JS2" s="89"/>
+      <c r="JT2" s="89"/>
+      <c r="JU2" s="89"/>
+      <c r="JV2" s="89"/>
+      <c r="JW2" s="89"/>
+      <c r="JX2" s="89"/>
+      <c r="JY2" s="89"/>
+      <c r="JZ2" s="89"/>
+      <c r="KA2" s="89"/>
+      <c r="KB2" s="89"/>
+      <c r="KC2" s="89"/>
+      <c r="KD2" s="89"/>
+      <c r="KE2" s="89"/>
+      <c r="KF2" s="89"/>
+      <c r="KG2" s="89"/>
+      <c r="KH2" s="89"/>
+      <c r="KI2" s="89"/>
+      <c r="KJ2" s="89"/>
+      <c r="KK2" s="89"/>
+      <c r="KL2" s="89"/>
+      <c r="KM2" s="89"/>
+      <c r="KN2" s="89"/>
+      <c r="KO2" s="89"/>
+      <c r="KP2" s="89"/>
+      <c r="KQ2" s="89"/>
+      <c r="KR2" s="89"/>
+      <c r="KS2" s="89"/>
+      <c r="KT2" s="89"/>
+      <c r="KU2" s="89"/>
+      <c r="KV2" s="89"/>
+      <c r="KW2" s="89"/>
+      <c r="KX2" s="89"/>
+      <c r="KY2" s="89"/>
+      <c r="KZ2" s="89"/>
+      <c r="LA2" s="89"/>
+      <c r="LB2" s="89"/>
+      <c r="LC2" s="89"/>
+      <c r="LD2" s="89"/>
+      <c r="LE2" s="89"/>
+      <c r="LF2" s="89"/>
+      <c r="LG2" s="89"/>
+      <c r="LH2" s="89"/>
+      <c r="LI2" s="89"/>
+      <c r="LJ2" s="89"/>
+      <c r="LK2" s="89"/>
+      <c r="LL2" s="89"/>
+      <c r="LM2" s="89"/>
+      <c r="LN2" s="89"/>
+      <c r="LO2" s="89"/>
+      <c r="LP2" s="89"/>
+      <c r="LQ2" s="89"/>
+      <c r="LR2" s="89"/>
+      <c r="LS2" s="89"/>
+      <c r="LT2" s="89"/>
+      <c r="LU2" s="89"/>
+      <c r="LV2" s="89"/>
+      <c r="LW2" s="89"/>
+      <c r="LX2" s="89"/>
+      <c r="LY2" s="89"/>
+      <c r="LZ2" s="89"/>
+      <c r="MA2" s="89"/>
+      <c r="MB2" s="89"/>
+      <c r="MC2" s="89"/>
+      <c r="MD2" s="89"/>
+      <c r="ME2" s="89"/>
+      <c r="MF2" s="89"/>
+      <c r="MG2" s="89"/>
+      <c r="MH2" s="89"/>
+      <c r="MI2" s="89"/>
+      <c r="MJ2" s="89"/>
+      <c r="MK2" s="89"/>
+      <c r="ML2" s="89"/>
+      <c r="MM2" s="89"/>
+      <c r="MN2" s="89"/>
+      <c r="MO2" s="89"/>
+      <c r="MP2" s="89"/>
+      <c r="MQ2" s="89"/>
+      <c r="MR2" s="89"/>
+      <c r="MS2" s="89"/>
+      <c r="MT2" s="89"/>
+      <c r="MU2" s="89"/>
+      <c r="MV2" s="89"/>
+      <c r="MW2" s="89"/>
+      <c r="MX2" s="89"/>
+      <c r="MY2" s="89"/>
+      <c r="MZ2" s="89"/>
+      <c r="NA2" s="89"/>
+      <c r="NB2" s="89"/>
+      <c r="NC2" s="89"/>
+      <c r="ND2" s="89"/>
+      <c r="NE2" s="89"/>
+      <c r="NF2" s="89"/>
+      <c r="NG2" s="89"/>
+      <c r="NH2" s="89"/>
+      <c r="NI2" s="89"/>
+      <c r="NJ2" s="89"/>
+      <c r="NK2" s="89"/>
+      <c r="NL2" s="89"/>
+      <c r="NM2" s="89"/>
+      <c r="NN2" s="89"/>
+      <c r="NO2" s="89"/>
+      <c r="NP2" s="89"/>
+      <c r="NQ2" s="89"/>
+      <c r="NR2" s="89"/>
+      <c r="NS2" s="89"/>
+      <c r="NT2" s="89"/>
+      <c r="NU2" s="89"/>
+      <c r="NV2" s="89"/>
+      <c r="NW2" s="89"/>
+      <c r="NX2" s="89"/>
+      <c r="NY2" s="89"/>
+      <c r="NZ2" s="89"/>
+      <c r="OA2" s="89"/>
+      <c r="OB2" s="89"/>
+      <c r="OC2" s="89"/>
+      <c r="OD2" s="89"/>
+      <c r="OE2" s="89"/>
+      <c r="OF2" s="89"/>
+      <c r="OG2" s="89"/>
+      <c r="OH2" s="89"/>
+      <c r="OI2" s="89"/>
+      <c r="OJ2" s="89"/>
+      <c r="OK2" s="89"/>
+      <c r="OL2" s="89"/>
+      <c r="OM2" s="89"/>
+      <c r="ON2" s="89"/>
+      <c r="OO2" s="89"/>
+      <c r="OP2" s="89"/>
+      <c r="OQ2" s="89"/>
+      <c r="OR2" s="89"/>
+      <c r="OS2" s="89"/>
+      <c r="OT2" s="89"/>
+      <c r="OU2" s="89"/>
+      <c r="OV2" s="89"/>
+      <c r="OW2" s="89"/>
+      <c r="OX2" s="89"/>
+      <c r="OY2" s="89"/>
+      <c r="OZ2" s="89"/>
+      <c r="PA2" s="89"/>
+      <c r="PB2" s="89"/>
+      <c r="PC2" s="89"/>
+      <c r="PD2" s="89"/>
+      <c r="PE2" s="89"/>
+      <c r="PF2" s="89"/>
+      <c r="PG2" s="89"/>
+      <c r="PH2" s="89"/>
+      <c r="PI2" s="89"/>
+      <c r="PJ2" s="89"/>
+      <c r="PK2" s="89"/>
+      <c r="PL2" s="89"/>
+      <c r="PM2" s="89"/>
+      <c r="PN2" s="89"/>
+      <c r="PO2" s="89"/>
+      <c r="PP2" s="89"/>
+      <c r="PQ2" s="89"/>
+      <c r="PR2" s="89"/>
+      <c r="PS2" s="89"/>
+      <c r="PT2" s="89"/>
+      <c r="PU2" s="89"/>
+      <c r="PV2" s="89"/>
+      <c r="PW2" s="89"/>
+      <c r="PX2" s="89"/>
+      <c r="PY2" s="89"/>
+      <c r="PZ2" s="89"/>
+      <c r="QA2" s="89"/>
+      <c r="QB2" s="89"/>
+      <c r="QC2" s="89"/>
+      <c r="QD2" s="89"/>
+      <c r="QE2" s="89"/>
+      <c r="QF2" s="89"/>
+      <c r="QG2" s="89"/>
+      <c r="QH2" s="89"/>
+      <c r="QI2" s="89"/>
+      <c r="QJ2" s="89"/>
+      <c r="QK2" s="89"/>
+      <c r="QL2" s="89"/>
+      <c r="QM2" s="89"/>
+      <c r="QN2" s="89"/>
+      <c r="QO2" s="89"/>
+      <c r="QP2" s="89"/>
+      <c r="QQ2" s="89"/>
+      <c r="QR2" s="89"/>
+      <c r="QS2" s="89"/>
+      <c r="QT2" s="89"/>
+      <c r="QU2" s="89"/>
+      <c r="QV2" s="89"/>
+      <c r="QW2" s="89"/>
+      <c r="QX2" s="89"/>
+      <c r="QY2" s="89"/>
+      <c r="QZ2" s="89"/>
+      <c r="RA2" s="89"/>
+      <c r="RB2" s="89"/>
+      <c r="RC2" s="89"/>
+      <c r="RD2" s="89"/>
+      <c r="RE2" s="89"/>
+      <c r="RF2" s="89"/>
+      <c r="RG2" s="89"/>
+      <c r="RH2" s="89"/>
+      <c r="RI2" s="89"/>
+      <c r="RJ2" s="89"/>
+      <c r="RK2" s="89"/>
+      <c r="RL2" s="89"/>
+      <c r="RM2" s="89"/>
+      <c r="RN2" s="89"/>
+      <c r="RO2" s="89"/>
+      <c r="RP2" s="89"/>
+      <c r="RQ2" s="89"/>
+      <c r="RR2" s="89"/>
+      <c r="RS2" s="89"/>
+      <c r="RT2" s="89"/>
+      <c r="RU2" s="89"/>
+      <c r="RV2" s="89"/>
+      <c r="RW2" s="89"/>
+      <c r="RX2" s="89"/>
+      <c r="RY2" s="89"/>
+      <c r="RZ2" s="89"/>
+      <c r="SA2" s="89"/>
+      <c r="SB2" s="89"/>
+      <c r="SC2" s="89"/>
+      <c r="SD2" s="89"/>
+      <c r="SE2" s="89"/>
+      <c r="SF2" s="89"/>
+      <c r="SG2" s="89"/>
+      <c r="SH2" s="89"/>
+      <c r="SI2" s="89"/>
+      <c r="SJ2" s="89"/>
+      <c r="SK2" s="89"/>
+      <c r="SL2" s="89"/>
+      <c r="SM2" s="89"/>
+      <c r="SN2" s="89"/>
+      <c r="SO2" s="89"/>
+      <c r="SP2" s="89"/>
+      <c r="SQ2" s="89"/>
+      <c r="SR2" s="89"/>
+      <c r="SS2" s="89"/>
+      <c r="ST2" s="89"/>
+      <c r="SU2" s="89"/>
+      <c r="SV2" s="89"/>
+      <c r="SW2" s="89"/>
+      <c r="SX2" s="89"/>
+      <c r="SY2" s="89"/>
+      <c r="SZ2" s="89"/>
+      <c r="TA2" s="89"/>
+      <c r="TB2" s="89"/>
+      <c r="TC2" s="89"/>
+      <c r="TD2" s="89"/>
+      <c r="TE2" s="89"/>
+      <c r="TF2" s="89"/>
+      <c r="TG2" s="89"/>
+      <c r="TH2" s="89"/>
+      <c r="TI2" s="89"/>
+      <c r="TJ2" s="89"/>
+      <c r="TK2" s="89"/>
+      <c r="TL2" s="89"/>
+      <c r="TM2" s="89"/>
+      <c r="TN2" s="89"/>
+      <c r="TO2" s="89"/>
+      <c r="TP2" s="89"/>
+      <c r="TQ2" s="89"/>
+      <c r="TR2" s="89"/>
+      <c r="TS2" s="89"/>
+      <c r="TT2" s="89"/>
+      <c r="TU2" s="89"/>
+      <c r="TV2" s="89"/>
+      <c r="TW2" s="89"/>
+      <c r="TX2" s="89"/>
+      <c r="TY2" s="89"/>
+      <c r="TZ2" s="89"/>
+      <c r="UA2" s="89"/>
+      <c r="UB2" s="89"/>
+      <c r="UC2" s="89"/>
+      <c r="UD2" s="89"/>
+      <c r="UE2" s="89"/>
+      <c r="UF2" s="89"/>
+      <c r="UG2" s="89"/>
+      <c r="UH2" s="89"/>
+      <c r="UI2" s="89"/>
+      <c r="UJ2" s="89"/>
+      <c r="UK2" s="89"/>
+      <c r="UL2" s="89"/>
+      <c r="UM2" s="89"/>
+      <c r="UN2" s="89"/>
+      <c r="UO2" s="89"/>
+      <c r="UP2" s="89"/>
+      <c r="UQ2" s="89"/>
+      <c r="UR2" s="89"/>
+      <c r="US2" s="89"/>
+      <c r="UT2" s="89"/>
+      <c r="UU2" s="89"/>
+      <c r="UV2" s="89"/>
+      <c r="UW2" s="89"/>
+      <c r="UX2" s="89"/>
+      <c r="UY2" s="89"/>
+      <c r="UZ2" s="89"/>
+      <c r="VA2" s="89"/>
+      <c r="VB2" s="89"/>
+      <c r="VC2" s="89"/>
+      <c r="VD2" s="89"/>
+      <c r="VE2" s="89"/>
+      <c r="VF2" s="89"/>
+      <c r="VG2" s="89"/>
+      <c r="VH2" s="89"/>
+      <c r="VI2" s="89"/>
+      <c r="VJ2" s="89"/>
+      <c r="VK2" s="89"/>
+      <c r="VL2" s="89"/>
+      <c r="VM2" s="89"/>
+      <c r="VN2" s="89"/>
+      <c r="VO2" s="89"/>
+      <c r="VP2" s="89"/>
+      <c r="VQ2" s="89"/>
+      <c r="VR2" s="89"/>
+      <c r="VS2" s="89"/>
+      <c r="VT2" s="89"/>
+      <c r="VU2" s="89"/>
+      <c r="VV2" s="89"/>
+      <c r="VW2" s="89"/>
+      <c r="VX2" s="89"/>
+      <c r="VY2" s="89"/>
+      <c r="VZ2" s="89"/>
+      <c r="WA2" s="89"/>
+      <c r="WB2" s="89"/>
+      <c r="WC2" s="89"/>
+      <c r="WD2" s="89"/>
+      <c r="WE2" s="89"/>
+      <c r="WF2" s="89"/>
+      <c r="WG2" s="89"/>
+      <c r="WH2" s="89"/>
+      <c r="WI2" s="89"/>
+      <c r="WJ2" s="89"/>
+      <c r="WK2" s="89"/>
+      <c r="WL2" s="89"/>
+      <c r="WM2" s="89"/>
+      <c r="WN2" s="89"/>
+      <c r="WO2" s="89"/>
+      <c r="WP2" s="89"/>
+      <c r="WQ2" s="89"/>
+      <c r="WR2" s="89"/>
+      <c r="WS2" s="89"/>
+      <c r="WT2" s="89"/>
+      <c r="WU2" s="89"/>
+      <c r="WV2" s="89"/>
+      <c r="WW2" s="89"/>
+      <c r="WX2" s="89"/>
+      <c r="WY2" s="89"/>
+      <c r="WZ2" s="89"/>
+      <c r="XA2" s="89"/>
+      <c r="XB2" s="89"/>
+      <c r="XC2" s="89"/>
+      <c r="XD2" s="89"/>
+      <c r="XE2" s="89"/>
+      <c r="XF2" s="89"/>
+      <c r="XG2" s="89"/>
+      <c r="XH2" s="89"/>
+      <c r="XI2" s="89"/>
+      <c r="XJ2" s="89"/>
+      <c r="XK2" s="89"/>
+      <c r="XL2" s="89"/>
+      <c r="XM2" s="89"/>
+      <c r="XN2" s="89"/>
+      <c r="XO2" s="89"/>
+      <c r="XP2" s="89"/>
+      <c r="XQ2" s="89"/>
+      <c r="XR2" s="89"/>
+      <c r="XS2" s="89"/>
+      <c r="XT2" s="89"/>
+      <c r="XU2" s="89"/>
+      <c r="XV2" s="89"/>
+      <c r="XW2" s="89"/>
+      <c r="XX2" s="89"/>
+      <c r="XY2" s="89"/>
+      <c r="XZ2" s="89"/>
+      <c r="YA2" s="89"/>
+      <c r="YB2" s="89"/>
+      <c r="YC2" s="89"/>
+      <c r="YD2" s="89"/>
+      <c r="YE2" s="89"/>
+      <c r="YF2" s="89"/>
+      <c r="YG2" s="89"/>
+      <c r="YH2" s="89"/>
+      <c r="YI2" s="89"/>
+      <c r="YJ2" s="89"/>
+      <c r="YK2" s="89"/>
+      <c r="YL2" s="89"/>
+      <c r="YM2" s="89"/>
+      <c r="YN2" s="89"/>
+      <c r="YO2" s="89"/>
+      <c r="YP2" s="89"/>
+      <c r="YQ2" s="89"/>
+      <c r="YR2" s="89"/>
+      <c r="YS2" s="89"/>
+      <c r="YT2" s="89"/>
+      <c r="YU2" s="89"/>
+      <c r="YV2" s="89"/>
+      <c r="YW2" s="89"/>
+      <c r="YX2" s="89"/>
+      <c r="YY2" s="89"/>
+      <c r="YZ2" s="89"/>
+      <c r="ZA2" s="89"/>
+      <c r="ZB2" s="89"/>
+      <c r="ZC2" s="89"/>
+      <c r="ZD2" s="89"/>
+      <c r="ZE2" s="89"/>
+      <c r="ZF2" s="89"/>
+      <c r="ZG2" s="89"/>
+      <c r="ZH2" s="89"/>
+      <c r="ZI2" s="89"/>
+      <c r="ZJ2" s="89"/>
+      <c r="ZK2" s="89"/>
+      <c r="ZL2" s="89"/>
+      <c r="ZM2" s="89"/>
+      <c r="ZN2" s="89"/>
+      <c r="ZO2" s="89"/>
+      <c r="ZP2" s="89"/>
+      <c r="ZQ2" s="89"/>
+      <c r="ZR2" s="89"/>
+      <c r="ZS2" s="89"/>
+      <c r="ZT2" s="89"/>
+      <c r="ZU2" s="89"/>
+      <c r="ZV2" s="89"/>
+      <c r="ZW2" s="89"/>
+      <c r="ZX2" s="89"/>
+      <c r="ZY2" s="89"/>
+      <c r="ZZ2" s="89"/>
+      <c r="AAA2" s="89"/>
+      <c r="AAB2" s="89"/>
+      <c r="AAC2" s="89"/>
+      <c r="AAD2" s="89"/>
+      <c r="AAE2" s="89"/>
+      <c r="AAF2" s="89"/>
+      <c r="AAG2" s="89"/>
+      <c r="AAH2" s="89"/>
+      <c r="AAI2" s="89"/>
+      <c r="AAJ2" s="89"/>
+      <c r="AAK2" s="89"/>
+      <c r="AAL2" s="89"/>
+      <c r="AAM2" s="89"/>
+      <c r="AAN2" s="89"/>
+      <c r="AAO2" s="89"/>
+      <c r="AAP2" s="89"/>
+      <c r="AAQ2" s="89"/>
+      <c r="AAR2" s="89"/>
+      <c r="AAS2" s="89"/>
+      <c r="AAT2" s="89"/>
+      <c r="AAU2" s="89"/>
+      <c r="AAV2" s="89"/>
+      <c r="AAW2" s="89"/>
+      <c r="AAX2" s="89"/>
+      <c r="AAY2" s="89"/>
+      <c r="AAZ2" s="89"/>
+      <c r="ABA2" s="89"/>
+      <c r="ABB2" s="89"/>
+      <c r="ABC2" s="89"/>
+      <c r="ABD2" s="89"/>
+      <c r="ABE2" s="89"/>
+      <c r="ABF2" s="89"/>
+      <c r="ABG2" s="89"/>
+      <c r="ABH2" s="89"/>
+      <c r="ABI2" s="89"/>
+      <c r="ABJ2" s="89"/>
+      <c r="ABK2" s="89"/>
+      <c r="ABL2" s="89"/>
+      <c r="ABM2" s="89"/>
+      <c r="ABN2" s="89"/>
+      <c r="ABO2" s="89"/>
+      <c r="ABP2" s="89"/>
+      <c r="ABQ2" s="89"/>
+      <c r="ABR2" s="89"/>
+      <c r="ABS2" s="89"/>
+      <c r="ABT2" s="89"/>
+      <c r="ABU2" s="89"/>
+      <c r="ABV2" s="89"/>
+      <c r="ABW2" s="89"/>
+      <c r="ABX2" s="89"/>
+      <c r="ABY2" s="89"/>
+      <c r="ABZ2" s="89"/>
+      <c r="ACA2" s="89"/>
+      <c r="ACB2" s="89"/>
+      <c r="ACC2" s="89"/>
+      <c r="ACD2" s="89"/>
+      <c r="ACE2" s="89"/>
+      <c r="ACF2" s="89"/>
+      <c r="ACG2" s="89"/>
+      <c r="ACH2" s="89"/>
+      <c r="ACI2" s="89"/>
+      <c r="ACJ2" s="89"/>
+      <c r="ACK2" s="89"/>
+      <c r="ACL2" s="89"/>
+      <c r="ACM2" s="89"/>
+      <c r="ACN2" s="89"/>
+      <c r="ACO2" s="89"/>
+      <c r="ACP2" s="89"/>
+      <c r="ACQ2" s="89"/>
+      <c r="ACR2" s="89"/>
+      <c r="ACS2" s="89"/>
+      <c r="ACT2" s="89"/>
+      <c r="ACU2" s="89"/>
+      <c r="ACV2" s="89"/>
+      <c r="ACW2" s="89"/>
+      <c r="ACX2" s="89"/>
+      <c r="ACY2" s="89"/>
+      <c r="ACZ2" s="89"/>
+      <c r="ADA2" s="89"/>
+      <c r="ADB2" s="89"/>
+      <c r="ADC2" s="89"/>
+      <c r="ADD2" s="89"/>
+      <c r="ADE2" s="89"/>
+      <c r="ADF2" s="89"/>
+      <c r="ADG2" s="89"/>
+      <c r="ADH2" s="89"/>
+      <c r="ADI2" s="89"/>
+      <c r="ADJ2" s="89"/>
+      <c r="ADK2" s="89"/>
+      <c r="ADL2" s="89"/>
+      <c r="ADM2" s="89"/>
+      <c r="ADN2" s="89"/>
+      <c r="ADO2" s="89"/>
+      <c r="ADP2" s="89"/>
+      <c r="ADQ2" s="89"/>
+      <c r="ADR2" s="89"/>
+      <c r="ADS2" s="89"/>
+      <c r="ADT2" s="89"/>
+      <c r="ADU2" s="89"/>
+      <c r="ADV2" s="89"/>
+      <c r="ADW2" s="89"/>
+      <c r="ADX2" s="89"/>
+      <c r="ADY2" s="89"/>
+      <c r="ADZ2" s="89"/>
+      <c r="AEA2" s="89"/>
+      <c r="AEB2" s="89"/>
+      <c r="AEC2" s="89"/>
+      <c r="AED2" s="89"/>
+      <c r="AEE2" s="89"/>
+      <c r="AEF2" s="89"/>
+      <c r="AEG2" s="89"/>
+      <c r="AEH2" s="89"/>
+      <c r="AEI2" s="89"/>
+      <c r="AEJ2" s="89"/>
+      <c r="AEK2" s="89"/>
+      <c r="AEL2" s="89"/>
+      <c r="AEM2" s="89"/>
+      <c r="AEN2" s="89"/>
+      <c r="AEO2" s="89"/>
+      <c r="AEP2" s="89"/>
+      <c r="AEQ2" s="89"/>
+      <c r="AER2" s="89"/>
+      <c r="AES2" s="89"/>
+      <c r="AET2" s="89"/>
+      <c r="AEU2" s="89"/>
+      <c r="AEV2" s="89"/>
+      <c r="AEW2" s="89"/>
+      <c r="AEX2" s="89"/>
+      <c r="AEY2" s="89"/>
+      <c r="AEZ2" s="89"/>
+      <c r="AFA2" s="89"/>
+      <c r="AFB2" s="89"/>
+      <c r="AFC2" s="89"/>
+      <c r="AFD2" s="89"/>
+      <c r="AFE2" s="89"/>
+      <c r="AFF2" s="89"/>
+      <c r="AFG2" s="89"/>
+      <c r="AFH2" s="89"/>
+      <c r="AFI2" s="89"/>
+      <c r="AFJ2" s="89"/>
+      <c r="AFK2" s="89"/>
+      <c r="AFL2" s="89"/>
+      <c r="AFM2" s="89"/>
+      <c r="AFN2" s="89"/>
+      <c r="AFO2" s="89"/>
+      <c r="AFP2" s="89"/>
+      <c r="AFQ2" s="89"/>
+      <c r="AFR2" s="89"/>
+      <c r="AFS2" s="89"/>
+      <c r="AFT2" s="89"/>
+      <c r="AFU2" s="89"/>
+      <c r="AFV2" s="89"/>
+      <c r="AFW2" s="89"/>
+      <c r="AFX2" s="89"/>
+      <c r="AFY2" s="89"/>
+      <c r="AFZ2" s="89"/>
+      <c r="AGA2" s="89"/>
+      <c r="AGB2" s="89"/>
+      <c r="AGC2" s="89"/>
+      <c r="AGD2" s="89"/>
+      <c r="AGE2" s="89"/>
+      <c r="AGF2" s="89"/>
+      <c r="AGG2" s="89"/>
+      <c r="AGH2" s="89"/>
+      <c r="AGI2" s="89"/>
+      <c r="AGJ2" s="89"/>
+      <c r="AGK2" s="89"/>
+      <c r="AGL2" s="89"/>
+      <c r="AGM2" s="89"/>
+      <c r="AGN2" s="89"/>
+      <c r="AGO2" s="89"/>
+      <c r="AGP2" s="89"/>
+      <c r="AGQ2" s="89"/>
+      <c r="AGR2" s="89"/>
+      <c r="AGS2" s="89"/>
+      <c r="AGT2" s="89"/>
+      <c r="AGU2" s="89"/>
+      <c r="AGV2" s="89"/>
+      <c r="AGW2" s="89"/>
+      <c r="AGX2" s="89"/>
+      <c r="AGY2" s="89"/>
+      <c r="AGZ2" s="89"/>
+      <c r="AHA2" s="89"/>
+      <c r="AHB2" s="89"/>
+      <c r="AHC2" s="89"/>
+      <c r="AHD2" s="89"/>
+      <c r="AHE2" s="89"/>
+      <c r="AHF2" s="89"/>
+      <c r="AHG2" s="89"/>
+      <c r="AHH2" s="89"/>
+      <c r="AHI2" s="89"/>
+      <c r="AHJ2" s="89"/>
+      <c r="AHK2" s="89"/>
+      <c r="AHL2" s="89"/>
+      <c r="AHM2" s="89"/>
+      <c r="AHN2" s="89"/>
+      <c r="AHO2" s="89"/>
+      <c r="AHP2" s="89"/>
+      <c r="AHQ2" s="89"/>
+      <c r="AHR2" s="89"/>
+      <c r="AHS2" s="89"/>
+      <c r="AHT2" s="89"/>
+      <c r="AHU2" s="89"/>
+      <c r="AHV2" s="89"/>
+      <c r="AHW2" s="89"/>
+      <c r="AHX2" s="89"/>
+      <c r="AHY2" s="89"/>
+      <c r="AHZ2" s="89"/>
+      <c r="AIA2" s="89"/>
+      <c r="AIB2" s="89"/>
+      <c r="AIC2" s="89"/>
+      <c r="AID2" s="89"/>
+      <c r="AIE2" s="89"/>
+      <c r="AIF2" s="89"/>
+      <c r="AIG2" s="89"/>
+      <c r="AIH2" s="89"/>
+      <c r="AII2" s="89"/>
+      <c r="AIJ2" s="89"/>
+      <c r="AIK2" s="89"/>
+      <c r="AIL2" s="89"/>
+      <c r="AIM2" s="89"/>
+      <c r="AIN2" s="89"/>
+      <c r="AIO2" s="89"/>
+      <c r="AIP2" s="89"/>
+      <c r="AIQ2" s="89"/>
+      <c r="AIR2" s="89"/>
+      <c r="AIS2" s="89"/>
+      <c r="AIT2" s="89"/>
+      <c r="AIU2" s="89"/>
+      <c r="AIV2" s="89"/>
+      <c r="AIW2" s="89"/>
+      <c r="AIX2" s="89"/>
+      <c r="AIY2" s="89"/>
+      <c r="AIZ2" s="89"/>
+      <c r="AJA2" s="89"/>
+      <c r="AJB2" s="89"/>
+      <c r="AJC2" s="89"/>
+      <c r="AJD2" s="89"/>
+      <c r="AJE2" s="89"/>
+      <c r="AJF2" s="89"/>
+      <c r="AJG2" s="89"/>
+      <c r="AJH2" s="89"/>
+      <c r="AJI2" s="89"/>
+      <c r="AJJ2" s="89"/>
+      <c r="AJK2" s="89"/>
+      <c r="AJL2" s="89"/>
+      <c r="AJM2" s="89"/>
+      <c r="AJN2" s="89"/>
+      <c r="AJO2" s="89"/>
+      <c r="AJP2" s="89"/>
+      <c r="AJQ2" s="89"/>
+      <c r="AJR2" s="89"/>
+      <c r="AJS2" s="89"/>
+      <c r="AJT2" s="89"/>
+      <c r="AJU2" s="89"/>
+      <c r="AJV2" s="89"/>
+      <c r="AJW2" s="89"/>
+      <c r="AJX2" s="89"/>
+      <c r="AJY2" s="89"/>
+      <c r="AJZ2" s="89"/>
+      <c r="AKA2" s="89"/>
+      <c r="AKB2" s="89"/>
+      <c r="AKC2" s="89"/>
+      <c r="AKD2" s="89"/>
+      <c r="AKE2" s="89"/>
+      <c r="AKF2" s="89"/>
+      <c r="AKG2" s="89"/>
+      <c r="AKH2" s="89"/>
+      <c r="AKI2" s="89"/>
+      <c r="AKJ2" s="89"/>
+      <c r="AKK2" s="89"/>
+      <c r="AKL2" s="89"/>
+      <c r="AKM2" s="89"/>
+      <c r="AKN2" s="89"/>
+      <c r="AKO2" s="89"/>
+      <c r="AKP2" s="89"/>
+      <c r="AKQ2" s="89"/>
+      <c r="AKR2" s="89"/>
+      <c r="AKS2" s="89"/>
+      <c r="AKT2" s="89"/>
+      <c r="AKU2" s="89"/>
+      <c r="AKV2" s="89"/>
+      <c r="AKW2" s="89"/>
+      <c r="AKX2" s="89"/>
+      <c r="AKY2" s="89"/>
+      <c r="AKZ2" s="89"/>
+      <c r="ALA2" s="89"/>
+      <c r="ALB2" s="89"/>
+      <c r="ALC2" s="89"/>
+      <c r="ALD2" s="89"/>
+      <c r="ALE2" s="89"/>
+      <c r="ALF2" s="89"/>
+      <c r="ALG2" s="89"/>
+      <c r="ALH2" s="89"/>
+      <c r="ALI2" s="89"/>
+      <c r="ALJ2" s="89"/>
+      <c r="ALK2" s="89"/>
+      <c r="ALL2" s="89"/>
+      <c r="ALM2" s="89"/>
+      <c r="ALN2" s="89"/>
+      <c r="ALO2" s="89"/>
+      <c r="ALP2" s="89"/>
+      <c r="ALQ2" s="89"/>
+      <c r="ALR2" s="89"/>
+      <c r="ALS2" s="89"/>
+      <c r="ALT2" s="89"/>
+      <c r="ALU2" s="89"/>
+      <c r="ALV2" s="89"/>
+      <c r="ALW2" s="89"/>
+      <c r="ALX2" s="89"/>
+      <c r="ALY2" s="89"/>
+      <c r="ALZ2" s="89"/>
+      <c r="AMA2" s="89"/>
+      <c r="AMB2" s="89"/>
+      <c r="AMC2" s="89"/>
+      <c r="AMD2" s="89"/>
+      <c r="AME2" s="89"/>
+      <c r="AMF2" s="89"/>
+      <c r="AMG2" s="89"/>
+      <c r="AMH2" s="89"/>
+      <c r="AMI2" s="89"/>
+      <c r="AMJ2" s="89"/>
+      <c r="AMK2" s="89"/>
+      <c r="AML2" s="89"/>
+      <c r="AMM2" s="89"/>
+      <c r="AMN2" s="89"/>
+      <c r="AMO2" s="89"/>
+      <c r="AMP2" s="89"/>
+      <c r="AMQ2" s="89"/>
+      <c r="AMR2" s="89"/>
+      <c r="AMS2" s="89"/>
+      <c r="AMT2" s="89"/>
+      <c r="AMU2" s="89"/>
+      <c r="AMV2" s="89"/>
+      <c r="AMW2" s="89"/>
+      <c r="AMX2" s="89"/>
+      <c r="AMY2" s="89"/>
+      <c r="AMZ2" s="89"/>
+      <c r="ANA2" s="89"/>
+      <c r="ANB2" s="89"/>
+      <c r="ANC2" s="89"/>
+      <c r="AND2" s="89"/>
+      <c r="ANE2" s="89"/>
+      <c r="ANF2" s="89"/>
+      <c r="ANG2" s="89"/>
+      <c r="ANH2" s="89"/>
+      <c r="ANI2" s="89"/>
+      <c r="ANJ2" s="89"/>
+      <c r="ANK2" s="89"/>
+      <c r="ANL2" s="89"/>
+      <c r="ANM2" s="89"/>
+      <c r="ANN2" s="89"/>
+      <c r="ANO2" s="89"/>
+      <c r="ANP2" s="89"/>
+      <c r="ANQ2" s="89"/>
+      <c r="ANR2" s="89"/>
+      <c r="ANS2" s="89"/>
+      <c r="ANT2" s="89"/>
+    </row>
+    <row r="3" spans="1:1060" s="17" customFormat="1" ht="47" thickBot="1">
       <c r="A3" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="109">
-        <v>-73.479556000000002</v>
-      </c>
-      <c r="C3" s="109">
-        <v>-73.460476</v>
-      </c>
-      <c r="D3" s="109">
-        <v>-73.528665000000004</v>
-      </c>
-      <c r="E3" s="109">
-        <v>-75.125760999999997</v>
-      </c>
-      <c r="F3" s="109">
-        <v>-73.471526999999995</v>
-      </c>
-      <c r="G3" s="109">
-        <v>-73.386336</v>
-      </c>
-      <c r="H3" s="110">
-        <v>-76.231430000000003</v>
-      </c>
-      <c r="I3" s="116">
-        <v>-76.705665999999994</v>
-      </c>
-      <c r="J3" s="116">
-        <v>-76.448958000000005</v>
-      </c>
-      <c r="K3" s="116">
-        <v>-76.655754999999999</v>
-      </c>
-      <c r="L3" s="116">
-        <v>-76.606527</v>
-      </c>
-      <c r="M3" s="113">
-        <v>-73.591066999999995</v>
-      </c>
-      <c r="N3" s="109">
-        <v>-73.573849999999993</v>
-      </c>
-      <c r="O3" s="107">
-        <v>-73.553200000000004</v>
-      </c>
-      <c r="P3" s="117">
-        <v>-74.315068999999994</v>
-      </c>
-      <c r="Q3" s="113">
-        <v>-74.673202000000003</v>
-      </c>
-      <c r="R3" s="112">
-        <v>-75.581125999999998</v>
-      </c>
-      <c r="S3" s="118">
-        <v>-75.590702800000003</v>
-      </c>
-      <c r="T3" s="113">
+      <c r="B3" s="138">
+        <v>-75.125815990000007</v>
+      </c>
+      <c r="C3" s="138">
+        <v>-73.60575</v>
+      </c>
+      <c r="D3" s="138">
+        <v>-76.143360529999995</v>
+      </c>
+      <c r="E3" s="138">
+        <v>-75.483342160000007</v>
+      </c>
+      <c r="F3" s="138">
+        <v>-75.860035749999994</v>
+      </c>
+      <c r="G3" s="138">
+        <v>-75.711890030000006</v>
+      </c>
+      <c r="H3" s="137">
+        <v>-76.022398999999993</v>
+      </c>
+      <c r="I3" s="139">
+        <v>-76.442999999999998</v>
+      </c>
+      <c r="J3" s="139">
+        <v>-76.564999999999998</v>
+      </c>
+      <c r="K3" s="139">
+        <v>-76.658000000000001</v>
+      </c>
+      <c r="L3" s="139">
+        <v>-76.703999999999994</v>
+      </c>
+      <c r="M3" s="139">
+        <v>-76.619</v>
+      </c>
+      <c r="N3" s="137">
+        <v>-75.473722219999999</v>
+      </c>
+      <c r="O3" s="137">
+        <v>-78.289827000000002</v>
+      </c>
+      <c r="P3" s="136" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q3" s="140">
+        <v>-74.044425000000004</v>
+      </c>
+      <c r="R3" s="137">
+        <v>-75.328761110000002</v>
+      </c>
+      <c r="S3" s="138">
+        <v>-75.441047999999995</v>
+      </c>
+      <c r="T3" s="138">
+        <v>-75.344361000000006</v>
+      </c>
+      <c r="U3" s="138">
+        <v>-75.147481999999997</v>
+      </c>
+      <c r="V3" s="138">
+        <v>-74.663897000000006</v>
+      </c>
+      <c r="W3" s="137">
+        <v>-75.025734999999997</v>
+      </c>
+      <c r="X3" s="137">
+        <v>-74.851298999999997</v>
+      </c>
+      <c r="Y3" s="138">
+        <v>-73.936136719999993</v>
+      </c>
+      <c r="Z3" s="138">
+        <v>-73.856795969999993</v>
+      </c>
+      <c r="AA3" s="139">
+        <v>-75.590703000000005</v>
+      </c>
+      <c r="AB3" s="139">
         <v>-75.037334999999999</v>
       </c>
-      <c r="U3" s="118">
+      <c r="AC3" s="139">
+        <v>-74.665575000000004</v>
+      </c>
+      <c r="AD3" s="139">
+        <v>-74.312319000000002</v>
+      </c>
+      <c r="AE3" s="139">
         <v>-74.028084000000007</v>
       </c>
-      <c r="V3" s="117">
-        <v>-74.763296999999994</v>
-      </c>
-      <c r="W3" s="112">
-        <v>-76.089674000000002</v>
-      </c>
-      <c r="X3" s="112">
-        <v>-76.143119999999996</v>
-      </c>
-      <c r="Y3" s="109">
-        <v>-76.020097000000007</v>
-      </c>
-      <c r="Z3" s="109">
-        <v>-75.518137999999993</v>
-      </c>
-      <c r="AA3" s="109">
-        <v>-75.859260000000006</v>
-      </c>
-      <c r="AB3" s="109">
-        <v>-75.393754999999999</v>
-      </c>
-      <c r="AC3" s="109">
-        <v>-75.760801999999998</v>
-      </c>
-      <c r="AD3" s="109">
-        <v>-75.483789999999999</v>
-      </c>
-      <c r="AE3" s="121">
-        <v>-75.472046000000006</v>
-      </c>
-      <c r="AF3" s="122">
-        <v>-74.071825000000004</v>
-      </c>
-      <c r="AG3" s="122">
-        <v>-74.071939</v>
-      </c>
-      <c r="AH3" s="113">
-        <v>-75.649856</v>
-      </c>
-      <c r="AI3" s="113">
-        <v>-75.614783000000003</v>
-      </c>
-      <c r="AJ3" s="123">
-        <v>-75.496190999999996</v>
-      </c>
-      <c r="AK3" s="123">
-        <v>-75.268822</v>
-      </c>
-      <c r="AL3" s="123">
-        <v>-75.148201</v>
-      </c>
-      <c r="AM3" s="110">
-        <v>-75.352309000000005</v>
-      </c>
-      <c r="AN3" s="109">
-        <v>-75.185033000000004</v>
-      </c>
-      <c r="AO3" s="123">
-        <v>-74.731412000000006</v>
-      </c>
-      <c r="AP3" s="109">
-        <v>-74.658473999999998</v>
-      </c>
-      <c r="AQ3" s="109">
-        <v>-74.95111</v>
-      </c>
-      <c r="AR3" s="123">
-        <v>-74.468925999999996</v>
-      </c>
-      <c r="AS3" s="123">
-        <v>-74.341654000000005</v>
-      </c>
-      <c r="AT3" s="123">
-        <v>-74.064058000000003</v>
-      </c>
-      <c r="AU3" s="112">
-        <v>-76.660881000000003</v>
-      </c>
-      <c r="AV3" s="124">
-        <v>-76.126215999999999</v>
-      </c>
-      <c r="AW3" s="112">
-        <v>-75.062399999999997</v>
-      </c>
-      <c r="AX3" s="124">
-        <v>-74.857950000000002</v>
-      </c>
-      <c r="AY3" s="116">
-        <v>-77.265134000000003</v>
-      </c>
-      <c r="AZ3" s="116">
-        <v>-77.974228999999994</v>
-      </c>
-      <c r="BA3" s="109">
-        <v>-78.528716000000003</v>
-      </c>
-      <c r="BB3" s="114">
-        <v>-78.290711000000002</v>
-      </c>
-      <c r="BC3" s="109">
-        <v>-73.664501000000001</v>
-      </c>
-      <c r="BD3" s="126">
-        <v>-73.664400999999998</v>
-      </c>
-      <c r="BE3" s="109">
-        <v>-76.171456000000006</v>
-      </c>
-      <c r="BF3" s="110">
-        <v>-72.690575999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" s="17" customFormat="1" ht="17">
-      <c r="A4" s="107" t="s">
+      <c r="AF3" s="139">
+        <v>-75.709547999999998</v>
+      </c>
+      <c r="AG3" s="139">
+        <v>-74.946100999999999</v>
+      </c>
+      <c r="AH3" s="137">
+        <v>-76.652835999999994</v>
+      </c>
+      <c r="AI3" s="138">
+        <v>-73.368752000000001</v>
+      </c>
+      <c r="AJ3" s="138">
+        <v>-74.096733999999998</v>
+      </c>
+      <c r="AK3" s="138">
+        <v>-73.606997000000007</v>
+      </c>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="89"/>
+      <c r="AO3" s="89"/>
+      <c r="AP3" s="89"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="89"/>
+      <c r="AX3" s="89"/>
+      <c r="AY3" s="89"/>
+      <c r="AZ3" s="89"/>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="89"/>
+      <c r="BC3" s="89"/>
+      <c r="BD3" s="89"/>
+      <c r="BE3" s="89"/>
+      <c r="BF3" s="89"/>
+      <c r="BG3" s="89"/>
+      <c r="BH3" s="89"/>
+      <c r="BI3" s="89"/>
+      <c r="BJ3" s="89"/>
+      <c r="BK3" s="89"/>
+      <c r="BL3" s="89"/>
+      <c r="BM3" s="89"/>
+      <c r="BN3" s="89"/>
+      <c r="BO3" s="89"/>
+      <c r="BP3" s="89"/>
+      <c r="BQ3" s="89"/>
+      <c r="BR3" s="89"/>
+      <c r="BS3" s="89"/>
+      <c r="BT3" s="89"/>
+      <c r="BU3" s="89"/>
+      <c r="BV3" s="89"/>
+      <c r="BW3" s="89"/>
+      <c r="BX3" s="89"/>
+      <c r="BY3" s="89"/>
+      <c r="BZ3" s="89"/>
+      <c r="CA3" s="89"/>
+      <c r="CB3" s="89"/>
+      <c r="CC3" s="89"/>
+      <c r="CD3" s="89"/>
+      <c r="CE3" s="89"/>
+      <c r="CF3" s="89"/>
+      <c r="CG3" s="89"/>
+      <c r="CH3" s="89"/>
+      <c r="CI3" s="89"/>
+      <c r="CJ3" s="89"/>
+      <c r="CK3" s="89"/>
+      <c r="CL3" s="89"/>
+      <c r="CM3" s="89"/>
+      <c r="CN3" s="89"/>
+      <c r="CO3" s="89"/>
+      <c r="CP3" s="89"/>
+      <c r="CQ3" s="89"/>
+      <c r="CR3" s="89"/>
+      <c r="CS3" s="89"/>
+      <c r="CT3" s="89"/>
+      <c r="CU3" s="89"/>
+      <c r="CV3" s="89"/>
+      <c r="CW3" s="89"/>
+      <c r="CX3" s="89"/>
+      <c r="CY3" s="89"/>
+      <c r="CZ3" s="89"/>
+      <c r="DA3" s="89"/>
+      <c r="DB3" s="89"/>
+      <c r="DC3" s="89"/>
+      <c r="DD3" s="89"/>
+      <c r="DE3" s="89"/>
+      <c r="DF3" s="89"/>
+      <c r="DG3" s="89"/>
+      <c r="DH3" s="89"/>
+      <c r="DI3" s="89"/>
+      <c r="DJ3" s="89"/>
+      <c r="DK3" s="89"/>
+      <c r="DL3" s="89"/>
+      <c r="DM3" s="89"/>
+      <c r="DN3" s="89"/>
+      <c r="DO3" s="89"/>
+      <c r="DP3" s="89"/>
+      <c r="DQ3" s="89"/>
+      <c r="DR3" s="89"/>
+      <c r="DS3" s="89"/>
+      <c r="DT3" s="89"/>
+      <c r="DU3" s="89"/>
+      <c r="DV3" s="89"/>
+      <c r="DW3" s="89"/>
+      <c r="DX3" s="89"/>
+      <c r="DY3" s="89"/>
+      <c r="DZ3" s="89"/>
+      <c r="EA3" s="89"/>
+      <c r="EB3" s="89"/>
+      <c r="EC3" s="89"/>
+      <c r="ED3" s="89"/>
+      <c r="EE3" s="89"/>
+      <c r="EF3" s="89"/>
+      <c r="EG3" s="89"/>
+      <c r="EH3" s="89"/>
+      <c r="EI3" s="89"/>
+      <c r="EJ3" s="89"/>
+      <c r="EK3" s="89"/>
+      <c r="EL3" s="89"/>
+      <c r="EM3" s="89"/>
+      <c r="EN3" s="89"/>
+      <c r="EO3" s="89"/>
+      <c r="EP3" s="89"/>
+      <c r="EQ3" s="89"/>
+      <c r="ER3" s="89"/>
+      <c r="ES3" s="89"/>
+      <c r="ET3" s="89"/>
+      <c r="EU3" s="89"/>
+      <c r="EV3" s="89"/>
+      <c r="EW3" s="89"/>
+      <c r="EX3" s="89"/>
+      <c r="EY3" s="89"/>
+      <c r="EZ3" s="89"/>
+      <c r="FA3" s="89"/>
+      <c r="FB3" s="89"/>
+      <c r="FC3" s="89"/>
+      <c r="FD3" s="89"/>
+      <c r="FE3" s="89"/>
+      <c r="FF3" s="89"/>
+      <c r="FG3" s="89"/>
+      <c r="FH3" s="89"/>
+      <c r="FI3" s="89"/>
+      <c r="FJ3" s="89"/>
+      <c r="FK3" s="89"/>
+      <c r="FL3" s="89"/>
+      <c r="FM3" s="89"/>
+      <c r="FN3" s="89"/>
+      <c r="FO3" s="89"/>
+      <c r="FP3" s="89"/>
+      <c r="FQ3" s="89"/>
+      <c r="FR3" s="89"/>
+      <c r="FS3" s="89"/>
+      <c r="FT3" s="89"/>
+      <c r="FU3" s="89"/>
+      <c r="FV3" s="89"/>
+      <c r="FW3" s="89"/>
+      <c r="FX3" s="89"/>
+      <c r="FY3" s="89"/>
+      <c r="FZ3" s="89"/>
+      <c r="GA3" s="89"/>
+      <c r="GB3" s="89"/>
+      <c r="GC3" s="89"/>
+      <c r="GD3" s="89"/>
+      <c r="GE3" s="89"/>
+      <c r="GF3" s="89"/>
+      <c r="GG3" s="89"/>
+      <c r="GH3" s="89"/>
+      <c r="GI3" s="89"/>
+      <c r="GJ3" s="89"/>
+      <c r="GK3" s="89"/>
+      <c r="GL3" s="89"/>
+      <c r="GM3" s="89"/>
+      <c r="GN3" s="89"/>
+      <c r="GO3" s="89"/>
+      <c r="GP3" s="89"/>
+      <c r="GQ3" s="89"/>
+      <c r="GR3" s="89"/>
+      <c r="GS3" s="89"/>
+      <c r="GT3" s="89"/>
+      <c r="GU3" s="89"/>
+      <c r="GV3" s="89"/>
+      <c r="GW3" s="89"/>
+      <c r="GX3" s="89"/>
+      <c r="GY3" s="89"/>
+      <c r="GZ3" s="89"/>
+      <c r="HA3" s="89"/>
+      <c r="HB3" s="89"/>
+      <c r="HC3" s="89"/>
+      <c r="HD3" s="89"/>
+      <c r="HE3" s="89"/>
+      <c r="HF3" s="89"/>
+      <c r="HG3" s="89"/>
+      <c r="HH3" s="89"/>
+      <c r="HI3" s="89"/>
+      <c r="HJ3" s="89"/>
+      <c r="HK3" s="89"/>
+      <c r="HL3" s="89"/>
+      <c r="HM3" s="89"/>
+      <c r="HN3" s="89"/>
+      <c r="HO3" s="89"/>
+      <c r="HP3" s="89"/>
+      <c r="HQ3" s="89"/>
+      <c r="HR3" s="89"/>
+      <c r="HS3" s="89"/>
+      <c r="HT3" s="89"/>
+      <c r="HU3" s="89"/>
+      <c r="HV3" s="89"/>
+      <c r="HW3" s="89"/>
+      <c r="HX3" s="89"/>
+      <c r="HY3" s="89"/>
+      <c r="HZ3" s="89"/>
+      <c r="IA3" s="89"/>
+      <c r="IB3" s="89"/>
+      <c r="IC3" s="89"/>
+      <c r="ID3" s="89"/>
+      <c r="IE3" s="89"/>
+      <c r="IF3" s="89"/>
+      <c r="IG3" s="89"/>
+      <c r="IH3" s="89"/>
+      <c r="II3" s="89"/>
+      <c r="IJ3" s="89"/>
+      <c r="IK3" s="89"/>
+      <c r="IL3" s="89"/>
+      <c r="IM3" s="89"/>
+      <c r="IN3" s="89"/>
+      <c r="IO3" s="89"/>
+      <c r="IP3" s="89"/>
+      <c r="IQ3" s="89"/>
+      <c r="IR3" s="89"/>
+      <c r="IS3" s="89"/>
+      <c r="IT3" s="89"/>
+      <c r="IU3" s="89"/>
+      <c r="IV3" s="89"/>
+      <c r="IW3" s="89"/>
+      <c r="IX3" s="89"/>
+      <c r="IY3" s="89"/>
+      <c r="IZ3" s="89"/>
+      <c r="JA3" s="89"/>
+      <c r="JB3" s="89"/>
+      <c r="JC3" s="89"/>
+      <c r="JD3" s="89"/>
+      <c r="JE3" s="89"/>
+      <c r="JF3" s="89"/>
+      <c r="JG3" s="89"/>
+      <c r="JH3" s="89"/>
+      <c r="JI3" s="89"/>
+      <c r="JJ3" s="89"/>
+      <c r="JK3" s="89"/>
+      <c r="JL3" s="89"/>
+      <c r="JM3" s="89"/>
+      <c r="JN3" s="89"/>
+      <c r="JO3" s="89"/>
+      <c r="JP3" s="89"/>
+      <c r="JQ3" s="89"/>
+      <c r="JR3" s="89"/>
+      <c r="JS3" s="89"/>
+      <c r="JT3" s="89"/>
+      <c r="JU3" s="89"/>
+      <c r="JV3" s="89"/>
+      <c r="JW3" s="89"/>
+      <c r="JX3" s="89"/>
+      <c r="JY3" s="89"/>
+      <c r="JZ3" s="89"/>
+      <c r="KA3" s="89"/>
+      <c r="KB3" s="89"/>
+      <c r="KC3" s="89"/>
+      <c r="KD3" s="89"/>
+      <c r="KE3" s="89"/>
+      <c r="KF3" s="89"/>
+      <c r="KG3" s="89"/>
+      <c r="KH3" s="89"/>
+      <c r="KI3" s="89"/>
+      <c r="KJ3" s="89"/>
+      <c r="KK3" s="89"/>
+      <c r="KL3" s="89"/>
+      <c r="KM3" s="89"/>
+      <c r="KN3" s="89"/>
+      <c r="KO3" s="89"/>
+      <c r="KP3" s="89"/>
+      <c r="KQ3" s="89"/>
+      <c r="KR3" s="89"/>
+      <c r="KS3" s="89"/>
+      <c r="KT3" s="89"/>
+      <c r="KU3" s="89"/>
+      <c r="KV3" s="89"/>
+      <c r="KW3" s="89"/>
+      <c r="KX3" s="89"/>
+      <c r="KY3" s="89"/>
+      <c r="KZ3" s="89"/>
+      <c r="LA3" s="89"/>
+      <c r="LB3" s="89"/>
+      <c r="LC3" s="89"/>
+      <c r="LD3" s="89"/>
+      <c r="LE3" s="89"/>
+      <c r="LF3" s="89"/>
+      <c r="LG3" s="89"/>
+      <c r="LH3" s="89"/>
+      <c r="LI3" s="89"/>
+      <c r="LJ3" s="89"/>
+      <c r="LK3" s="89"/>
+      <c r="LL3" s="89"/>
+      <c r="LM3" s="89"/>
+      <c r="LN3" s="89"/>
+      <c r="LO3" s="89"/>
+      <c r="LP3" s="89"/>
+      <c r="LQ3" s="89"/>
+      <c r="LR3" s="89"/>
+      <c r="LS3" s="89"/>
+      <c r="LT3" s="89"/>
+      <c r="LU3" s="89"/>
+      <c r="LV3" s="89"/>
+      <c r="LW3" s="89"/>
+      <c r="LX3" s="89"/>
+      <c r="LY3" s="89"/>
+      <c r="LZ3" s="89"/>
+      <c r="MA3" s="89"/>
+      <c r="MB3" s="89"/>
+      <c r="MC3" s="89"/>
+      <c r="MD3" s="89"/>
+      <c r="ME3" s="89"/>
+      <c r="MF3" s="89"/>
+      <c r="MG3" s="89"/>
+      <c r="MH3" s="89"/>
+      <c r="MI3" s="89"/>
+      <c r="MJ3" s="89"/>
+      <c r="MK3" s="89"/>
+      <c r="ML3" s="89"/>
+      <c r="MM3" s="89"/>
+      <c r="MN3" s="89"/>
+      <c r="MO3" s="89"/>
+      <c r="MP3" s="89"/>
+      <c r="MQ3" s="89"/>
+      <c r="MR3" s="89"/>
+      <c r="MS3" s="89"/>
+      <c r="MT3" s="89"/>
+      <c r="MU3" s="89"/>
+      <c r="MV3" s="89"/>
+      <c r="MW3" s="89"/>
+      <c r="MX3" s="89"/>
+      <c r="MY3" s="89"/>
+      <c r="MZ3" s="89"/>
+      <c r="NA3" s="89"/>
+      <c r="NB3" s="89"/>
+      <c r="NC3" s="89"/>
+      <c r="ND3" s="89"/>
+      <c r="NE3" s="89"/>
+      <c r="NF3" s="89"/>
+      <c r="NG3" s="89"/>
+      <c r="NH3" s="89"/>
+      <c r="NI3" s="89"/>
+      <c r="NJ3" s="89"/>
+      <c r="NK3" s="89"/>
+      <c r="NL3" s="89"/>
+      <c r="NM3" s="89"/>
+      <c r="NN3" s="89"/>
+      <c r="NO3" s="89"/>
+      <c r="NP3" s="89"/>
+      <c r="NQ3" s="89"/>
+      <c r="NR3" s="89"/>
+      <c r="NS3" s="89"/>
+      <c r="NT3" s="89"/>
+      <c r="NU3" s="89"/>
+      <c r="NV3" s="89"/>
+      <c r="NW3" s="89"/>
+      <c r="NX3" s="89"/>
+      <c r="NY3" s="89"/>
+      <c r="NZ3" s="89"/>
+      <c r="OA3" s="89"/>
+      <c r="OB3" s="89"/>
+      <c r="OC3" s="89"/>
+      <c r="OD3" s="89"/>
+      <c r="OE3" s="89"/>
+      <c r="OF3" s="89"/>
+      <c r="OG3" s="89"/>
+      <c r="OH3" s="89"/>
+      <c r="OI3" s="89"/>
+      <c r="OJ3" s="89"/>
+      <c r="OK3" s="89"/>
+      <c r="OL3" s="89"/>
+      <c r="OM3" s="89"/>
+      <c r="ON3" s="89"/>
+      <c r="OO3" s="89"/>
+      <c r="OP3" s="89"/>
+      <c r="OQ3" s="89"/>
+      <c r="OR3" s="89"/>
+      <c r="OS3" s="89"/>
+      <c r="OT3" s="89"/>
+      <c r="OU3" s="89"/>
+      <c r="OV3" s="89"/>
+      <c r="OW3" s="89"/>
+      <c r="OX3" s="89"/>
+      <c r="OY3" s="89"/>
+      <c r="OZ3" s="89"/>
+      <c r="PA3" s="89"/>
+      <c r="PB3" s="89"/>
+      <c r="PC3" s="89"/>
+      <c r="PD3" s="89"/>
+      <c r="PE3" s="89"/>
+      <c r="PF3" s="89"/>
+      <c r="PG3" s="89"/>
+      <c r="PH3" s="89"/>
+      <c r="PI3" s="89"/>
+      <c r="PJ3" s="89"/>
+      <c r="PK3" s="89"/>
+      <c r="PL3" s="89"/>
+      <c r="PM3" s="89"/>
+      <c r="PN3" s="89"/>
+      <c r="PO3" s="89"/>
+      <c r="PP3" s="89"/>
+      <c r="PQ3" s="89"/>
+      <c r="PR3" s="89"/>
+      <c r="PS3" s="89"/>
+      <c r="PT3" s="89"/>
+      <c r="PU3" s="89"/>
+      <c r="PV3" s="89"/>
+      <c r="PW3" s="89"/>
+      <c r="PX3" s="89"/>
+      <c r="PY3" s="89"/>
+      <c r="PZ3" s="89"/>
+      <c r="QA3" s="89"/>
+      <c r="QB3" s="89"/>
+      <c r="QC3" s="89"/>
+      <c r="QD3" s="89"/>
+      <c r="QE3" s="89"/>
+      <c r="QF3" s="89"/>
+      <c r="QG3" s="89"/>
+      <c r="QH3" s="89"/>
+      <c r="QI3" s="89"/>
+      <c r="QJ3" s="89"/>
+      <c r="QK3" s="89"/>
+      <c r="QL3" s="89"/>
+      <c r="QM3" s="89"/>
+      <c r="QN3" s="89"/>
+      <c r="QO3" s="89"/>
+      <c r="QP3" s="89"/>
+      <c r="QQ3" s="89"/>
+      <c r="QR3" s="89"/>
+      <c r="QS3" s="89"/>
+      <c r="QT3" s="89"/>
+      <c r="QU3" s="89"/>
+      <c r="QV3" s="89"/>
+      <c r="QW3" s="89"/>
+      <c r="QX3" s="89"/>
+      <c r="QY3" s="89"/>
+      <c r="QZ3" s="89"/>
+      <c r="RA3" s="89"/>
+      <c r="RB3" s="89"/>
+      <c r="RC3" s="89"/>
+      <c r="RD3" s="89"/>
+      <c r="RE3" s="89"/>
+      <c r="RF3" s="89"/>
+      <c r="RG3" s="89"/>
+      <c r="RH3" s="89"/>
+      <c r="RI3" s="89"/>
+      <c r="RJ3" s="89"/>
+      <c r="RK3" s="89"/>
+      <c r="RL3" s="89"/>
+      <c r="RM3" s="89"/>
+      <c r="RN3" s="89"/>
+      <c r="RO3" s="89"/>
+      <c r="RP3" s="89"/>
+      <c r="RQ3" s="89"/>
+      <c r="RR3" s="89"/>
+      <c r="RS3" s="89"/>
+      <c r="RT3" s="89"/>
+      <c r="RU3" s="89"/>
+      <c r="RV3" s="89"/>
+      <c r="RW3" s="89"/>
+      <c r="RX3" s="89"/>
+      <c r="RY3" s="89"/>
+      <c r="RZ3" s="89"/>
+      <c r="SA3" s="89"/>
+      <c r="SB3" s="89"/>
+      <c r="SC3" s="89"/>
+      <c r="SD3" s="89"/>
+      <c r="SE3" s="89"/>
+      <c r="SF3" s="89"/>
+      <c r="SG3" s="89"/>
+      <c r="SH3" s="89"/>
+      <c r="SI3" s="89"/>
+      <c r="SJ3" s="89"/>
+      <c r="SK3" s="89"/>
+      <c r="SL3" s="89"/>
+      <c r="SM3" s="89"/>
+      <c r="SN3" s="89"/>
+      <c r="SO3" s="89"/>
+      <c r="SP3" s="89"/>
+      <c r="SQ3" s="89"/>
+      <c r="SR3" s="89"/>
+      <c r="SS3" s="89"/>
+      <c r="ST3" s="89"/>
+      <c r="SU3" s="89"/>
+      <c r="SV3" s="89"/>
+      <c r="SW3" s="89"/>
+      <c r="SX3" s="89"/>
+      <c r="SY3" s="89"/>
+      <c r="SZ3" s="89"/>
+      <c r="TA3" s="89"/>
+      <c r="TB3" s="89"/>
+      <c r="TC3" s="89"/>
+      <c r="TD3" s="89"/>
+      <c r="TE3" s="89"/>
+      <c r="TF3" s="89"/>
+      <c r="TG3" s="89"/>
+      <c r="TH3" s="89"/>
+      <c r="TI3" s="89"/>
+      <c r="TJ3" s="89"/>
+      <c r="TK3" s="89"/>
+      <c r="TL3" s="89"/>
+      <c r="TM3" s="89"/>
+      <c r="TN3" s="89"/>
+      <c r="TO3" s="89"/>
+      <c r="TP3" s="89"/>
+      <c r="TQ3" s="89"/>
+      <c r="TR3" s="89"/>
+      <c r="TS3" s="89"/>
+      <c r="TT3" s="89"/>
+      <c r="TU3" s="89"/>
+      <c r="TV3" s="89"/>
+      <c r="TW3" s="89"/>
+      <c r="TX3" s="89"/>
+      <c r="TY3" s="89"/>
+      <c r="TZ3" s="89"/>
+      <c r="UA3" s="89"/>
+      <c r="UB3" s="89"/>
+      <c r="UC3" s="89"/>
+      <c r="UD3" s="89"/>
+      <c r="UE3" s="89"/>
+      <c r="UF3" s="89"/>
+      <c r="UG3" s="89"/>
+      <c r="UH3" s="89"/>
+      <c r="UI3" s="89"/>
+      <c r="UJ3" s="89"/>
+      <c r="UK3" s="89"/>
+      <c r="UL3" s="89"/>
+      <c r="UM3" s="89"/>
+      <c r="UN3" s="89"/>
+      <c r="UO3" s="89"/>
+      <c r="UP3" s="89"/>
+      <c r="UQ3" s="89"/>
+      <c r="UR3" s="89"/>
+      <c r="US3" s="89"/>
+      <c r="UT3" s="89"/>
+      <c r="UU3" s="89"/>
+      <c r="UV3" s="89"/>
+      <c r="UW3" s="89"/>
+      <c r="UX3" s="89"/>
+      <c r="UY3" s="89"/>
+      <c r="UZ3" s="89"/>
+      <c r="VA3" s="89"/>
+      <c r="VB3" s="89"/>
+      <c r="VC3" s="89"/>
+      <c r="VD3" s="89"/>
+      <c r="VE3" s="89"/>
+      <c r="VF3" s="89"/>
+      <c r="VG3" s="89"/>
+      <c r="VH3" s="89"/>
+      <c r="VI3" s="89"/>
+      <c r="VJ3" s="89"/>
+      <c r="VK3" s="89"/>
+      <c r="VL3" s="89"/>
+      <c r="VM3" s="89"/>
+      <c r="VN3" s="89"/>
+      <c r="VO3" s="89"/>
+      <c r="VP3" s="89"/>
+      <c r="VQ3" s="89"/>
+      <c r="VR3" s="89"/>
+      <c r="VS3" s="89"/>
+      <c r="VT3" s="89"/>
+      <c r="VU3" s="89"/>
+      <c r="VV3" s="89"/>
+      <c r="VW3" s="89"/>
+      <c r="VX3" s="89"/>
+      <c r="VY3" s="89"/>
+      <c r="VZ3" s="89"/>
+      <c r="WA3" s="89"/>
+      <c r="WB3" s="89"/>
+      <c r="WC3" s="89"/>
+      <c r="WD3" s="89"/>
+      <c r="WE3" s="89"/>
+      <c r="WF3" s="89"/>
+      <c r="WG3" s="89"/>
+      <c r="WH3" s="89"/>
+      <c r="WI3" s="89"/>
+      <c r="WJ3" s="89"/>
+      <c r="WK3" s="89"/>
+      <c r="WL3" s="89"/>
+      <c r="WM3" s="89"/>
+      <c r="WN3" s="89"/>
+      <c r="WO3" s="89"/>
+      <c r="WP3" s="89"/>
+      <c r="WQ3" s="89"/>
+      <c r="WR3" s="89"/>
+      <c r="WS3" s="89"/>
+      <c r="WT3" s="89"/>
+      <c r="WU3" s="89"/>
+      <c r="WV3" s="89"/>
+      <c r="WW3" s="89"/>
+      <c r="WX3" s="89"/>
+      <c r="WY3" s="89"/>
+      <c r="WZ3" s="89"/>
+      <c r="XA3" s="89"/>
+      <c r="XB3" s="89"/>
+      <c r="XC3" s="89"/>
+      <c r="XD3" s="89"/>
+      <c r="XE3" s="89"/>
+      <c r="XF3" s="89"/>
+      <c r="XG3" s="89"/>
+      <c r="XH3" s="89"/>
+      <c r="XI3" s="89"/>
+      <c r="XJ3" s="89"/>
+      <c r="XK3" s="89"/>
+      <c r="XL3" s="89"/>
+      <c r="XM3" s="89"/>
+      <c r="XN3" s="89"/>
+      <c r="XO3" s="89"/>
+      <c r="XP3" s="89"/>
+      <c r="XQ3" s="89"/>
+      <c r="XR3" s="89"/>
+      <c r="XS3" s="89"/>
+      <c r="XT3" s="89"/>
+      <c r="XU3" s="89"/>
+      <c r="XV3" s="89"/>
+      <c r="XW3" s="89"/>
+      <c r="XX3" s="89"/>
+      <c r="XY3" s="89"/>
+      <c r="XZ3" s="89"/>
+      <c r="YA3" s="89"/>
+      <c r="YB3" s="89"/>
+      <c r="YC3" s="89"/>
+      <c r="YD3" s="89"/>
+      <c r="YE3" s="89"/>
+      <c r="YF3" s="89"/>
+      <c r="YG3" s="89"/>
+      <c r="YH3" s="89"/>
+      <c r="YI3" s="89"/>
+      <c r="YJ3" s="89"/>
+      <c r="YK3" s="89"/>
+      <c r="YL3" s="89"/>
+      <c r="YM3" s="89"/>
+      <c r="YN3" s="89"/>
+      <c r="YO3" s="89"/>
+      <c r="YP3" s="89"/>
+      <c r="YQ3" s="89"/>
+      <c r="YR3" s="89"/>
+      <c r="YS3" s="89"/>
+      <c r="YT3" s="89"/>
+      <c r="YU3" s="89"/>
+      <c r="YV3" s="89"/>
+      <c r="YW3" s="89"/>
+      <c r="YX3" s="89"/>
+      <c r="YY3" s="89"/>
+      <c r="YZ3" s="89"/>
+      <c r="ZA3" s="89"/>
+      <c r="ZB3" s="89"/>
+      <c r="ZC3" s="89"/>
+      <c r="ZD3" s="89"/>
+      <c r="ZE3" s="89"/>
+      <c r="ZF3" s="89"/>
+      <c r="ZG3" s="89"/>
+      <c r="ZH3" s="89"/>
+      <c r="ZI3" s="89"/>
+      <c r="ZJ3" s="89"/>
+      <c r="ZK3" s="89"/>
+      <c r="ZL3" s="89"/>
+      <c r="ZM3" s="89"/>
+      <c r="ZN3" s="89"/>
+      <c r="ZO3" s="89"/>
+      <c r="ZP3" s="89"/>
+      <c r="ZQ3" s="89"/>
+      <c r="ZR3" s="89"/>
+      <c r="ZS3" s="89"/>
+      <c r="ZT3" s="89"/>
+      <c r="ZU3" s="89"/>
+      <c r="ZV3" s="89"/>
+      <c r="ZW3" s="89"/>
+      <c r="ZX3" s="89"/>
+      <c r="ZY3" s="89"/>
+      <c r="ZZ3" s="89"/>
+      <c r="AAA3" s="89"/>
+      <c r="AAB3" s="89"/>
+      <c r="AAC3" s="89"/>
+      <c r="AAD3" s="89"/>
+      <c r="AAE3" s="89"/>
+      <c r="AAF3" s="89"/>
+      <c r="AAG3" s="89"/>
+      <c r="AAH3" s="89"/>
+      <c r="AAI3" s="89"/>
+      <c r="AAJ3" s="89"/>
+      <c r="AAK3" s="89"/>
+      <c r="AAL3" s="89"/>
+      <c r="AAM3" s="89"/>
+      <c r="AAN3" s="89"/>
+      <c r="AAO3" s="89"/>
+      <c r="AAP3" s="89"/>
+      <c r="AAQ3" s="89"/>
+      <c r="AAR3" s="89"/>
+      <c r="AAS3" s="89"/>
+      <c r="AAT3" s="89"/>
+      <c r="AAU3" s="89"/>
+      <c r="AAV3" s="89"/>
+      <c r="AAW3" s="89"/>
+      <c r="AAX3" s="89"/>
+      <c r="AAY3" s="89"/>
+      <c r="AAZ3" s="89"/>
+      <c r="ABA3" s="89"/>
+      <c r="ABB3" s="89"/>
+      <c r="ABC3" s="89"/>
+      <c r="ABD3" s="89"/>
+      <c r="ABE3" s="89"/>
+      <c r="ABF3" s="89"/>
+      <c r="ABG3" s="89"/>
+      <c r="ABH3" s="89"/>
+      <c r="ABI3" s="89"/>
+      <c r="ABJ3" s="89"/>
+      <c r="ABK3" s="89"/>
+      <c r="ABL3" s="89"/>
+      <c r="ABM3" s="89"/>
+      <c r="ABN3" s="89"/>
+      <c r="ABO3" s="89"/>
+      <c r="ABP3" s="89"/>
+      <c r="ABQ3" s="89"/>
+      <c r="ABR3" s="89"/>
+      <c r="ABS3" s="89"/>
+      <c r="ABT3" s="89"/>
+      <c r="ABU3" s="89"/>
+      <c r="ABV3" s="89"/>
+      <c r="ABW3" s="89"/>
+      <c r="ABX3" s="89"/>
+      <c r="ABY3" s="89"/>
+      <c r="ABZ3" s="89"/>
+      <c r="ACA3" s="89"/>
+      <c r="ACB3" s="89"/>
+      <c r="ACC3" s="89"/>
+      <c r="ACD3" s="89"/>
+      <c r="ACE3" s="89"/>
+      <c r="ACF3" s="89"/>
+      <c r="ACG3" s="89"/>
+      <c r="ACH3" s="89"/>
+      <c r="ACI3" s="89"/>
+      <c r="ACJ3" s="89"/>
+      <c r="ACK3" s="89"/>
+      <c r="ACL3" s="89"/>
+      <c r="ACM3" s="89"/>
+      <c r="ACN3" s="89"/>
+      <c r="ACO3" s="89"/>
+      <c r="ACP3" s="89"/>
+      <c r="ACQ3" s="89"/>
+      <c r="ACR3" s="89"/>
+      <c r="ACS3" s="89"/>
+      <c r="ACT3" s="89"/>
+      <c r="ACU3" s="89"/>
+      <c r="ACV3" s="89"/>
+      <c r="ACW3" s="89"/>
+      <c r="ACX3" s="89"/>
+      <c r="ACY3" s="89"/>
+      <c r="ACZ3" s="89"/>
+      <c r="ADA3" s="89"/>
+      <c r="ADB3" s="89"/>
+      <c r="ADC3" s="89"/>
+      <c r="ADD3" s="89"/>
+      <c r="ADE3" s="89"/>
+      <c r="ADF3" s="89"/>
+      <c r="ADG3" s="89"/>
+      <c r="ADH3" s="89"/>
+      <c r="ADI3" s="89"/>
+      <c r="ADJ3" s="89"/>
+      <c r="ADK3" s="89"/>
+      <c r="ADL3" s="89"/>
+      <c r="ADM3" s="89"/>
+      <c r="ADN3" s="89"/>
+      <c r="ADO3" s="89"/>
+      <c r="ADP3" s="89"/>
+      <c r="ADQ3" s="89"/>
+      <c r="ADR3" s="89"/>
+      <c r="ADS3" s="89"/>
+      <c r="ADT3" s="89"/>
+      <c r="ADU3" s="89"/>
+      <c r="ADV3" s="89"/>
+      <c r="ADW3" s="89"/>
+      <c r="ADX3" s="89"/>
+      <c r="ADY3" s="89"/>
+      <c r="ADZ3" s="89"/>
+      <c r="AEA3" s="89"/>
+      <c r="AEB3" s="89"/>
+      <c r="AEC3" s="89"/>
+      <c r="AED3" s="89"/>
+      <c r="AEE3" s="89"/>
+      <c r="AEF3" s="89"/>
+      <c r="AEG3" s="89"/>
+      <c r="AEH3" s="89"/>
+      <c r="AEI3" s="89"/>
+      <c r="AEJ3" s="89"/>
+      <c r="AEK3" s="89"/>
+      <c r="AEL3" s="89"/>
+      <c r="AEM3" s="89"/>
+      <c r="AEN3" s="89"/>
+      <c r="AEO3" s="89"/>
+      <c r="AEP3" s="89"/>
+      <c r="AEQ3" s="89"/>
+      <c r="AER3" s="89"/>
+      <c r="AES3" s="89"/>
+      <c r="AET3" s="89"/>
+      <c r="AEU3" s="89"/>
+      <c r="AEV3" s="89"/>
+      <c r="AEW3" s="89"/>
+      <c r="AEX3" s="89"/>
+      <c r="AEY3" s="89"/>
+      <c r="AEZ3" s="89"/>
+      <c r="AFA3" s="89"/>
+      <c r="AFB3" s="89"/>
+      <c r="AFC3" s="89"/>
+      <c r="AFD3" s="89"/>
+      <c r="AFE3" s="89"/>
+      <c r="AFF3" s="89"/>
+      <c r="AFG3" s="89"/>
+      <c r="AFH3" s="89"/>
+      <c r="AFI3" s="89"/>
+      <c r="AFJ3" s="89"/>
+      <c r="AFK3" s="89"/>
+      <c r="AFL3" s="89"/>
+      <c r="AFM3" s="89"/>
+      <c r="AFN3" s="89"/>
+      <c r="AFO3" s="89"/>
+      <c r="AFP3" s="89"/>
+      <c r="AFQ3" s="89"/>
+      <c r="AFR3" s="89"/>
+      <c r="AFS3" s="89"/>
+      <c r="AFT3" s="89"/>
+      <c r="AFU3" s="89"/>
+      <c r="AFV3" s="89"/>
+      <c r="AFW3" s="89"/>
+      <c r="AFX3" s="89"/>
+      <c r="AFY3" s="89"/>
+      <c r="AFZ3" s="89"/>
+      <c r="AGA3" s="89"/>
+      <c r="AGB3" s="89"/>
+      <c r="AGC3" s="89"/>
+      <c r="AGD3" s="89"/>
+      <c r="AGE3" s="89"/>
+      <c r="AGF3" s="89"/>
+      <c r="AGG3" s="89"/>
+      <c r="AGH3" s="89"/>
+      <c r="AGI3" s="89"/>
+      <c r="AGJ3" s="89"/>
+      <c r="AGK3" s="89"/>
+      <c r="AGL3" s="89"/>
+      <c r="AGM3" s="89"/>
+      <c r="AGN3" s="89"/>
+      <c r="AGO3" s="89"/>
+      <c r="AGP3" s="89"/>
+      <c r="AGQ3" s="89"/>
+      <c r="AGR3" s="89"/>
+      <c r="AGS3" s="89"/>
+      <c r="AGT3" s="89"/>
+      <c r="AGU3" s="89"/>
+      <c r="AGV3" s="89"/>
+      <c r="AGW3" s="89"/>
+      <c r="AGX3" s="89"/>
+      <c r="AGY3" s="89"/>
+      <c r="AGZ3" s="89"/>
+      <c r="AHA3" s="89"/>
+      <c r="AHB3" s="89"/>
+      <c r="AHC3" s="89"/>
+      <c r="AHD3" s="89"/>
+      <c r="AHE3" s="89"/>
+      <c r="AHF3" s="89"/>
+      <c r="AHG3" s="89"/>
+      <c r="AHH3" s="89"/>
+      <c r="AHI3" s="89"/>
+      <c r="AHJ3" s="89"/>
+      <c r="AHK3" s="89"/>
+      <c r="AHL3" s="89"/>
+      <c r="AHM3" s="89"/>
+      <c r="AHN3" s="89"/>
+      <c r="AHO3" s="89"/>
+      <c r="AHP3" s="89"/>
+      <c r="AHQ3" s="89"/>
+      <c r="AHR3" s="89"/>
+      <c r="AHS3" s="89"/>
+      <c r="AHT3" s="89"/>
+      <c r="AHU3" s="89"/>
+      <c r="AHV3" s="89"/>
+      <c r="AHW3" s="89"/>
+      <c r="AHX3" s="89"/>
+      <c r="AHY3" s="89"/>
+      <c r="AHZ3" s="89"/>
+      <c r="AIA3" s="89"/>
+      <c r="AIB3" s="89"/>
+      <c r="AIC3" s="89"/>
+      <c r="AID3" s="89"/>
+      <c r="AIE3" s="89"/>
+      <c r="AIF3" s="89"/>
+      <c r="AIG3" s="89"/>
+      <c r="AIH3" s="89"/>
+      <c r="AII3" s="89"/>
+      <c r="AIJ3" s="89"/>
+      <c r="AIK3" s="89"/>
+      <c r="AIL3" s="89"/>
+      <c r="AIM3" s="89"/>
+      <c r="AIN3" s="89"/>
+      <c r="AIO3" s="89"/>
+      <c r="AIP3" s="89"/>
+      <c r="AIQ3" s="89"/>
+      <c r="AIR3" s="89"/>
+      <c r="AIS3" s="89"/>
+      <c r="AIT3" s="89"/>
+      <c r="AIU3" s="89"/>
+      <c r="AIV3" s="89"/>
+      <c r="AIW3" s="89"/>
+      <c r="AIX3" s="89"/>
+      <c r="AIY3" s="89"/>
+      <c r="AIZ3" s="89"/>
+      <c r="AJA3" s="89"/>
+      <c r="AJB3" s="89"/>
+      <c r="AJC3" s="89"/>
+      <c r="AJD3" s="89"/>
+      <c r="AJE3" s="89"/>
+      <c r="AJF3" s="89"/>
+      <c r="AJG3" s="89"/>
+      <c r="AJH3" s="89"/>
+      <c r="AJI3" s="89"/>
+      <c r="AJJ3" s="89"/>
+      <c r="AJK3" s="89"/>
+      <c r="AJL3" s="89"/>
+      <c r="AJM3" s="89"/>
+      <c r="AJN3" s="89"/>
+      <c r="AJO3" s="89"/>
+      <c r="AJP3" s="89"/>
+      <c r="AJQ3" s="89"/>
+      <c r="AJR3" s="89"/>
+      <c r="AJS3" s="89"/>
+      <c r="AJT3" s="89"/>
+      <c r="AJU3" s="89"/>
+      <c r="AJV3" s="89"/>
+      <c r="AJW3" s="89"/>
+      <c r="AJX3" s="89"/>
+      <c r="AJY3" s="89"/>
+      <c r="AJZ3" s="89"/>
+      <c r="AKA3" s="89"/>
+      <c r="AKB3" s="89"/>
+      <c r="AKC3" s="89"/>
+      <c r="AKD3" s="89"/>
+      <c r="AKE3" s="89"/>
+      <c r="AKF3" s="89"/>
+      <c r="AKG3" s="89"/>
+      <c r="AKH3" s="89"/>
+      <c r="AKI3" s="89"/>
+      <c r="AKJ3" s="89"/>
+      <c r="AKK3" s="89"/>
+      <c r="AKL3" s="89"/>
+      <c r="AKM3" s="89"/>
+      <c r="AKN3" s="89"/>
+      <c r="AKO3" s="89"/>
+      <c r="AKP3" s="89"/>
+      <c r="AKQ3" s="89"/>
+      <c r="AKR3" s="89"/>
+      <c r="AKS3" s="89"/>
+      <c r="AKT3" s="89"/>
+      <c r="AKU3" s="89"/>
+      <c r="AKV3" s="89"/>
+      <c r="AKW3" s="89"/>
+      <c r="AKX3" s="89"/>
+      <c r="AKY3" s="89"/>
+      <c r="AKZ3" s="89"/>
+      <c r="ALA3" s="89"/>
+      <c r="ALB3" s="89"/>
+      <c r="ALC3" s="89"/>
+      <c r="ALD3" s="89"/>
+      <c r="ALE3" s="89"/>
+      <c r="ALF3" s="89"/>
+      <c r="ALG3" s="89"/>
+      <c r="ALH3" s="89"/>
+      <c r="ALI3" s="89"/>
+      <c r="ALJ3" s="89"/>
+      <c r="ALK3" s="89"/>
+      <c r="ALL3" s="89"/>
+      <c r="ALM3" s="89"/>
+      <c r="ALN3" s="89"/>
+      <c r="ALO3" s="89"/>
+      <c r="ALP3" s="89"/>
+      <c r="ALQ3" s="89"/>
+      <c r="ALR3" s="89"/>
+      <c r="ALS3" s="89"/>
+      <c r="ALT3" s="89"/>
+      <c r="ALU3" s="89"/>
+      <c r="ALV3" s="89"/>
+      <c r="ALW3" s="89"/>
+      <c r="ALX3" s="89"/>
+      <c r="ALY3" s="89"/>
+      <c r="ALZ3" s="89"/>
+      <c r="AMA3" s="89"/>
+      <c r="AMB3" s="89"/>
+      <c r="AMC3" s="89"/>
+      <c r="AMD3" s="89"/>
+      <c r="AME3" s="89"/>
+      <c r="AMF3" s="89"/>
+      <c r="AMG3" s="89"/>
+      <c r="AMH3" s="89"/>
+      <c r="AMI3" s="89"/>
+      <c r="AMJ3" s="89"/>
+      <c r="AMK3" s="89"/>
+      <c r="AML3" s="89"/>
+      <c r="AMM3" s="89"/>
+      <c r="AMN3" s="89"/>
+      <c r="AMO3" s="89"/>
+      <c r="AMP3" s="89"/>
+      <c r="AMQ3" s="89"/>
+      <c r="AMR3" s="89"/>
+      <c r="AMS3" s="89"/>
+      <c r="AMT3" s="89"/>
+      <c r="AMU3" s="89"/>
+      <c r="AMV3" s="89"/>
+      <c r="AMW3" s="89"/>
+      <c r="AMX3" s="89"/>
+      <c r="AMY3" s="89"/>
+      <c r="AMZ3" s="89"/>
+      <c r="ANA3" s="89"/>
+      <c r="ANB3" s="89"/>
+      <c r="ANC3" s="89"/>
+      <c r="AND3" s="89"/>
+      <c r="ANE3" s="89"/>
+      <c r="ANF3" s="89"/>
+      <c r="ANG3" s="89"/>
+      <c r="ANH3" s="89"/>
+      <c r="ANI3" s="89"/>
+      <c r="ANJ3" s="89"/>
+      <c r="ANK3" s="89"/>
+      <c r="ANL3" s="89"/>
+      <c r="ANM3" s="89"/>
+      <c r="ANN3" s="89"/>
+      <c r="ANO3" s="89"/>
+      <c r="ANP3" s="89"/>
+      <c r="ANQ3" s="89"/>
+      <c r="ANR3" s="89"/>
+      <c r="ANS3" s="89"/>
+      <c r="ANT3" s="89"/>
+    </row>
+    <row r="4" spans="1:1060" ht="18" thickBot="1">
+      <c r="A4" s="398" t="s">
         <v>555</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="109" t="s">
+      <c r="L4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="109" t="s">
+      <c r="M4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="109" t="s">
+      <c r="O4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="P4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="109" t="s">
+      <c r="Q4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="109" t="s">
+      <c r="R4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="109" t="s">
+      <c r="S4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="109" t="s">
+      <c r="T4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="109" t="s">
+      <c r="V4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="109" t="s">
+      <c r="W4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="109" t="s">
+      <c r="X4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="109" t="s">
+      <c r="Y4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="109" t="s">
+      <c r="Z4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" s="109" t="s">
+      <c r="AA4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="109" t="s">
+      <c r="AB4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="109" t="s">
+      <c r="AC4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="109" t="s">
+      <c r="AD4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="109" t="s">
+      <c r="AE4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="109" t="s">
+      <c r="AF4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="109" t="s">
+      <c r="AG4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="109" t="s">
+      <c r="AH4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AI4" s="109" t="s">
+      <c r="AI4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="109" t="s">
+      <c r="AJ4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="109" t="s">
+      <c r="AK4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="109" t="s">
+      <c r="AL4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" s="109" t="s">
+      <c r="AM4" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE4" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF4" s="109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" s="17" customFormat="1" ht="34">
-      <c r="A5" s="107" t="s">
+    </row>
+    <row r="5" spans="1:1060" ht="31">
+      <c r="A5" s="397" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="P5" s="109" t="s">
+      <c r="P5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="T5" s="109" t="s">
+      <c r="T5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="U5" s="109" t="s">
+      <c r="U5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="V5" s="109" t="s">
+      <c r="V5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="W5" s="109" t="s">
+      <c r="W5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="X5" s="109" t="s">
+      <c r="X5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="Y5" s="109" t="s">
+      <c r="Y5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="Z5" s="109" t="s">
+      <c r="Z5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AA5" s="109" t="s">
+      <c r="AA5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AB5" s="109" t="s">
+      <c r="AB5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AC5" s="109" t="s">
+      <c r="AC5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AD5" s="109" t="s">
+      <c r="AD5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AE5" s="109" t="s">
+      <c r="AE5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AF5" s="109" t="s">
+      <c r="AF5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AG5" s="109" t="s">
+      <c r="AG5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AH5" s="109" t="s">
+      <c r="AH5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AI5" s="109" t="s">
+      <c r="AI5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AJ5" s="109" t="s">
+      <c r="AJ5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AK5" s="109" t="s">
+      <c r="AK5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AL5" s="109" t="s">
+      <c r="AL5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AM5" s="109" t="s">
+      <c r="AM5" s="396" t="s">
         <v>554</v>
       </c>
-      <c r="AN5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AO5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AP5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AQ5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AR5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AS5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AT5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AU5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AV5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AW5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AX5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AY5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="AZ5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BA5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BB5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BC5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BD5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BE5" s="109" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF5" s="109" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" s="17" customFormat="1" ht="17">
-      <c r="A6" s="107" t="s">
+    </row>
+    <row r="6" spans="1:1060" ht="18" thickBot="1">
+      <c r="A6" s="397" t="s">
         <v>556</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="N6" s="109" t="s">
+      <c r="N6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="O6" s="109" t="s">
+      <c r="O6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="P6" s="109" t="s">
+      <c r="P6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="Q6" s="109" t="s">
+      <c r="Q6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="S6" s="109" t="s">
+      <c r="S6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="T6" s="109" t="s">
+      <c r="T6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="U6" s="109" t="s">
+      <c r="U6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="V6" s="109" t="s">
+      <c r="V6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="W6" s="109" t="s">
+      <c r="W6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="X6" s="109" t="s">
+      <c r="X6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="Y6" s="109" t="s">
+      <c r="Y6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="Z6" s="109" t="s">
+      <c r="Z6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AA6" s="109" t="s">
+      <c r="AA6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AB6" s="109" t="s">
+      <c r="AB6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AC6" s="109" t="s">
+      <c r="AC6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AD6" s="109" t="s">
+      <c r="AD6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AE6" s="109" t="s">
+      <c r="AE6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AF6" s="109" t="s">
+      <c r="AF6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AG6" s="109" t="s">
+      <c r="AG6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AH6" s="109" t="s">
+      <c r="AH6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AI6" s="109" t="s">
+      <c r="AI6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AJ6" s="109" t="s">
+      <c r="AJ6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AK6" s="109" t="s">
+      <c r="AK6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AL6" s="109" t="s">
+      <c r="AL6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AM6" s="109" t="s">
+      <c r="AM6" s="399" t="s">
         <v>553</v>
       </c>
-      <c r="AN6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AO6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AP6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AQ6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AR6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AS6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AT6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AU6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AV6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AW6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AX6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AY6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="AZ6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BA6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BB6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BC6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BD6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BE6" s="109" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF6" s="109" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A7" s="131">
-        <v>44360</v>
+    </row>
+    <row r="7" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A7" s="142">
+        <v>44731</v>
       </c>
       <c r="B7" s="114"/>
       <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="109">
-        <v>0</v>
-      </c>
-      <c r="G7" s="109">
-        <v>0</v>
-      </c>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="114"/>
-      <c r="I7" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="K7" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="L7" s="109" t="s">
-        <v>290</v>
-      </c>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
       <c r="M7" s="114"/>
       <c r="N7" s="114"/>
       <c r="O7" s="114"/>
       <c r="P7" s="114"/>
       <c r="Q7" s="114"/>
       <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
       <c r="V7" s="114"/>
       <c r="W7" s="114"/>
       <c r="X7" s="114"/>
@@ -6464,108 +9125,41 @@
       <c r="AB7" s="114"/>
       <c r="AC7" s="114"/>
       <c r="AD7" s="114"/>
-      <c r="AE7" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF7" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="109">
-        <v>0</v>
-      </c>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
       <c r="AH7" s="114"/>
       <c r="AI7" s="114"/>
       <c r="AJ7" s="114"/>
       <c r="AK7" s="114"/>
       <c r="AL7" s="114"/>
       <c r="AM7" s="114"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="114"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="109">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="109">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="114"/>
-      <c r="AZ7" s="114"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="114"/>
-      <c r="BC7" s="114"/>
-      <c r="BD7" s="132"/>
-      <c r="BE7" s="114"/>
-      <c r="BF7" s="109" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A8" s="131">
-        <v>44367</v>
+    </row>
+    <row r="8" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A8" s="142">
+        <v>44738</v>
       </c>
       <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="109">
-        <v>0</v>
-      </c>
-      <c r="F8" s="109">
-        <v>0</v>
-      </c>
-      <c r="G8" s="109">
-        <v>0</v>
-      </c>
-      <c r="H8" s="109">
-        <v>0</v>
-      </c>
-      <c r="I8" s="109">
-        <v>0</v>
-      </c>
-      <c r="J8" s="109">
-        <v>0</v>
-      </c>
-      <c r="K8" s="109">
-        <v>0</v>
-      </c>
-      <c r="L8" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="M8" s="109">
-        <v>0</v>
-      </c>
-      <c r="N8" s="109">
-        <v>0</v>
-      </c>
-      <c r="O8" s="109">
-        <v>2</v>
-      </c>
-      <c r="P8" s="109">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="109">
-        <v>1</v>
-      </c>
-      <c r="R8" s="109">
-        <v>0</v>
-      </c>
-      <c r="S8" s="109">
-        <v>0</v>
-      </c>
-      <c r="T8" s="109">
-        <v>0</v>
-      </c>
-      <c r="U8" s="109">
-        <v>0</v>
-      </c>
-      <c r="V8" s="109">
-        <v>0</v>
-      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="114"/>
       <c r="W8" s="114"/>
       <c r="X8" s="114"/>
       <c r="Y8" s="114"/>
@@ -6574,113 +9168,42 @@
       <c r="AB8" s="114"/>
       <c r="AC8" s="114"/>
       <c r="AD8" s="114"/>
-      <c r="AE8" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF8" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="109"/>
+      <c r="AI8" s="109"/>
+      <c r="AJ8" s="109"/>
+      <c r="AK8" s="109"/>
       <c r="AL8" s="114"/>
       <c r="AM8" s="114"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="109">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="109">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="109">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="109">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="109"/>
-      <c r="AZ8" s="109"/>
-      <c r="BA8" s="109"/>
-      <c r="BB8" s="114"/>
-      <c r="BC8" s="114"/>
-      <c r="BD8" s="132"/>
-      <c r="BE8" s="114"/>
-      <c r="BF8" s="109" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A9" s="131">
-        <v>44374</v>
+    </row>
+    <row r="9" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A9" s="142">
+        <v>44745</v>
       </c>
       <c r="B9" s="114"/>
       <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114">
-        <v>0</v>
-      </c>
-      <c r="F9" s="109">
-        <v>0</v>
-      </c>
-      <c r="G9" s="109">
-        <v>0</v>
-      </c>
-      <c r="H9" s="109">
-        <v>0</v>
-      </c>
-      <c r="I9" s="109">
-        <v>1</v>
-      </c>
-      <c r="J9" s="109">
-        <v>0</v>
-      </c>
-      <c r="K9" s="109">
-        <v>0</v>
-      </c>
-      <c r="L9" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="M9" s="114">
-        <v>0</v>
-      </c>
-      <c r="N9" s="114">
-        <v>0</v>
-      </c>
-      <c r="O9" s="114">
-        <v>5</v>
-      </c>
-      <c r="P9" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="114">
-        <v>0</v>
-      </c>
-      <c r="R9" s="114">
-        <v>0</v>
-      </c>
-      <c r="S9" s="114">
-        <v>0</v>
-      </c>
-      <c r="T9" s="114">
-        <v>0</v>
-      </c>
-      <c r="U9" s="114">
-        <v>0</v>
-      </c>
-      <c r="V9" s="114">
-        <v>0</v>
-      </c>
-      <c r="W9" s="114"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="109"/>
       <c r="X9" s="114"/>
       <c r="Y9" s="114"/>
       <c r="Z9" s="114"/>
@@ -6688,1372 +9211,867 @@
       <c r="AB9" s="114"/>
       <c r="AC9" s="114"/>
       <c r="AD9" s="114"/>
-      <c r="AE9" s="109">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="109">
-        <v>0</v>
-      </c>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="114"/>
       <c r="AH9" s="114"/>
       <c r="AI9" s="114"/>
-      <c r="AJ9" s="109">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="114"/>
+      <c r="AJ9" s="114"/>
+      <c r="AK9" s="144">
+        <v>1</v>
+      </c>
       <c r="AL9" s="114"/>
       <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="114"/>
-      <c r="AU9" s="114">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="114">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="109">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="109">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="114"/>
-      <c r="BC9" s="114"/>
-      <c r="BD9" s="132"/>
-      <c r="BE9" s="114">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A10" s="131">
-        <v>44381</v>
-      </c>
-      <c r="B10" s="109">
+    </row>
+    <row r="10" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A10" s="142">
+        <v>44752</v>
+      </c>
+      <c r="B10" s="144">
+        <v>0</v>
+      </c>
+      <c r="C10" s="109">
+        <v>0</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="144">
+        <v>0</v>
+      </c>
+      <c r="J10" s="144">
         <v>1</v>
       </c>
-      <c r="C10" s="109">
-        <v>0</v>
-      </c>
-      <c r="D10" s="109">
+      <c r="K10" s="144">
+        <v>1</v>
+      </c>
+      <c r="L10" s="144">
         <v>5</v>
       </c>
-      <c r="E10" s="109">
-        <v>0</v>
-      </c>
-      <c r="F10" s="109">
+      <c r="M10" s="144">
+        <v>1</v>
+      </c>
+      <c r="N10" s="144">
+        <v>0</v>
+      </c>
+      <c r="O10" s="109"/>
+      <c r="P10" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="144">
+        <v>0</v>
+      </c>
+      <c r="R10" s="144">
+        <v>0</v>
+      </c>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="144">
+        <v>0</v>
+      </c>
+      <c r="X10" s="144">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="144">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="144">
         <v>2</v>
       </c>
-      <c r="G10" s="109">
+      <c r="AK10" s="144">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="144">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="114"/>
+    </row>
+    <row r="11" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A11" s="142">
+        <v>44759</v>
+      </c>
+      <c r="B11" s="144">
+        <v>0</v>
+      </c>
+      <c r="C11" s="114">
+        <v>0</v>
+      </c>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="144">
+        <v>0</v>
+      </c>
+      <c r="J11" s="144">
+        <v>6</v>
+      </c>
+      <c r="K11" s="144">
         <v>1</v>
       </c>
-      <c r="H10" s="109">
-        <v>0</v>
-      </c>
-      <c r="I10" s="109">
-        <v>0</v>
-      </c>
-      <c r="J10" s="109">
+      <c r="L11" s="144">
+        <v>13</v>
+      </c>
+      <c r="M11" s="144">
+        <v>5</v>
+      </c>
+      <c r="N11" s="144">
+        <v>0</v>
+      </c>
+      <c r="O11" s="144">
+        <v>35</v>
+      </c>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="144">
+        <v>0</v>
+      </c>
+      <c r="S11" s="144">
+        <v>0</v>
+      </c>
+      <c r="T11" s="144">
+        <v>0</v>
+      </c>
+      <c r="U11" s="144">
+        <v>0</v>
+      </c>
+      <c r="V11" s="144">
+        <v>0</v>
+      </c>
+      <c r="W11" s="144">
+        <v>0</v>
+      </c>
+      <c r="X11" s="144">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="144">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="144">
         <v>2</v>
       </c>
-      <c r="K10" s="109">
-        <v>0</v>
-      </c>
-      <c r="L10" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="M10" s="109">
-        <v>0</v>
-      </c>
-      <c r="N10" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="O10" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="P10" s="109">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="109">
-        <v>0</v>
-      </c>
-      <c r="R10" s="109">
-        <v>0</v>
-      </c>
-      <c r="S10" s="109">
-        <v>0</v>
-      </c>
-      <c r="T10" s="109">
+      <c r="AF11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="144">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="144">
         <v>2</v>
       </c>
-      <c r="U10" s="109">
+      <c r="AK11" s="144">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="144">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="114"/>
+    </row>
+    <row r="12" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A12" s="142">
+        <v>44766</v>
+      </c>
+      <c r="B12" s="144">
+        <v>5</v>
+      </c>
+      <c r="C12" s="109">
+        <v>20</v>
+      </c>
+      <c r="D12" s="144">
+        <v>19</v>
+      </c>
+      <c r="E12" s="144">
+        <v>6</v>
+      </c>
+      <c r="F12" s="144">
+        <v>15</v>
+      </c>
+      <c r="G12" s="144">
+        <v>23</v>
+      </c>
+      <c r="H12" s="144">
+        <v>0</v>
+      </c>
+      <c r="I12" s="144">
+        <v>9</v>
+      </c>
+      <c r="J12" s="144">
+        <v>30</v>
+      </c>
+      <c r="K12" s="144">
+        <v>5</v>
+      </c>
+      <c r="L12" s="144">
+        <v>53</v>
+      </c>
+      <c r="M12" s="144">
+        <v>31</v>
+      </c>
+      <c r="N12" s="144">
+        <v>2</v>
+      </c>
+      <c r="O12" s="144">
+        <v>25</v>
+      </c>
+      <c r="P12" s="144">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="144">
+        <v>3</v>
+      </c>
+      <c r="R12" s="144">
+        <v>0</v>
+      </c>
+      <c r="S12" s="144">
+        <v>36</v>
+      </c>
+      <c r="T12" s="144">
+        <v>25</v>
+      </c>
+      <c r="U12" s="144">
+        <v>30</v>
+      </c>
+      <c r="V12" s="144">
+        <v>23</v>
+      </c>
+      <c r="W12" s="144">
         <v>1</v>
       </c>
-      <c r="V10" s="109">
-        <v>0</v>
-      </c>
-      <c r="W10" s="109">
-        <v>9</v>
-      </c>
-      <c r="X10" s="109">
+      <c r="X12" s="144">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="144">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="144">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="144">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="144">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="144">
         <v>2</v>
       </c>
-      <c r="Y10" s="109">
+      <c r="AF12" s="144">
+        <v>22</v>
+      </c>
+      <c r="AG12" s="144">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="144">
+        <v>8</v>
+      </c>
+      <c r="AI12" s="144">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="144">
         <v>1</v>
       </c>
-      <c r="Z10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="109">
+      <c r="AK12" s="144">
+        <v>57</v>
+      </c>
+      <c r="AL12" s="144">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="114"/>
+    </row>
+    <row r="13" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A13" s="142">
+        <v>44773</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="144">
+        <v>74</v>
+      </c>
+      <c r="E13" s="144">
+        <v>109</v>
+      </c>
+      <c r="F13" s="144">
+        <v>26</v>
+      </c>
+      <c r="G13" s="144">
+        <v>204</v>
+      </c>
+      <c r="H13" s="144">
+        <v>27</v>
+      </c>
+      <c r="I13" s="144">
+        <v>50</v>
+      </c>
+      <c r="J13" s="144">
+        <v>26</v>
+      </c>
+      <c r="K13" s="144">
+        <v>11</v>
+      </c>
+      <c r="L13" s="144">
+        <v>66</v>
+      </c>
+      <c r="M13" s="144">
+        <v>12</v>
+      </c>
+      <c r="N13" s="144">
+        <v>54</v>
+      </c>
+      <c r="O13" s="144">
+        <v>97</v>
+      </c>
+      <c r="P13" s="144">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="144">
+        <v>3</v>
+      </c>
+      <c r="R13" s="144">
+        <v>0</v>
+      </c>
+      <c r="S13" s="144">
+        <v>117</v>
+      </c>
+      <c r="T13" s="144">
+        <v>225</v>
+      </c>
+      <c r="U13" s="144">
+        <v>252</v>
+      </c>
+      <c r="V13" s="144">
+        <v>410</v>
+      </c>
+      <c r="W13" s="144">
+        <v>4</v>
+      </c>
+      <c r="X13" s="144">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="144">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="144">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="144">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="144">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="144">
         <v>1</v>
       </c>
-      <c r="AC10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="109">
+      <c r="AD13" s="144">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="144">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="144">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="144">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="144">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="144">
+        <v>65</v>
+      </c>
+      <c r="AL13" s="144">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="144">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A14" s="142">
+        <v>44780</v>
+      </c>
+      <c r="B14" s="144">
+        <v>59</v>
+      </c>
+      <c r="C14" s="109">
+        <v>52</v>
+      </c>
+      <c r="D14" s="144">
+        <v>125</v>
+      </c>
+      <c r="E14" s="144">
+        <v>278</v>
+      </c>
+      <c r="F14" s="144">
+        <v>68</v>
+      </c>
+      <c r="G14" s="144">
+        <v>519</v>
+      </c>
+      <c r="H14" s="144">
+        <v>39</v>
+      </c>
+      <c r="I14" s="144">
+        <v>81</v>
+      </c>
+      <c r="J14" s="144">
+        <v>36</v>
+      </c>
+      <c r="K14" s="144">
+        <v>22</v>
+      </c>
+      <c r="L14" s="144">
+        <v>54</v>
+      </c>
+      <c r="M14" s="144">
+        <v>10</v>
+      </c>
+      <c r="N14" s="144">
+        <v>121</v>
+      </c>
+      <c r="O14" s="144">
+        <v>40</v>
+      </c>
+      <c r="P14" s="144">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="144">
+        <v>4</v>
+      </c>
+      <c r="R14" s="144">
+        <v>22</v>
+      </c>
+      <c r="S14" s="144">
+        <v>90</v>
+      </c>
+      <c r="T14" s="144">
+        <v>225</v>
+      </c>
+      <c r="U14" s="144">
+        <v>243</v>
+      </c>
+      <c r="V14" s="144">
+        <v>975</v>
+      </c>
+      <c r="W14" s="144">
+        <v>4</v>
+      </c>
+      <c r="X14" s="144">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="144">
+        <v>50</v>
+      </c>
+      <c r="Z14" s="144">
+        <v>120</v>
+      </c>
+      <c r="AA14" s="144">
+        <v>17</v>
+      </c>
+      <c r="AB14" s="144">
         <v>7</v>
       </c>
-      <c r="AE10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114">
+      <c r="AC14" s="144">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="144">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="144">
+        <v>41</v>
+      </c>
+      <c r="AF14" s="144">
+        <v>32</v>
+      </c>
+      <c r="AG14" s="144">
         <v>2</v>
       </c>
-      <c r="AK10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="114">
+      <c r="AH14" s="144">
+        <v>30</v>
+      </c>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="144">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="144">
+        <v>120</v>
+      </c>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A15" s="142">
+        <v>44787</v>
+      </c>
+      <c r="B15" s="144">
+        <v>4</v>
+      </c>
+      <c r="C15" s="114">
+        <v>16</v>
+      </c>
+      <c r="D15" s="144">
+        <v>235</v>
+      </c>
+      <c r="E15" s="144">
+        <v>243</v>
+      </c>
+      <c r="F15" s="144">
+        <v>22</v>
+      </c>
+      <c r="G15" s="144">
+        <v>263</v>
+      </c>
+      <c r="H15" s="144">
+        <v>90</v>
+      </c>
+      <c r="I15" s="144">
+        <v>27</v>
+      </c>
+      <c r="J15" s="144">
+        <v>27</v>
+      </c>
+      <c r="K15" s="144">
+        <v>5</v>
+      </c>
+      <c r="L15" s="144">
+        <v>36</v>
+      </c>
+      <c r="M15" s="144">
         <v>1</v>
       </c>
-      <c r="AP10" s="114">
+      <c r="N15" s="144">
+        <v>66</v>
+      </c>
+      <c r="O15" s="144">
+        <v>2</v>
+      </c>
+      <c r="P15" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="144">
+        <v>0</v>
+      </c>
+      <c r="R15" s="144">
+        <v>14</v>
+      </c>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="144">
+        <v>5</v>
+      </c>
+      <c r="X15" s="144">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="144">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="144">
+        <v>130</v>
+      </c>
+      <c r="AA15" s="144">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="144">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="144">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="144">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="144">
+        <v>32</v>
+      </c>
+      <c r="AF15" s="144">
+        <v>15</v>
+      </c>
+      <c r="AG15" s="144">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="144">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="144">
+        <v>138</v>
+      </c>
+      <c r="AJ15" s="144">
+        <v>20</v>
+      </c>
+      <c r="AK15" s="144">
+        <v>41</v>
+      </c>
+      <c r="AL15" s="144">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1060" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A16" s="142">
+        <v>44794</v>
+      </c>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="144">
+        <v>99</v>
+      </c>
+      <c r="E16" s="144">
+        <v>31</v>
+      </c>
+      <c r="F16" s="144">
+        <v>20</v>
+      </c>
+      <c r="G16" s="144">
+        <v>95</v>
+      </c>
+      <c r="H16" s="144">
+        <v>102</v>
+      </c>
+      <c r="I16" s="144">
+        <v>8</v>
+      </c>
+      <c r="J16" s="144">
+        <v>2</v>
+      </c>
+      <c r="K16" s="144">
+        <v>8</v>
+      </c>
+      <c r="L16" s="144">
+        <v>2</v>
+      </c>
+      <c r="M16" s="144">
+        <v>3</v>
+      </c>
+      <c r="N16" s="144">
+        <v>47</v>
+      </c>
+      <c r="O16" s="109"/>
+      <c r="P16" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="144">
+        <v>0</v>
+      </c>
+      <c r="R16" s="144">
+        <v>0</v>
+      </c>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="144">
+        <v>1</v>
+      </c>
+      <c r="X16" s="144">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="144">
+        <v>40</v>
+      </c>
+      <c r="Z16" s="144">
+        <v>103</v>
+      </c>
+      <c r="AA16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="144">
         <v>6</v>
       </c>
-      <c r="AQ10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="114">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="114">
+      <c r="AF16" s="144">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="144">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="144">
+        <v>11</v>
+      </c>
+      <c r="AJ16" s="144">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="144">
         <v>4</v>
       </c>
-      <c r="AT10" s="114">
-        <v>2</v>
-      </c>
-      <c r="AU10" s="109">
-        <v>3</v>
-      </c>
-      <c r="AV10" s="109">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="109">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="109"/>
-      <c r="AZ10" s="109"/>
-      <c r="BA10" s="109"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="132">
-        <v>8</v>
-      </c>
-      <c r="BE10" s="114">
-        <v>9</v>
-      </c>
-      <c r="BF10" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A11" s="131">
-        <v>44388</v>
-      </c>
-      <c r="B11" s="109">
-        <v>15</v>
-      </c>
-      <c r="C11" s="109">
-        <v>11</v>
-      </c>
-      <c r="D11" s="109">
-        <v>272</v>
-      </c>
-      <c r="E11" s="114">
-        <v>2</v>
-      </c>
-      <c r="F11" s="109">
-        <v>13</v>
-      </c>
-      <c r="G11" s="109">
-        <v>19</v>
-      </c>
-      <c r="H11" s="109">
-        <v>0</v>
-      </c>
-      <c r="I11" s="109">
-        <v>1</v>
-      </c>
-      <c r="J11" s="109">
-        <v>3</v>
-      </c>
-      <c r="K11" s="109">
-        <v>7</v>
-      </c>
-      <c r="L11" s="109" t="s">
-        <v>290</v>
-      </c>
-      <c r="M11" s="114">
-        <v>2</v>
-      </c>
-      <c r="N11" s="114">
-        <v>8</v>
-      </c>
-      <c r="O11" s="114">
-        <v>65</v>
-      </c>
-      <c r="P11" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="114">
-        <v>0</v>
-      </c>
-      <c r="R11" s="114">
-        <v>0</v>
-      </c>
-      <c r="S11" s="114">
-        <v>0</v>
-      </c>
-      <c r="T11" s="114">
-        <v>7</v>
-      </c>
-      <c r="U11" s="114">
-        <v>14</v>
-      </c>
-      <c r="V11" s="114">
-        <v>0</v>
-      </c>
-      <c r="W11" s="114">
-        <v>80</v>
-      </c>
-      <c r="X11" s="114">
-        <v>255</v>
-      </c>
-      <c r="Y11" s="114">
-        <v>56</v>
-      </c>
-      <c r="Z11" s="114">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="114">
-        <v>46</v>
-      </c>
-      <c r="AB11" s="114">
-        <v>24</v>
-      </c>
-      <c r="AC11" s="114">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="114">
-        <v>52</v>
-      </c>
-      <c r="AE11" s="109">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="109">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="109">
-        <v>22</v>
-      </c>
-      <c r="AK11" s="109">
-        <v>17</v>
-      </c>
-      <c r="AL11" s="109">
-        <v>24</v>
-      </c>
-      <c r="AM11" s="109">
-        <v>33</v>
-      </c>
-      <c r="AN11" s="109">
-        <v>6</v>
-      </c>
-      <c r="AO11" s="109">
-        <v>96</v>
-      </c>
-      <c r="AP11" s="109">
-        <v>16</v>
-      </c>
-      <c r="AQ11" s="109">
-        <v>27</v>
-      </c>
-      <c r="AR11" s="114">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="114">
-        <v>7</v>
-      </c>
-      <c r="AT11" s="114">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="114">
-        <v>67</v>
-      </c>
-      <c r="AV11" s="114">
-        <v>19</v>
-      </c>
-      <c r="AW11" s="109">
-        <v>5</v>
-      </c>
-      <c r="AX11" s="109">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="114">
-        <v>24</v>
-      </c>
-      <c r="AZ11" s="114">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="114">
-        <v>13</v>
-      </c>
-      <c r="BB11" s="114">
-        <v>8</v>
-      </c>
-      <c r="BC11" s="114">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="132">
-        <v>37</v>
-      </c>
-      <c r="BE11" s="114">
-        <v>102</v>
-      </c>
-      <c r="BF11" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A12" s="131">
-        <v>44395</v>
-      </c>
-      <c r="B12" s="109">
-        <v>100</v>
-      </c>
-      <c r="C12" s="109">
-        <v>317</v>
-      </c>
-      <c r="D12" s="109">
-        <v>503</v>
-      </c>
-      <c r="E12" s="109">
-        <v>29</v>
-      </c>
-      <c r="F12" s="109">
-        <v>228</v>
-      </c>
-      <c r="G12" s="109">
-        <v>124</v>
-      </c>
-      <c r="H12" s="109">
-        <v>2</v>
-      </c>
-      <c r="I12" s="109">
-        <v>32</v>
-      </c>
-      <c r="J12" s="109">
-        <v>59</v>
-      </c>
-      <c r="K12" s="109">
-        <v>20</v>
-      </c>
-      <c r="L12" s="109">
-        <v>30</v>
-      </c>
-      <c r="M12" s="109">
-        <v>29</v>
-      </c>
-      <c r="N12" s="109">
-        <v>5</v>
-      </c>
-      <c r="O12" s="109">
-        <v>57</v>
-      </c>
-      <c r="P12" s="109">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="109">
-        <v>24</v>
-      </c>
-      <c r="R12" s="109">
-        <v>12</v>
-      </c>
-      <c r="S12" s="109">
-        <v>1</v>
-      </c>
-      <c r="T12" s="109">
-        <v>66</v>
-      </c>
-      <c r="U12" s="109">
-        <v>90</v>
-      </c>
-      <c r="V12" s="109">
-        <v>0</v>
-      </c>
-      <c r="W12" s="109">
-        <v>448</v>
-      </c>
-      <c r="X12" s="109">
-        <v>526</v>
-      </c>
-      <c r="Y12" s="109">
-        <v>216</v>
-      </c>
-      <c r="Z12" s="109">
-        <v>593</v>
-      </c>
-      <c r="AA12" s="109">
-        <v>161</v>
-      </c>
-      <c r="AB12" s="109">
-        <v>110</v>
-      </c>
-      <c r="AC12" s="109">
-        <v>339</v>
-      </c>
-      <c r="AD12" s="109">
-        <v>409</v>
-      </c>
-      <c r="AE12" s="109">
-        <v>182</v>
-      </c>
-      <c r="AF12" s="109">
-        <v>6</v>
-      </c>
-      <c r="AG12" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="114">
-        <v>219</v>
-      </c>
-      <c r="AK12" s="114">
-        <v>187</v>
-      </c>
-      <c r="AL12" s="114">
-        <v>775</v>
-      </c>
-      <c r="AM12" s="114">
-        <v>840</v>
-      </c>
-      <c r="AN12" s="114">
-        <v>275</v>
-      </c>
-      <c r="AO12" s="114">
-        <v>1050</v>
-      </c>
-      <c r="AP12" s="114">
-        <v>600</v>
-      </c>
-      <c r="AQ12" s="114">
-        <v>410</v>
-      </c>
-      <c r="AR12" s="110">
-        <v>425</v>
-      </c>
-      <c r="AS12" s="110">
-        <v>625</v>
-      </c>
-      <c r="AT12" s="110">
-        <v>27</v>
-      </c>
-      <c r="AU12" s="109">
-        <v>169</v>
-      </c>
-      <c r="AV12" s="109">
-        <v>194</v>
-      </c>
-      <c r="AW12" s="109">
-        <v>15</v>
-      </c>
-      <c r="AX12" s="109">
-        <v>8</v>
-      </c>
-      <c r="AY12" s="109">
-        <v>73</v>
-      </c>
-      <c r="AZ12" s="109">
-        <v>243</v>
-      </c>
-      <c r="BA12" s="109">
-        <v>202</v>
-      </c>
-      <c r="BB12" s="114">
-        <v>81</v>
-      </c>
-      <c r="BC12" s="114">
-        <v>38</v>
-      </c>
-      <c r="BD12" s="132">
-        <v>31</v>
-      </c>
-      <c r="BE12" s="114">
-        <v>380</v>
-      </c>
-      <c r="BF12" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A13" s="131">
-        <v>44402</v>
-      </c>
-      <c r="B13" s="109">
-        <v>413</v>
-      </c>
-      <c r="C13" s="109">
-        <v>529</v>
-      </c>
-      <c r="D13" s="109">
-        <v>813</v>
-      </c>
-      <c r="E13" s="114">
-        <v>32</v>
-      </c>
-      <c r="F13" s="109">
-        <v>403</v>
-      </c>
-      <c r="G13" s="109">
-        <v>81</v>
-      </c>
-      <c r="H13" s="109">
-        <v>11</v>
-      </c>
-      <c r="I13" s="109">
-        <v>35</v>
-      </c>
-      <c r="J13" s="109">
-        <v>151</v>
-      </c>
-      <c r="K13" s="109">
-        <v>31</v>
-      </c>
-      <c r="L13" s="109">
-        <v>41</v>
-      </c>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114">
-        <v>5</v>
-      </c>
-      <c r="O13" s="114">
-        <v>12</v>
-      </c>
-      <c r="P13" s="114">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="114">
-        <v>100</v>
-      </c>
-      <c r="R13" s="114">
-        <v>1</v>
-      </c>
-      <c r="S13" s="114">
-        <v>0</v>
-      </c>
-      <c r="T13" s="114">
-        <v>38</v>
-      </c>
-      <c r="U13" s="114">
-        <v>107</v>
-      </c>
-      <c r="V13" s="114">
-        <v>0</v>
-      </c>
-      <c r="W13" s="114">
-        <v>584</v>
-      </c>
-      <c r="X13" s="114">
-        <v>298</v>
-      </c>
-      <c r="Y13" s="114">
-        <v>210</v>
-      </c>
-      <c r="Z13" s="114">
-        <v>1120</v>
-      </c>
-      <c r="AA13" s="114">
-        <v>90</v>
-      </c>
-      <c r="AB13" s="114">
-        <v>885</v>
-      </c>
-      <c r="AC13" s="109">
-        <v>265</v>
-      </c>
-      <c r="AD13" s="109">
-        <v>589</v>
-      </c>
-      <c r="AE13" s="109">
-        <v>95</v>
-      </c>
-      <c r="AF13" s="109">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="114">
-        <v>29</v>
-      </c>
-      <c r="AI13" s="114">
-        <v>48</v>
-      </c>
-      <c r="AJ13" s="110">
-        <v>64</v>
-      </c>
-      <c r="AK13" s="110">
-        <v>190</v>
-      </c>
-      <c r="AL13" s="110">
-        <v>230</v>
-      </c>
-      <c r="AM13" s="110">
-        <v>825</v>
-      </c>
-      <c r="AN13" s="110">
-        <v>275</v>
-      </c>
-      <c r="AO13" s="110">
-        <v>790</v>
-      </c>
-      <c r="AP13" s="110">
-        <v>330</v>
-      </c>
-      <c r="AQ13" s="110">
-        <v>290</v>
-      </c>
-      <c r="AR13" s="110">
-        <v>425</v>
-      </c>
-      <c r="AS13" s="110">
-        <v>850</v>
-      </c>
-      <c r="AT13" s="110">
-        <v>227</v>
-      </c>
-      <c r="AU13" s="114">
-        <v>93</v>
-      </c>
-      <c r="AV13" s="114">
-        <v>74</v>
-      </c>
-      <c r="AW13" s="109">
-        <v>25</v>
-      </c>
-      <c r="AX13" s="109">
-        <v>5</v>
-      </c>
-      <c r="AY13" s="114">
-        <v>124</v>
-      </c>
-      <c r="AZ13" s="114">
-        <v>410</v>
-      </c>
-      <c r="BA13" s="114">
-        <v>579</v>
-      </c>
-      <c r="BB13" s="114">
-        <v>174</v>
-      </c>
-      <c r="BC13" s="114">
-        <v>43</v>
-      </c>
-      <c r="BD13" s="132">
-        <v>3</v>
-      </c>
-      <c r="BE13" s="114">
-        <v>514</v>
-      </c>
-      <c r="BF13" s="109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A14" s="131">
-        <v>44409</v>
-      </c>
-      <c r="B14" s="109">
-        <v>38</v>
-      </c>
-      <c r="C14" s="109">
-        <v>182</v>
-      </c>
-      <c r="D14" s="109">
-        <v>205</v>
-      </c>
-      <c r="E14" s="109">
-        <v>0</v>
-      </c>
-      <c r="F14" s="109">
-        <v>62</v>
-      </c>
-      <c r="G14" s="109">
-        <v>37</v>
-      </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109">
-        <v>34</v>
-      </c>
-      <c r="J14" s="109">
-        <v>84</v>
-      </c>
-      <c r="K14" s="109">
-        <v>52</v>
-      </c>
-      <c r="L14" s="109">
-        <v>38</v>
-      </c>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109">
-        <v>5</v>
-      </c>
-      <c r="O14" s="109">
-        <v>6</v>
-      </c>
-      <c r="P14" s="109">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="109">
-        <v>18</v>
-      </c>
-      <c r="R14" s="109">
-        <v>9</v>
-      </c>
-      <c r="S14" s="109">
-        <v>0</v>
-      </c>
-      <c r="T14" s="109">
-        <v>4</v>
-      </c>
-      <c r="U14" s="109">
-        <v>38</v>
-      </c>
-      <c r="V14" s="109">
-        <v>0</v>
-      </c>
-      <c r="W14" s="109">
-        <v>167</v>
-      </c>
-      <c r="X14" s="109">
-        <v>39</v>
-      </c>
-      <c r="Y14" s="109">
-        <v>53</v>
-      </c>
-      <c r="Z14" s="109">
-        <v>148</v>
-      </c>
-      <c r="AA14" s="109">
-        <v>25</v>
-      </c>
-      <c r="AB14" s="109">
-        <v>170</v>
-      </c>
-      <c r="AC14" s="109">
-        <v>89</v>
-      </c>
-      <c r="AD14" s="109">
-        <v>106</v>
-      </c>
-      <c r="AE14" s="109">
-        <v>25</v>
-      </c>
-      <c r="AF14" s="109">
-        <v>19</v>
-      </c>
-      <c r="AG14" s="109">
-        <v>8</v>
-      </c>
-      <c r="AH14" s="114">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="114">
-        <v>25</v>
-      </c>
-      <c r="AJ14" s="110">
-        <v>12</v>
-      </c>
-      <c r="AK14" s="110">
-        <v>88</v>
-      </c>
-      <c r="AL14" s="110">
-        <v>46</v>
-      </c>
-      <c r="AM14" s="110">
-        <v>360</v>
-      </c>
-      <c r="AN14" s="110">
-        <v>103</v>
-      </c>
-      <c r="AO14" s="110">
-        <v>452</v>
-      </c>
-      <c r="AP14" s="110">
-        <v>58</v>
-      </c>
-      <c r="AQ14" s="110">
-        <v>87</v>
-      </c>
-      <c r="AR14" s="110">
-        <v>415</v>
-      </c>
-      <c r="AS14" s="110">
-        <v>510</v>
-      </c>
-      <c r="AT14" s="110">
-        <v>116</v>
-      </c>
-      <c r="AU14" s="109">
-        <v>15</v>
-      </c>
-      <c r="AV14" s="109">
-        <v>6</v>
-      </c>
-      <c r="AW14" s="109">
-        <v>24</v>
-      </c>
-      <c r="AX14" s="109">
-        <v>10</v>
-      </c>
-      <c r="AY14" s="109">
-        <v>24</v>
-      </c>
-      <c r="AZ14" s="109">
-        <v>502</v>
-      </c>
-      <c r="BA14" s="109">
-        <v>501</v>
-      </c>
-      <c r="BB14" s="114">
-        <v>71</v>
-      </c>
-      <c r="BC14" s="114">
-        <v>22</v>
-      </c>
-      <c r="BD14" s="132">
-        <v>3</v>
-      </c>
-      <c r="BE14" s="114">
-        <v>250</v>
-      </c>
-      <c r="BF14" s="109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A15" s="131">
-        <v>44416</v>
-      </c>
-      <c r="B15" s="109">
-        <v>17</v>
-      </c>
-      <c r="C15" s="109">
-        <v>27</v>
-      </c>
-      <c r="D15" s="109">
-        <v>62</v>
-      </c>
-      <c r="E15" s="114">
-        <v>0</v>
-      </c>
-      <c r="F15" s="109">
-        <v>16</v>
-      </c>
-      <c r="G15" s="109">
-        <v>8</v>
-      </c>
-      <c r="H15" s="109">
-        <v>1</v>
-      </c>
-      <c r="I15" s="109">
-        <v>1</v>
-      </c>
-      <c r="J15" s="109">
-        <v>7</v>
-      </c>
-      <c r="K15" s="109">
-        <v>9</v>
-      </c>
-      <c r="L15" s="109">
-        <v>5</v>
-      </c>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114">
-        <v>2</v>
-      </c>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="114">
-        <v>4</v>
-      </c>
-      <c r="R15" s="114">
-        <v>5</v>
-      </c>
-      <c r="S15" s="114">
-        <v>0</v>
-      </c>
-      <c r="T15" s="114">
-        <v>4</v>
-      </c>
-      <c r="U15" s="114">
-        <v>3</v>
-      </c>
-      <c r="V15" s="114">
-        <v>0</v>
-      </c>
-      <c r="W15" s="114">
-        <v>45</v>
-      </c>
-      <c r="X15" s="114">
-        <v>26</v>
-      </c>
-      <c r="Y15" s="114">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="114">
-        <v>18</v>
-      </c>
-      <c r="AA15" s="114">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="114">
-        <v>39</v>
-      </c>
-      <c r="AC15" s="114">
-        <v>64</v>
-      </c>
-      <c r="AD15" s="114">
-        <v>17</v>
-      </c>
-      <c r="AE15" s="109">
-        <v>15</v>
-      </c>
-      <c r="AF15" s="109">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="114"/>
-      <c r="AI15" s="114"/>
-      <c r="AJ15" s="110">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="110">
-        <v>18</v>
-      </c>
-      <c r="AL15" s="110">
-        <v>7</v>
-      </c>
-      <c r="AM15" s="110">
-        <v>16</v>
-      </c>
-      <c r="AN15" s="110">
-        <v>8</v>
-      </c>
-      <c r="AO15" s="110">
-        <v>71</v>
-      </c>
-      <c r="AP15" s="110">
-        <v>27</v>
-      </c>
-      <c r="AQ15" s="110">
-        <v>21</v>
-      </c>
-      <c r="AR15" s="110">
-        <v>76</v>
-      </c>
-      <c r="AS15" s="110">
-        <v>84</v>
-      </c>
-      <c r="AT15" s="110">
-        <v>45</v>
-      </c>
-      <c r="AU15" s="114">
-        <v>5</v>
-      </c>
-      <c r="AV15" s="114">
-        <v>4</v>
-      </c>
-      <c r="AW15" s="109">
-        <v>31</v>
-      </c>
-      <c r="AX15" s="109">
-        <v>8</v>
-      </c>
-      <c r="AY15" s="114">
-        <v>20</v>
-      </c>
-      <c r="AZ15" s="114">
-        <v>75</v>
-      </c>
-      <c r="BA15" s="114">
-        <v>44</v>
-      </c>
-      <c r="BB15" s="114">
-        <v>16</v>
-      </c>
-      <c r="BC15" s="114">
-        <v>6</v>
-      </c>
-      <c r="BD15" s="132">
-        <v>14</v>
-      </c>
-      <c r="BE15" s="114">
-        <v>104</v>
-      </c>
-      <c r="BF15" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A16" s="131">
-        <v>44423</v>
-      </c>
-      <c r="B16" s="109">
-        <v>0</v>
-      </c>
-      <c r="C16" s="109">
-        <v>2</v>
-      </c>
-      <c r="D16" s="109">
-        <v>6</v>
-      </c>
-      <c r="E16" s="109">
-        <v>0</v>
-      </c>
-      <c r="F16" s="109">
-        <v>4</v>
-      </c>
-      <c r="G16" s="109">
-        <v>3</v>
-      </c>
-      <c r="H16" s="109">
-        <v>0</v>
-      </c>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="109">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="109">
-        <v>0</v>
-      </c>
-      <c r="R16" s="109">
-        <v>0</v>
-      </c>
-      <c r="S16" s="109">
-        <v>0</v>
-      </c>
-      <c r="T16" s="109">
-        <v>2</v>
-      </c>
-      <c r="U16" s="109">
-        <v>0</v>
-      </c>
-      <c r="V16" s="109">
-        <v>0</v>
-      </c>
-      <c r="W16" s="109">
-        <v>10</v>
-      </c>
-      <c r="X16" s="109">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="109">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="109">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="109">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="109">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="109">
-        <v>10</v>
-      </c>
-      <c r="AD16" s="109">
-        <v>6</v>
-      </c>
-      <c r="AE16" s="109">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="109">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="114"/>
-      <c r="AI16" s="114"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110">
-        <v>2</v>
-      </c>
-      <c r="AL16" s="110">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="110">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="110">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="110">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="110">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="110">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="110">
-        <v>11</v>
-      </c>
-      <c r="AS16" s="110">
-        <v>22</v>
-      </c>
-      <c r="AT16" s="112">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="109">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="109">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="109">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="109">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="109">
-        <v>6</v>
-      </c>
-      <c r="AZ16" s="109">
-        <v>1</v>
-      </c>
-      <c r="BA16" s="109">
-        <v>50</v>
-      </c>
-      <c r="BB16" s="114">
-        <v>3</v>
-      </c>
-      <c r="BC16" s="114">
-        <v>10</v>
-      </c>
-      <c r="BD16" s="132">
-        <v>4</v>
-      </c>
-      <c r="BE16" s="114">
-        <v>11</v>
-      </c>
-      <c r="BF16" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A17" s="131">
-        <v>44430</v>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="114"/>
+    </row>
+    <row r="17" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A17" s="142">
+        <v>44801</v>
       </c>
       <c r="B17" s="114"/>
       <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114">
-        <v>0</v>
-      </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="109">
-        <v>0</v>
-      </c>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
+      <c r="D17" s="144">
+        <v>21</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="144">
+        <v>1</v>
+      </c>
+      <c r="G17" s="144">
+        <v>40</v>
+      </c>
+      <c r="H17" s="144">
+        <v>38</v>
+      </c>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
       <c r="M17" s="114"/>
-      <c r="N17" s="114">
-        <v>0</v>
-      </c>
-      <c r="O17" s="114">
-        <v>1</v>
-      </c>
-      <c r="P17" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="114">
-        <v>0</v>
-      </c>
-      <c r="R17" s="114">
-        <v>0</v>
-      </c>
-      <c r="S17" s="114">
-        <v>0</v>
-      </c>
-      <c r="T17" s="114">
-        <v>0</v>
-      </c>
-      <c r="U17" s="114">
-        <v>0</v>
-      </c>
-      <c r="V17" s="114">
-        <v>0</v>
-      </c>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
+      <c r="N17" s="144">
+        <v>7</v>
+      </c>
+      <c r="O17" s="114"/>
+      <c r="P17" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="144">
+        <v>0</v>
+      </c>
+      <c r="R17" s="37"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="144">
+        <v>0</v>
+      </c>
+      <c r="X17" s="144">
+        <v>2</v>
+      </c>
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="114"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="109">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="109">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="109">
+      <c r="AA17" s="144">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="144">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="144">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="144">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="144">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="144">
         <v>0</v>
       </c>
       <c r="AH17" s="114"/>
       <c r="AI17" s="114"/>
       <c r="AJ17" s="114"/>
       <c r="AK17" s="114"/>
-      <c r="AL17" s="114"/>
+      <c r="AL17" s="144">
+        <v>0</v>
+      </c>
       <c r="AM17" s="114"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="114"/>
-      <c r="AP17" s="114"/>
-      <c r="AQ17" s="114"/>
-      <c r="AR17" s="114"/>
-      <c r="AS17" s="114"/>
-      <c r="AT17" s="114"/>
-      <c r="AU17" s="114">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="114">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="109">
+    </row>
+    <row r="18" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A18" s="142">
+        <v>44808</v>
+      </c>
+      <c r="B18" s="114"/>
+      <c r="C18" s="109">
+        <v>5</v>
+      </c>
+      <c r="D18" s="144">
+        <v>0</v>
+      </c>
+      <c r="E18" s="144">
+        <v>2</v>
+      </c>
+      <c r="F18" s="144">
+        <v>3</v>
+      </c>
+      <c r="G18" s="144">
+        <v>13</v>
+      </c>
+      <c r="H18" s="144">
         <v>7</v>
       </c>
-      <c r="AX17" s="109">
-        <v>4</v>
-      </c>
-      <c r="AY17" s="114">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="114">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="114">
-        <v>7</v>
-      </c>
-      <c r="BB17" s="114"/>
-      <c r="BC17" s="114">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="132">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="114">
-        <v>4</v>
-      </c>
-      <c r="BF17" s="114"/>
-    </row>
-    <row r="18" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A18" s="131">
-        <v>44437</v>
-      </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="109">
-        <v>0</v>
-      </c>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
       <c r="I18" s="114"/>
       <c r="J18" s="114"/>
       <c r="K18" s="114"/>
       <c r="L18" s="114"/>
       <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
+      <c r="N18" s="144">
+        <v>5</v>
+      </c>
       <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
+      <c r="P18" s="144">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="144">
+        <v>0</v>
+      </c>
+      <c r="R18" s="37"/>
       <c r="S18" s="114"/>
       <c r="T18" s="114"/>
       <c r="U18" s="114"/>
       <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
+      <c r="W18" s="144">
+        <v>1</v>
+      </c>
+      <c r="X18" s="144">
+        <v>0</v>
+      </c>
       <c r="Y18" s="114"/>
       <c r="Z18" s="114"/>
       <c r="AA18" s="114"/>
@@ -8063,46 +10081,23 @@
       <c r="AE18" s="114"/>
       <c r="AF18" s="114"/>
       <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
+      <c r="AH18" s="109"/>
       <c r="AI18" s="114"/>
       <c r="AJ18" s="114"/>
       <c r="AK18" s="114"/>
-      <c r="AL18" s="114"/>
-      <c r="AM18" s="114"/>
-      <c r="AN18" s="114"/>
-      <c r="AO18" s="114"/>
-      <c r="AP18" s="114"/>
-      <c r="AQ18" s="114"/>
-      <c r="AR18" s="114"/>
-      <c r="AS18" s="114"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="109">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="109">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="114"/>
-      <c r="AX18" s="114"/>
-      <c r="AY18" s="114"/>
-      <c r="AZ18" s="114"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="114"/>
-      <c r="BC18" s="109">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="126">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="114"/>
-      <c r="BF18" s="114"/>
-    </row>
-    <row r="19" spans="1:58" s="17" customFormat="1" ht="18">
-      <c r="A19" s="131">
-        <v>44444</v>
+      <c r="AL18" s="144">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="109"/>
+    </row>
+    <row r="19" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A19" s="142">
+        <v>44815</v>
       </c>
       <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
+      <c r="C19" s="114">
+        <v>0</v>
+      </c>
       <c r="D19" s="114"/>
       <c r="E19" s="114"/>
       <c r="F19" s="114"/>
@@ -8113,7 +10108,9 @@
       <c r="K19" s="114"/>
       <c r="L19" s="114"/>
       <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
+      <c r="N19" s="144">
+        <v>1</v>
+      </c>
       <c r="O19" s="114"/>
       <c r="P19" s="114"/>
       <c r="Q19" s="114"/>
@@ -8139,25 +10136,51 @@
       <c r="AK19" s="114"/>
       <c r="AL19" s="114"/>
       <c r="AM19" s="114"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="114"/>
-      <c r="AP19" s="114"/>
-      <c r="AQ19" s="114"/>
-      <c r="AR19" s="114"/>
-      <c r="AS19" s="114"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="114"/>
-      <c r="AW19" s="114"/>
-      <c r="AX19" s="114"/>
-      <c r="AY19" s="114"/>
-      <c r="AZ19" s="114"/>
-      <c r="BA19" s="114"/>
-      <c r="BB19" s="114"/>
-      <c r="BC19" s="114"/>
-      <c r="BD19" s="132"/>
-      <c r="BE19" s="114"/>
-      <c r="BF19" s="114"/>
+    </row>
+    <row r="20" spans="1:39" s="17" customFormat="1" ht="17" thickBot="1">
+      <c r="A20" s="142">
+        <v>44822</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="144">
+        <v>0</v>
+      </c>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="114"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="114"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="114"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="114"/>
+      <c r="AH20" s="114"/>
+      <c r="AI20" s="114"/>
+      <c r="AJ20" s="114"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="114"/>
+      <c r="AM20" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18578,7 +20601,7 @@
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
